--- a/data_capture/excels/RECV3_SA_dados.xlsx
+++ b/data_capture/excels/RECV3_SA_dados.xlsx
@@ -955,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1007"/>
+  <dimension ref="A1:H1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,16 +992,16 @@
         <v>44321</v>
       </c>
       <c r="B2">
-        <v>10.62130411646525</v>
+        <v>10.62130323365974</v>
       </c>
       <c r="C2">
-        <v>12.27513961425739</v>
+        <v>12.27513859399087</v>
       </c>
       <c r="D2">
-        <v>10.53309868736402</v>
+        <v>10.53309781188984</v>
       </c>
       <c r="E2">
-        <v>11.47394847869873</v>
+        <v>11.47394752502441</v>
       </c>
       <c r="F2">
         <v>10680015</v>
@@ -1044,16 +1044,16 @@
         <v>44323</v>
       </c>
       <c r="B4">
-        <v>11.87086865060816</v>
+        <v>11.87086772278649</v>
       </c>
       <c r="C4">
-        <v>12.42214809024804</v>
+        <v>12.42214711933863</v>
       </c>
       <c r="D4">
-        <v>11.40779463769991</v>
+        <v>11.40779374607189</v>
       </c>
       <c r="E4">
-        <v>12.20163631439209</v>
+        <v>12.20163536071777</v>
       </c>
       <c r="F4">
         <v>2348389</v>
@@ -1070,16 +1070,16 @@
         <v>44326</v>
       </c>
       <c r="B5">
-        <v>12.38539594356624</v>
+        <v>12.38539493163846</v>
       </c>
       <c r="C5">
-        <v>12.4221481451678</v>
+        <v>12.42214713023725</v>
       </c>
       <c r="D5">
-        <v>11.65770779641365</v>
+        <v>11.6577068439404</v>
       </c>
       <c r="E5">
-        <v>11.67240810394287</v>
+        <v>11.67240715026855</v>
       </c>
       <c r="F5">
         <v>1054061</v>
@@ -1122,16 +1122,16 @@
         <v>44328</v>
       </c>
       <c r="B7">
-        <v>11.71650886535645</v>
+        <v>11.71650981903076</v>
       </c>
       <c r="C7">
-        <v>12.03257546368552</v>
+        <v>12.03257644308632</v>
       </c>
       <c r="D7">
-        <v>11.55480048980957</v>
+        <v>11.55480143032151</v>
       </c>
       <c r="E7">
-        <v>11.71650886535645</v>
+        <v>11.71650981903076</v>
       </c>
       <c r="F7">
         <v>360142</v>
@@ -1148,16 +1148,16 @@
         <v>44329</v>
       </c>
       <c r="B8">
-        <v>11.6062538890825</v>
+        <v>11.60625484517889</v>
       </c>
       <c r="C8">
-        <v>11.701808742068</v>
+        <v>11.70180970603598</v>
       </c>
       <c r="D8">
-        <v>11.34163978876341</v>
+        <v>11.3416407230615</v>
       </c>
       <c r="E8">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F8">
         <v>616453</v>
@@ -1226,16 +1226,16 @@
         <v>44334</v>
       </c>
       <c r="B11">
-        <v>12.01787482136661</v>
+        <v>12.01787678023273</v>
       </c>
       <c r="C11">
-        <v>12.20163509379011</v>
+        <v>12.20163708260843</v>
       </c>
       <c r="D11">
-        <v>11.70180892944336</v>
+        <v>11.70181083679199</v>
       </c>
       <c r="E11">
-        <v>11.70180892944336</v>
+        <v>11.70181083679199</v>
       </c>
       <c r="F11">
         <v>416453</v>
@@ -1252,16 +1252,16 @@
         <v>44335</v>
       </c>
       <c r="B12">
-        <v>11.67240855522236</v>
+        <v>11.67240758443087</v>
       </c>
       <c r="C12">
-        <v>11.83411695902056</v>
+        <v>11.83411597477982</v>
       </c>
       <c r="D12">
-        <v>11.40779512918408</v>
+        <v>11.40779418040043</v>
       </c>
       <c r="E12">
-        <v>11.46659851074219</v>
+        <v>11.46659755706787</v>
       </c>
       <c r="F12">
         <v>1259989</v>
@@ -1278,16 +1278,16 @@
         <v>44336</v>
       </c>
       <c r="B13">
-        <v>11.51069831970782</v>
+        <v>11.51069926793257</v>
       </c>
       <c r="C13">
-        <v>11.63565521698823</v>
+        <v>11.63565617550663</v>
       </c>
       <c r="D13">
-        <v>11.17258125781899</v>
+        <v>11.17258217819043</v>
       </c>
       <c r="E13">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F13">
         <v>367194</v>
@@ -1330,16 +1330,16 @@
         <v>44340</v>
       </c>
       <c r="B15">
-        <v>11.57685202965759</v>
+        <v>11.57685298942566</v>
       </c>
       <c r="C15">
-        <v>11.69445805954773</v>
+        <v>11.69445902906582</v>
       </c>
       <c r="D15">
-        <v>11.42984467139221</v>
+        <v>11.42984561897278</v>
       </c>
       <c r="E15">
-        <v>11.5033483505249</v>
+        <v>11.50334930419922</v>
       </c>
       <c r="F15">
         <v>327848</v>
@@ -1356,16 +1356,16 @@
         <v>44341</v>
       </c>
       <c r="B16">
-        <v>11.48864897288853</v>
+        <v>11.48864801738029</v>
       </c>
       <c r="C16">
-        <v>11.64300722263795</v>
+        <v>11.64300625429176</v>
       </c>
       <c r="D16">
-        <v>11.42984630771971</v>
+        <v>11.42984535710207</v>
       </c>
       <c r="E16">
-        <v>11.46659851074219</v>
+        <v>11.46659755706787</v>
       </c>
       <c r="F16">
         <v>209095</v>
@@ -1408,16 +1408,16 @@
         <v>44343</v>
       </c>
       <c r="B18">
-        <v>11.36369088018376</v>
+        <v>11.36369183078367</v>
       </c>
       <c r="C18">
-        <v>11.56215145396294</v>
+        <v>11.56215242116455</v>
       </c>
       <c r="D18">
-        <v>11.21668352534751</v>
+        <v>11.2166844636499</v>
       </c>
       <c r="E18">
-        <v>11.4004430770874</v>
+        <v>11.40044403076172</v>
       </c>
       <c r="F18">
         <v>582626</v>
@@ -1434,16 +1434,16 @@
         <v>44344</v>
       </c>
       <c r="B19">
-        <v>11.56950245654289</v>
+        <v>11.56950340359867</v>
       </c>
       <c r="C19">
-        <v>11.73121084529555</v>
+        <v>11.73121180558846</v>
       </c>
       <c r="D19">
-        <v>11.4371953976391</v>
+        <v>11.4371963338645</v>
       </c>
       <c r="E19">
-        <v>11.65035629272461</v>
+        <v>11.65035724639893</v>
       </c>
       <c r="F19">
         <v>401021</v>
@@ -1460,16 +1460,16 @@
         <v>44347</v>
       </c>
       <c r="B20">
-        <v>11.64300626145011</v>
+        <v>11.64300532317673</v>
       </c>
       <c r="C20">
-        <v>11.87086818204407</v>
+        <v>11.87086722540801</v>
       </c>
       <c r="D20">
-        <v>11.56950257786253</v>
+        <v>11.56950164551258</v>
       </c>
       <c r="E20">
-        <v>11.83411598205566</v>
+        <v>11.83411502838135</v>
       </c>
       <c r="F20">
         <v>1178844</v>
@@ -1564,16 +1564,16 @@
         <v>44354</v>
       </c>
       <c r="B24">
-        <v>12.25308786819876</v>
+        <v>12.25308883639309</v>
       </c>
       <c r="C24">
-        <v>12.31189052625066</v>
+        <v>12.31189149909136</v>
       </c>
       <c r="D24">
-        <v>11.98112360463842</v>
+        <v>11.98112455134312</v>
       </c>
       <c r="E24">
-        <v>12.06932830810547</v>
+        <v>12.06932926177979</v>
       </c>
       <c r="F24">
         <v>421563</v>
@@ -1590,16 +1590,16 @@
         <v>44355</v>
       </c>
       <c r="B25">
-        <v>12.17958328512953</v>
+        <v>12.17958426299978</v>
       </c>
       <c r="C25">
-        <v>12.18693343817652</v>
+        <v>12.1869344166369</v>
       </c>
       <c r="D25">
-        <v>11.84146621551942</v>
+        <v>11.84146716624305</v>
       </c>
       <c r="E25">
-        <v>11.87821769714355</v>
+        <v>11.87821865081787</v>
       </c>
       <c r="F25">
         <v>201124</v>
@@ -1616,16 +1616,16 @@
         <v>44356</v>
       </c>
       <c r="B26">
-        <v>11.9223220138063</v>
+        <v>11.92232105718312</v>
       </c>
       <c r="C26">
-        <v>11.93702303871319</v>
+        <v>11.93702208091042</v>
       </c>
       <c r="D26">
-        <v>11.74591329687021</v>
+        <v>11.74591235440171</v>
       </c>
       <c r="E26">
-        <v>11.88557052612305</v>
+        <v>11.88556957244873</v>
       </c>
       <c r="F26">
         <v>895043</v>
@@ -1642,16 +1642,16 @@
         <v>44357</v>
       </c>
       <c r="B27">
-        <v>11.94436988390567</v>
+        <v>11.94437173874807</v>
       </c>
       <c r="C27">
-        <v>12.28248691558838</v>
+        <v>12.28248882293701</v>
       </c>
       <c r="D27">
-        <v>11.94436988390567</v>
+        <v>11.94437173874807</v>
       </c>
       <c r="E27">
-        <v>12.28248691558838</v>
+        <v>12.28248882293701</v>
       </c>
       <c r="F27">
         <v>755032</v>
@@ -1668,16 +1668,16 @@
         <v>44358</v>
       </c>
       <c r="B28">
-        <v>12.27513885498047</v>
+        <v>12.27513790130615</v>
       </c>
       <c r="C28">
-        <v>12.40744734864303</v>
+        <v>12.40744638468946</v>
       </c>
       <c r="D28">
-        <v>12.04727693336537</v>
+        <v>12.04727599739399</v>
       </c>
       <c r="E28">
-        <v>12.27513885498047</v>
+        <v>12.27513790130615</v>
       </c>
       <c r="F28">
         <v>1029023</v>
@@ -1720,16 +1720,16 @@
         <v>44362</v>
       </c>
       <c r="B30">
-        <v>12.79701599237894</v>
+        <v>12.79701691428182</v>
       </c>
       <c r="C30">
-        <v>13.52470405668016</v>
+        <v>13.52470503100603</v>
       </c>
       <c r="D30">
-        <v>12.78966583945119</v>
+        <v>12.78966676082456</v>
       </c>
       <c r="E30">
-        <v>13.23803806304932</v>
+        <v>13.23803901672363</v>
       </c>
       <c r="F30">
         <v>1521511</v>
@@ -1746,16 +1746,16 @@
         <v>44363</v>
       </c>
       <c r="B31">
-        <v>13.52470537571073</v>
+        <v>13.52470442872706</v>
       </c>
       <c r="C31">
-        <v>13.81872011816551</v>
+        <v>13.81871915059527</v>
       </c>
       <c r="D31">
-        <v>13.29684344883582</v>
+        <v>13.29684251780676</v>
       </c>
       <c r="E31">
-        <v>13.62026023864746</v>
+        <v>13.62025928497314</v>
       </c>
       <c r="F31">
         <v>795196</v>
@@ -1772,16 +1772,16 @@
         <v>44364</v>
       </c>
       <c r="B32">
-        <v>13.64965960806037</v>
+        <v>13.64966055510487</v>
       </c>
       <c r="C32">
-        <v>13.94367575647254</v>
+        <v>13.94367672391655</v>
       </c>
       <c r="D32">
-        <v>13.37769535134883</v>
+        <v>13.37769627952383</v>
       </c>
       <c r="E32">
-        <v>13.74521446228027</v>
+        <v>13.74521541595459</v>
       </c>
       <c r="F32">
         <v>1181297</v>
@@ -1798,16 +1798,16 @@
         <v>44365</v>
       </c>
       <c r="B33">
-        <v>13.6864121773961</v>
+        <v>13.68641313725643</v>
       </c>
       <c r="C33">
-        <v>13.89222219737336</v>
+        <v>13.89222317166762</v>
       </c>
       <c r="D33">
-        <v>13.46590041829305</v>
+        <v>13.46590136268836</v>
       </c>
       <c r="E33">
-        <v>13.59820747375488</v>
+        <v>13.5982084274292</v>
       </c>
       <c r="F33">
         <v>725293</v>
@@ -1824,16 +1824,16 @@
         <v>44368</v>
       </c>
       <c r="B34">
-        <v>13.61290698001915</v>
+        <v>13.61290789562553</v>
       </c>
       <c r="C34">
-        <v>14.21563956373538</v>
+        <v>14.21564051988165</v>
       </c>
       <c r="D34">
-        <v>13.61290698001915</v>
+        <v>13.61290789562553</v>
       </c>
       <c r="E34">
-        <v>14.17888736724854</v>
+        <v>14.17888832092285</v>
       </c>
       <c r="F34">
         <v>722431</v>
@@ -1850,16 +1850,16 @@
         <v>44369</v>
       </c>
       <c r="B35">
-        <v>14.1788879518024</v>
+        <v>14.1788898933727</v>
       </c>
       <c r="C35">
-        <v>14.33324546407686</v>
+        <v>14.33324742678394</v>
       </c>
       <c r="D35">
-        <v>13.87752164751984</v>
+        <v>13.87752354782288</v>
       </c>
       <c r="E35">
-        <v>13.92897415161133</v>
+        <v>13.92897605895996</v>
       </c>
       <c r="F35">
         <v>808379</v>
@@ -1876,16 +1876,16 @@
         <v>44370</v>
       </c>
       <c r="B36">
-        <v>13.99512953934567</v>
+        <v>13.99512858063608</v>
       </c>
       <c r="C36">
-        <v>14.18623926525457</v>
+        <v>14.18623829345337</v>
       </c>
       <c r="D36">
-        <v>13.56880630009514</v>
+        <v>13.56880537059001</v>
       </c>
       <c r="E36">
-        <v>13.9216251373291</v>
+        <v>13.92162418365479</v>
       </c>
       <c r="F36">
         <v>380786</v>
@@ -1902,16 +1902,16 @@
         <v>44371</v>
       </c>
       <c r="B37">
-        <v>13.98042738925257</v>
+        <v>13.98042647591498</v>
       </c>
       <c r="C37">
-        <v>14.90657680982928</v>
+        <v>14.9065758359866</v>
       </c>
       <c r="D37">
-        <v>13.87752237567019</v>
+        <v>13.87752146905536</v>
       </c>
       <c r="E37">
-        <v>14.59786033630371</v>
+        <v>14.59785938262939</v>
       </c>
       <c r="F37">
         <v>1189881</v>
@@ -1928,16 +1928,16 @@
         <v>44372</v>
       </c>
       <c r="B38">
-        <v>14.55375823409688</v>
+        <v>14.55375919799432</v>
       </c>
       <c r="C38">
-        <v>14.75956969759176</v>
+        <v>14.75957067512012</v>
       </c>
       <c r="D38">
-        <v>14.14948689344282</v>
+        <v>14.14948783056531</v>
       </c>
       <c r="E38">
-        <v>14.39940071105957</v>
+        <v>14.39940166473389</v>
       </c>
       <c r="F38">
         <v>1139498</v>
@@ -1954,16 +1954,16 @@
         <v>44375</v>
       </c>
       <c r="B39">
-        <v>14.3993998938337</v>
+        <v>14.39940086183787</v>
       </c>
       <c r="C39">
-        <v>14.61256006600962</v>
+        <v>14.61256104834355</v>
       </c>
       <c r="D39">
-        <v>14.02452918868405</v>
+        <v>14.02453013148742</v>
       </c>
       <c r="E39">
-        <v>14.18623828887939</v>
+        <v>14.18623924255371</v>
       </c>
       <c r="F39">
         <v>353806</v>
@@ -1980,16 +1980,16 @@
         <v>44376</v>
       </c>
       <c r="B40">
-        <v>14.19358973940041</v>
+        <v>14.19358786410003</v>
       </c>
       <c r="C40">
-        <v>14.61256140168713</v>
+        <v>14.61255947103093</v>
       </c>
       <c r="D40">
-        <v>14.15683897034076</v>
+        <v>14.156837099896</v>
       </c>
       <c r="E40">
-        <v>14.43615341186523</v>
+        <v>14.4361515045166</v>
       </c>
       <c r="F40">
         <v>861011</v>
@@ -2006,16 +2006,16 @@
         <v>44377</v>
       </c>
       <c r="B41">
-        <v>14.43614995404381</v>
+        <v>14.43615185076938</v>
       </c>
       <c r="C41">
-        <v>14.5905074454574</v>
+        <v>14.59050936246357</v>
       </c>
       <c r="D41">
-        <v>14.24504026959512</v>
+        <v>14.24504214121132</v>
       </c>
       <c r="E41">
-        <v>14.51700305938721</v>
+        <v>14.51700496673584</v>
       </c>
       <c r="F41">
         <v>1235053</v>
@@ -2058,16 +2058,16 @@
         <v>44379</v>
       </c>
       <c r="B43">
-        <v>14.43615043724444</v>
+        <v>14.43615321345463</v>
       </c>
       <c r="C43">
-        <v>15.02417981437555</v>
+        <v>15.02418270366942</v>
       </c>
       <c r="D43">
-        <v>14.42880028494704</v>
+        <v>14.42880305974372</v>
       </c>
       <c r="E43">
-        <v>14.87717247009277</v>
+        <v>14.87717533111572</v>
       </c>
       <c r="F43">
         <v>539192</v>
@@ -2084,16 +2084,16 @@
         <v>44382</v>
       </c>
       <c r="B44">
-        <v>14.89922527430569</v>
+        <v>14.89922620907259</v>
       </c>
       <c r="C44">
-        <v>15.28879483220647</v>
+        <v>15.28879579141469</v>
       </c>
       <c r="D44">
-        <v>14.55375663289634</v>
+        <v>14.55375754598878</v>
       </c>
       <c r="E44">
-        <v>15.20059013366699</v>
+        <v>15.20059108734131</v>
       </c>
       <c r="F44">
         <v>1023300</v>
@@ -2136,16 +2136,16 @@
         <v>44384</v>
       </c>
       <c r="B46">
-        <v>15.06828387709026</v>
+        <v>15.0682858127657</v>
       </c>
       <c r="C46">
-        <v>15.09033576927223</v>
+        <v>15.09033770778046</v>
       </c>
       <c r="D46">
-        <v>14.70811634404975</v>
+        <v>14.70811823345799</v>
       </c>
       <c r="E46">
-        <v>14.84777355194092</v>
+        <v>14.84777545928955</v>
       </c>
       <c r="F46">
         <v>738476</v>
@@ -2162,16 +2162,16 @@
         <v>44385</v>
       </c>
       <c r="B47">
-        <v>14.6052103787539</v>
+        <v>14.60521136314396</v>
       </c>
       <c r="C47">
-        <v>14.6052103787539</v>
+        <v>14.60521136314396</v>
       </c>
       <c r="D47">
-        <v>14.14948654174805</v>
+        <v>14.14948749542236</v>
       </c>
       <c r="E47">
-        <v>14.14948654174805</v>
+        <v>14.14948749542236</v>
       </c>
       <c r="F47">
         <v>725906</v>
@@ -2188,16 +2188,16 @@
         <v>44389</v>
       </c>
       <c r="B48">
-        <v>14.14948690311573</v>
+        <v>14.14948501148978</v>
       </c>
       <c r="C48">
-        <v>14.4508532286176</v>
+        <v>14.4508512967024</v>
       </c>
       <c r="D48">
-        <v>13.96572733294539</v>
+        <v>13.96572546588602</v>
       </c>
       <c r="E48">
-        <v>14.26709365844727</v>
+        <v>14.26709175109863</v>
       </c>
       <c r="F48">
         <v>414716</v>
@@ -2214,16 +2214,16 @@
         <v>44390</v>
       </c>
       <c r="B49">
-        <v>14.15684001454272</v>
+        <v>14.15683810123362</v>
       </c>
       <c r="C49">
-        <v>14.28914709125194</v>
+        <v>14.28914516006142</v>
       </c>
       <c r="D49">
-        <v>14.0539335552498</v>
+        <v>14.05393165584859</v>
       </c>
       <c r="E49">
-        <v>14.11273765563965</v>
+        <v>14.11273574829102</v>
       </c>
       <c r="F49">
         <v>384261</v>
@@ -2240,16 +2240,16 @@
         <v>44391</v>
       </c>
       <c r="B50">
-        <v>14.25974058355183</v>
+        <v>14.25974345790959</v>
       </c>
       <c r="C50">
-        <v>14.48025230913661</v>
+        <v>14.48025522794326</v>
       </c>
       <c r="D50">
-        <v>13.98777492801545</v>
+        <v>13.98777774755267</v>
       </c>
       <c r="E50">
-        <v>14.1935863494873</v>
+        <v>14.19358921051025</v>
       </c>
       <c r="F50">
         <v>285538</v>
@@ -2266,16 +2266,16 @@
         <v>44392</v>
       </c>
       <c r="B51">
-        <v>14.12743692544924</v>
+        <v>14.12743593945568</v>
       </c>
       <c r="C51">
-        <v>14.17888943492269</v>
+        <v>14.17888844533812</v>
       </c>
       <c r="D51">
-        <v>13.66436290740967</v>
+        <v>13.66436195373535</v>
       </c>
       <c r="E51">
-        <v>13.66436290740967</v>
+        <v>13.66436195373535</v>
       </c>
       <c r="F51">
         <v>341032</v>
@@ -2344,16 +2344,16 @@
         <v>44397</v>
       </c>
       <c r="B54">
-        <v>13.24539009196839</v>
+        <v>13.24539102089879</v>
       </c>
       <c r="C54">
-        <v>13.59820747375488</v>
+        <v>13.5982084274292</v>
       </c>
       <c r="D54">
-        <v>13.09103114420705</v>
+        <v>13.0910320623119</v>
       </c>
       <c r="E54">
-        <v>13.59820747375488</v>
+        <v>13.5982084274292</v>
       </c>
       <c r="F54">
         <v>633009</v>
@@ -2370,16 +2370,16 @@
         <v>44398</v>
       </c>
       <c r="B55">
-        <v>13.67906018339331</v>
+        <v>13.67906111308845</v>
       </c>
       <c r="C55">
-        <v>14.0318775177002</v>
+        <v>14.03187847137451</v>
       </c>
       <c r="D55">
-        <v>13.39239565152578</v>
+        <v>13.39239656173781</v>
       </c>
       <c r="E55">
-        <v>14.0318775177002</v>
+        <v>14.03187847137451</v>
       </c>
       <c r="F55">
         <v>438017</v>
@@ -2396,16 +2396,16 @@
         <v>44399</v>
       </c>
       <c r="B56">
-        <v>14.02453046936002</v>
+        <v>14.02452951167026</v>
       </c>
       <c r="C56">
-        <v>14.17888943051086</v>
+        <v>14.17888846228043</v>
       </c>
       <c r="D56">
-        <v>13.81872043153026</v>
+        <v>13.8187194878946</v>
       </c>
       <c r="E56">
-        <v>13.96572780609131</v>
+        <v>13.96572685241699</v>
       </c>
       <c r="F56">
         <v>763719</v>
@@ -2422,16 +2422,16 @@
         <v>44400</v>
       </c>
       <c r="B57">
-        <v>14.12008676724215</v>
+        <v>14.12008580302716</v>
       </c>
       <c r="C57">
-        <v>14.18623958432214</v>
+        <v>14.18623861558979</v>
       </c>
       <c r="D57">
-        <v>13.68641336459176</v>
+        <v>13.68641242999093</v>
       </c>
       <c r="E57">
-        <v>13.96572780609131</v>
+        <v>13.96572685241699</v>
       </c>
       <c r="F57">
         <v>328666</v>
@@ -2448,16 +2448,16 @@
         <v>44403</v>
       </c>
       <c r="B58">
-        <v>13.96572496655653</v>
+        <v>13.96572691912247</v>
       </c>
       <c r="C58">
-        <v>13.96572496655653</v>
+        <v>13.96572691912247</v>
       </c>
       <c r="D58">
-        <v>13.56880384644371</v>
+        <v>13.5688057435156</v>
       </c>
       <c r="E58">
-        <v>13.64230823516846</v>
+        <v>13.64231014251709</v>
       </c>
       <c r="F58">
         <v>619212</v>
@@ -2526,16 +2526,16 @@
         <v>44406</v>
       </c>
       <c r="B61">
-        <v>13.14248512747876</v>
+        <v>13.14248419518264</v>
       </c>
       <c r="C61">
-        <v>13.52470603050937</v>
+        <v>13.52470507109943</v>
       </c>
       <c r="D61">
-        <v>13.11308451147694</v>
+        <v>13.11308358126644</v>
       </c>
       <c r="E61">
-        <v>13.44385147094727</v>
+        <v>13.44385051727295</v>
       </c>
       <c r="F61">
         <v>701481</v>
@@ -2552,16 +2552,16 @@
         <v>44407</v>
       </c>
       <c r="B62">
-        <v>13.40709860687141</v>
+        <v>13.40709763453937</v>
       </c>
       <c r="C62">
-        <v>13.45120096147738</v>
+        <v>13.45119998594687</v>
       </c>
       <c r="D62">
-        <v>13.01752900183413</v>
+        <v>13.0175280577551</v>
       </c>
       <c r="E62">
-        <v>13.14983463287354</v>
+        <v>13.14983367919922</v>
       </c>
       <c r="F62">
         <v>681450</v>
@@ -2578,16 +2578,16 @@
         <v>44410</v>
       </c>
       <c r="B63">
-        <v>13.28214073023309</v>
+        <v>13.28213978596489</v>
       </c>
       <c r="C63">
-        <v>13.59085719001148</v>
+        <v>13.59085622379567</v>
       </c>
       <c r="D63">
-        <v>13.11308291052691</v>
+        <v>13.11308197827755</v>
       </c>
       <c r="E63">
-        <v>13.41444778442383</v>
+        <v>13.41444683074951</v>
       </c>
       <c r="F63">
         <v>816657</v>
@@ -2630,16 +2630,16 @@
         <v>44412</v>
       </c>
       <c r="B65">
-        <v>13.33359415394166</v>
+        <v>13.33359315856469</v>
       </c>
       <c r="C65">
-        <v>13.33359415394166</v>
+        <v>13.33359315856469</v>
       </c>
       <c r="D65">
-        <v>12.77496528625488</v>
+        <v>12.77496433258057</v>
       </c>
       <c r="E65">
-        <v>12.77496528625488</v>
+        <v>12.77496433258057</v>
       </c>
       <c r="F65">
         <v>461215</v>
@@ -2682,16 +2682,16 @@
         <v>44414</v>
       </c>
       <c r="B67">
-        <v>12.85581847341906</v>
+        <v>12.85581945515913</v>
       </c>
       <c r="C67">
-        <v>12.85581847341906</v>
+        <v>12.85581945515913</v>
       </c>
       <c r="D67">
-        <v>12.4735990641568</v>
+        <v>12.47360001670852</v>
       </c>
       <c r="E67">
-        <v>12.48829936981201</v>
+        <v>12.48830032348633</v>
       </c>
       <c r="F67">
         <v>360040</v>
@@ -2734,16 +2734,16 @@
         <v>44418</v>
       </c>
       <c r="B69">
-        <v>12.53975175572407</v>
+        <v>12.53975267804167</v>
       </c>
       <c r="C69">
-        <v>12.96607494354248</v>
+        <v>12.9660758972168</v>
       </c>
       <c r="D69">
-        <v>12.37804409668609</v>
+        <v>12.37804500710986</v>
       </c>
       <c r="E69">
-        <v>12.96607494354248</v>
+        <v>12.9660758972168</v>
       </c>
       <c r="F69">
         <v>560449</v>
@@ -2760,16 +2760,16 @@
         <v>44419</v>
       </c>
       <c r="B70">
-        <v>12.81171520927329</v>
+        <v>12.81171886257964</v>
       </c>
       <c r="C70">
-        <v>13.39974601963111</v>
+        <v>13.39974984061655</v>
       </c>
       <c r="D70">
-        <v>12.61325536597909</v>
+        <v>12.61325896269391</v>
       </c>
       <c r="E70">
-        <v>13.37769412994385</v>
+        <v>13.37769794464111</v>
       </c>
       <c r="F70">
         <v>568012</v>
@@ -2786,16 +2786,16 @@
         <v>44420</v>
       </c>
       <c r="B71">
-        <v>13.37034530100762</v>
+        <v>13.37034433726674</v>
       </c>
       <c r="C71">
-        <v>13.40709749893855</v>
+        <v>13.40709653254856</v>
       </c>
       <c r="D71">
-        <v>13.03222823215546</v>
+        <v>13.03222729278623</v>
       </c>
       <c r="E71">
-        <v>13.23068809509277</v>
+        <v>13.23068714141846</v>
       </c>
       <c r="F71">
         <v>855083</v>
@@ -2864,16 +2864,16 @@
         <v>44425</v>
       </c>
       <c r="B74">
-        <v>11.87821912344284</v>
+        <v>11.87821813616697</v>
       </c>
       <c r="C74">
-        <v>11.87821912344284</v>
+        <v>11.87821813616697</v>
       </c>
       <c r="D74">
-        <v>10.88591825460113</v>
+        <v>10.88591734980182</v>
       </c>
       <c r="E74">
-        <v>11.47394847869873</v>
+        <v>11.47394752502441</v>
       </c>
       <c r="F74">
         <v>2387633</v>
@@ -2890,16 +2890,16 @@
         <v>44426</v>
       </c>
       <c r="B75">
-        <v>11.47394872263342</v>
+        <v>11.47394773413033</v>
       </c>
       <c r="C75">
-        <v>11.60625579451419</v>
+        <v>11.60625479461259</v>
       </c>
       <c r="D75">
-        <v>11.06967735290527</v>
+        <v>11.06967639923096</v>
       </c>
       <c r="E75">
-        <v>11.06967735290527</v>
+        <v>11.06967639923096</v>
       </c>
       <c r="F75">
         <v>1234950</v>
@@ -2916,16 +2916,16 @@
         <v>44427</v>
       </c>
       <c r="B76">
-        <v>10.87856738428228</v>
+        <v>10.87856648009395</v>
       </c>
       <c r="C76">
-        <v>11.69445954408936</v>
+        <v>11.69445857208693</v>
       </c>
       <c r="D76">
-        <v>10.61395396253568</v>
+        <v>10.61395308034109</v>
       </c>
       <c r="E76">
-        <v>11.47394847869873</v>
+        <v>11.47394752502441</v>
       </c>
       <c r="F76">
         <v>794889</v>
@@ -2942,16 +2942,16 @@
         <v>44428</v>
       </c>
       <c r="B77">
-        <v>11.32693918719688</v>
+        <v>11.32694015404691</v>
       </c>
       <c r="C77">
-        <v>11.63565564903211</v>
+        <v>11.6356566422337</v>
       </c>
       <c r="D77">
-        <v>11.17258167266846</v>
+        <v>11.17258262634277</v>
       </c>
       <c r="E77">
-        <v>11.17258167266846</v>
+        <v>11.17258262634277</v>
       </c>
       <c r="F77">
         <v>298620</v>
@@ -2968,16 +2968,16 @@
         <v>44431</v>
       </c>
       <c r="B78">
-        <v>11.29753866986629</v>
+        <v>11.29753774798112</v>
       </c>
       <c r="C78">
-        <v>11.78266385692893</v>
+        <v>11.78266289545728</v>
       </c>
       <c r="D78">
-        <v>11.22403498389727</v>
+        <v>11.22403406801004</v>
       </c>
       <c r="E78">
-        <v>11.68710899353027</v>
+        <v>11.68710803985596</v>
       </c>
       <c r="F78">
         <v>827388</v>
@@ -3020,16 +3020,16 @@
         <v>44433</v>
       </c>
       <c r="B80">
-        <v>12.0472754792843</v>
+        <v>12.04727734230225</v>
       </c>
       <c r="C80">
-        <v>12.38539396054852</v>
+        <v>12.38539587585388</v>
       </c>
       <c r="D80">
-        <v>11.89291797660603</v>
+        <v>11.89291981575379</v>
       </c>
       <c r="E80">
-        <v>12.33394145965576</v>
+        <v>12.33394336700439</v>
       </c>
       <c r="F80">
         <v>566274</v>
@@ -3046,16 +3046,16 @@
         <v>44434</v>
       </c>
       <c r="B81">
-        <v>12.20898506118486</v>
+        <v>12.20898602296567</v>
       </c>
       <c r="C81">
-        <v>12.2971897613627</v>
+        <v>12.29719073009197</v>
       </c>
       <c r="D81">
-        <v>11.83411508542901</v>
+        <v>11.83411601767889</v>
       </c>
       <c r="E81">
-        <v>12.10608005523682</v>
+        <v>12.10608100891113</v>
       </c>
       <c r="F81">
         <v>402656</v>
@@ -3176,16 +3176,16 @@
         <v>44441</v>
       </c>
       <c r="B86">
-        <v>12.39274450710258</v>
+        <v>12.3927464619901</v>
       </c>
       <c r="C86">
-        <v>12.78966565446549</v>
+        <v>12.78966767196514</v>
       </c>
       <c r="D86">
-        <v>11.98847320691823</v>
+        <v>11.98847509803416</v>
       </c>
       <c r="E86">
-        <v>12.0913782119751</v>
+        <v>12.09138011932373</v>
       </c>
       <c r="F86">
         <v>420132</v>
@@ -3202,16 +3202,16 @@
         <v>44442</v>
       </c>
       <c r="B87">
-        <v>12.12813141365602</v>
+        <v>12.12813046286292</v>
       </c>
       <c r="C87">
-        <v>12.3118909805296</v>
+        <v>12.31189001533054</v>
       </c>
       <c r="D87">
-        <v>12.01052537682364</v>
+        <v>12.01052443525034</v>
       </c>
       <c r="E87">
-        <v>12.16488361358643</v>
+        <v>12.16488265991211</v>
       </c>
       <c r="F87">
         <v>266734</v>
@@ -3254,16 +3254,16 @@
         <v>44447</v>
       </c>
       <c r="B89">
-        <v>12.20163489841128</v>
+        <v>12.20163590355378</v>
       </c>
       <c r="C89">
-        <v>12.20163489841128</v>
+        <v>12.20163590355378</v>
       </c>
       <c r="D89">
-        <v>11.54010036400273</v>
+        <v>11.54010131464954</v>
       </c>
       <c r="E89">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F89">
         <v>622483</v>
@@ -3280,16 +3280,16 @@
         <v>44448</v>
       </c>
       <c r="B90">
-        <v>11.58420146947953</v>
+        <v>11.58420240592237</v>
       </c>
       <c r="C90">
-        <v>11.9811218609249</v>
+        <v>11.98112282945396</v>
       </c>
       <c r="D90">
-        <v>11.42249310878778</v>
+        <v>11.42249403215845</v>
       </c>
       <c r="E90">
-        <v>11.79736232757568</v>
+        <v>11.79736328125</v>
       </c>
       <c r="F90">
         <v>442922</v>
@@ -3306,16 +3306,16 @@
         <v>44449</v>
       </c>
       <c r="B91">
-        <v>12.21633608067098</v>
+        <v>12.21633710325596</v>
       </c>
       <c r="C91">
-        <v>12.31924252669732</v>
+        <v>12.31924355789623</v>
       </c>
       <c r="D91">
-        <v>11.39309310913086</v>
+        <v>11.39309406280518</v>
       </c>
       <c r="E91">
-        <v>11.39309310913086</v>
+        <v>11.39309406280518</v>
       </c>
       <c r="F91">
         <v>428921</v>
@@ -3332,16 +3332,16 @@
         <v>44452</v>
       </c>
       <c r="B92">
-        <v>11.57685223492709</v>
+        <v>11.57685132460161</v>
       </c>
       <c r="C92">
-        <v>12.32659221109739</v>
+        <v>12.32659124181741</v>
       </c>
       <c r="D92">
-        <v>11.57685223492709</v>
+        <v>11.57685132460161</v>
       </c>
       <c r="E92">
-        <v>12.12813091278076</v>
+        <v>12.12812995910645</v>
       </c>
       <c r="F92">
         <v>599284</v>
@@ -3358,16 +3358,16 @@
         <v>44453</v>
       </c>
       <c r="B93">
-        <v>12.1281301014459</v>
+        <v>12.12813104088627</v>
       </c>
       <c r="C93">
-        <v>12.40744593102916</v>
+        <v>12.40744689210523</v>
       </c>
       <c r="D93">
-        <v>12.05462570953794</v>
+        <v>12.05462664328469</v>
       </c>
       <c r="E93">
-        <v>12.3118896484375</v>
+        <v>12.31189060211182</v>
       </c>
       <c r="F93">
         <v>506693</v>
@@ -3384,16 +3384,16 @@
         <v>44454</v>
       </c>
       <c r="B94">
-        <v>12.46625023797228</v>
+        <v>12.4662493073441</v>
       </c>
       <c r="C94">
-        <v>12.85581984151967</v>
+        <v>12.85581888180942</v>
       </c>
       <c r="D94">
-        <v>12.24573846578579</v>
+        <v>12.24573755161922</v>
       </c>
       <c r="E94">
-        <v>12.77496528625488</v>
+        <v>12.77496433258057</v>
       </c>
       <c r="F94">
         <v>649360</v>
@@ -3410,16 +3410,16 @@
         <v>44455</v>
       </c>
       <c r="B95">
-        <v>12.77496493722815</v>
+        <v>12.77496398737955</v>
       </c>
       <c r="C95">
-        <v>12.82641887664795</v>
+        <v>12.82641792297363</v>
       </c>
       <c r="D95">
-        <v>12.20163577798577</v>
+        <v>12.20163487076555</v>
       </c>
       <c r="E95">
-        <v>12.82641887664795</v>
+        <v>12.82641792297363</v>
       </c>
       <c r="F95">
         <v>1130096</v>
@@ -3436,16 +3436,16 @@
         <v>44456</v>
       </c>
       <c r="B96">
-        <v>12.78231442442212</v>
+        <v>12.78231634391249</v>
       </c>
       <c r="C96">
-        <v>12.80436488102816</v>
+        <v>12.8043668038298</v>
       </c>
       <c r="D96">
-        <v>12.39274346271152</v>
+        <v>12.39274532370092</v>
       </c>
       <c r="E96">
-        <v>12.70145988464355</v>
+        <v>12.70146179199219</v>
       </c>
       <c r="F96">
         <v>798671</v>
@@ -3462,16 +3462,16 @@
         <v>44459</v>
       </c>
       <c r="B97">
-        <v>12.49565153311409</v>
+        <v>12.49564946519787</v>
       </c>
       <c r="C97">
-        <v>12.49565153311409</v>
+        <v>12.49564946519787</v>
       </c>
       <c r="D97">
-        <v>11.27548799878848</v>
+        <v>11.27548613279819</v>
       </c>
       <c r="E97">
-        <v>11.52540111541748</v>
+        <v>11.52539920806885</v>
       </c>
       <c r="F97">
         <v>1039345</v>
@@ -3514,16 +3514,16 @@
         <v>44461</v>
       </c>
       <c r="B99">
-        <v>11.91497015999383</v>
+        <v>11.91497103338712</v>
       </c>
       <c r="C99">
-        <v>13.0248783978295</v>
+        <v>13.02487935258149</v>
       </c>
       <c r="D99">
-        <v>11.90761929039426</v>
+        <v>11.90762016324872</v>
       </c>
       <c r="E99">
-        <v>13.01017665863037</v>
+        <v>13.01017761230469</v>
       </c>
       <c r="F99">
         <v>737965</v>
@@ -3566,16 +3566,16 @@
         <v>44463</v>
       </c>
       <c r="B101">
-        <v>13.28949095022168</v>
+        <v>13.28949184361187</v>
       </c>
       <c r="C101">
-        <v>14.18623828887939</v>
+        <v>14.18623924255371</v>
       </c>
       <c r="D101">
-        <v>12.82641840739105</v>
+        <v>12.82641926965104</v>
       </c>
       <c r="E101">
-        <v>14.18623828887939</v>
+        <v>14.18623924255371</v>
       </c>
       <c r="F101">
         <v>948696</v>
@@ -3592,16 +3592,16 @@
         <v>44466</v>
       </c>
       <c r="B102">
-        <v>14.19358731260251</v>
+        <v>14.19358998797056</v>
       </c>
       <c r="C102">
-        <v>15.42110147433644</v>
+        <v>15.42110438108026</v>
       </c>
       <c r="D102">
-        <v>14.1862371600473</v>
+        <v>14.18623983402991</v>
       </c>
       <c r="E102">
-        <v>15.17853927612305</v>
+        <v>15.178542137146</v>
       </c>
       <c r="F102">
         <v>1874603</v>
@@ -3670,16 +3670,16 @@
         <v>44469</v>
       </c>
       <c r="B105">
-        <v>15.0682828523868</v>
+        <v>15.06828479769254</v>
       </c>
       <c r="C105">
-        <v>15.22999194146306</v>
+        <v>15.22999390764535</v>
       </c>
       <c r="D105">
-        <v>14.34794640251315</v>
+        <v>14.34794825482392</v>
       </c>
       <c r="E105">
-        <v>14.77426815032959</v>
+        <v>14.77427005767822</v>
       </c>
       <c r="F105">
         <v>1233520</v>
@@ -3748,16 +3748,16 @@
         <v>44474</v>
       </c>
       <c r="B108">
-        <v>14.45820041019796</v>
+        <v>14.45820230982068</v>
       </c>
       <c r="C108">
-        <v>14.76691682580332</v>
+        <v>14.76691876598743</v>
       </c>
       <c r="D108">
-        <v>14.00982680728177</v>
+        <v>14.00982864799393</v>
       </c>
       <c r="E108">
-        <v>14.51700305938721</v>
+        <v>14.51700496673584</v>
       </c>
       <c r="F108">
         <v>1250382</v>
@@ -3774,16 +3774,16 @@
         <v>44475</v>
       </c>
       <c r="B109">
-        <v>14.22299087073338</v>
+        <v>14.22298989538463</v>
       </c>
       <c r="C109">
-        <v>14.26709322354102</v>
+        <v>14.26709224516793</v>
       </c>
       <c r="D109">
-        <v>13.79666764933339</v>
+        <v>13.79666670321997</v>
       </c>
       <c r="E109">
-        <v>13.9069242477417</v>
+        <v>13.90692329406738</v>
       </c>
       <c r="F109">
         <v>613285</v>
@@ -3852,16 +3852,16 @@
         <v>44480</v>
       </c>
       <c r="B112">
-        <v>13.74521459437957</v>
+        <v>13.74521647656529</v>
       </c>
       <c r="C112">
-        <v>14.22299030284916</v>
+        <v>14.22299225045857</v>
       </c>
       <c r="D112">
-        <v>13.48795207392214</v>
+        <v>13.4879539208799</v>
       </c>
       <c r="E112">
-        <v>13.92897415161133</v>
+        <v>13.92897605895996</v>
       </c>
       <c r="F112">
         <v>938783</v>
@@ -3878,16 +3878,16 @@
         <v>44482</v>
       </c>
       <c r="B113">
-        <v>13.96572679976741</v>
+        <v>13.96572579030711</v>
       </c>
       <c r="C113">
-        <v>14.23034091457719</v>
+        <v>14.23033988599025</v>
       </c>
       <c r="D113">
-        <v>13.01752837086666</v>
+        <v>13.01752742994333</v>
       </c>
       <c r="E113">
-        <v>13.19393634796143</v>
+        <v>13.19393539428711</v>
       </c>
       <c r="F113">
         <v>1167091</v>
@@ -3904,16 +3904,16 @@
         <v>44483</v>
       </c>
       <c r="B114">
-        <v>13.41444798020596</v>
+        <v>13.41444896351424</v>
       </c>
       <c r="C114">
-        <v>13.53205472990697</v>
+        <v>13.53205572183609</v>
       </c>
       <c r="D114">
-        <v>12.98812619899928</v>
+        <v>12.98812715105725</v>
       </c>
       <c r="E114">
-        <v>13.01017665863037</v>
+        <v>13.01017761230469</v>
       </c>
       <c r="F114">
         <v>1117117</v>
@@ -3956,16 +3956,16 @@
         <v>44487</v>
       </c>
       <c r="B116">
-        <v>12.70146115527218</v>
+        <v>12.70146211561555</v>
       </c>
       <c r="C116">
-        <v>13.14248322651584</v>
+        <v>13.14248422020441</v>
       </c>
       <c r="D116">
-        <v>12.45154735873358</v>
+        <v>12.45154830018125</v>
       </c>
       <c r="E116">
-        <v>12.61325645446777</v>
+        <v>12.61325740814209</v>
       </c>
       <c r="F116">
         <v>1630556</v>
@@ -3982,16 +3982,16 @@
         <v>44488</v>
       </c>
       <c r="B117">
-        <v>12.73086229406791</v>
+        <v>12.73086330679868</v>
       </c>
       <c r="C117">
-        <v>12.73086229406791</v>
+        <v>12.73086330679868</v>
       </c>
       <c r="D117">
-        <v>11.98847389221191</v>
+        <v>11.98847484588623</v>
       </c>
       <c r="E117">
-        <v>11.98847389221191</v>
+        <v>11.98847484588623</v>
       </c>
       <c r="F117">
         <v>2265814</v>
@@ -4008,16 +4008,16 @@
         <v>44489</v>
       </c>
       <c r="B118">
-        <v>12.10608164972086</v>
+        <v>12.10607973539836</v>
       </c>
       <c r="C118">
-        <v>12.24573887126688</v>
+        <v>12.24573693486053</v>
       </c>
       <c r="D118">
-        <v>11.86351869228397</v>
+        <v>11.86351681631772</v>
       </c>
       <c r="E118">
-        <v>12.06197929382324</v>
+        <v>12.06197738647461</v>
       </c>
       <c r="F118">
         <v>4128357</v>
@@ -4034,16 +4034,16 @@
         <v>44490</v>
       </c>
       <c r="B119">
-        <v>11.90761875379729</v>
+        <v>11.90761973471942</v>
       </c>
       <c r="C119">
-        <v>11.95172110385047</v>
+        <v>11.95172208840565</v>
       </c>
       <c r="D119">
-        <v>10.95206950755308</v>
+        <v>10.95207040975928</v>
       </c>
       <c r="E119">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F119">
         <v>2154521</v>
@@ -4060,16 +4060,16 @@
         <v>44491</v>
       </c>
       <c r="B120">
-        <v>11.42984505170263</v>
+        <v>11.42984406895672</v>
       </c>
       <c r="C120">
-        <v>11.42984505170263</v>
+        <v>11.42984406895672</v>
       </c>
       <c r="D120">
-        <v>10.32728696246967</v>
+        <v>10.32728607452245</v>
       </c>
       <c r="E120">
-        <v>11.0917272567749</v>
+        <v>11.09172630310059</v>
       </c>
       <c r="F120">
         <v>2865098</v>
@@ -4086,16 +4086,16 @@
         <v>44494</v>
       </c>
       <c r="B121">
-        <v>11.20198468837645</v>
+        <v>11.20198378955169</v>
       </c>
       <c r="C121">
-        <v>12.15753483036993</v>
+        <v>12.15753385487374</v>
       </c>
       <c r="D121">
-        <v>10.99617392162659</v>
+        <v>10.99617303931567</v>
       </c>
       <c r="E121">
-        <v>11.88557052612305</v>
+        <v>11.88556957244873</v>
       </c>
       <c r="F121">
         <v>938987</v>
@@ -4112,16 +4112,16 @@
         <v>44495</v>
       </c>
       <c r="B122">
-        <v>11.76061190788616</v>
+        <v>11.76061287363228</v>
       </c>
       <c r="C122">
-        <v>11.98847382091259</v>
+        <v>11.98847480537004</v>
       </c>
       <c r="D122">
-        <v>11.36369145658398</v>
+        <v>11.36369238973618</v>
       </c>
       <c r="E122">
-        <v>11.61360454559326</v>
+        <v>11.61360549926758</v>
       </c>
       <c r="F122">
         <v>515789</v>
@@ -4138,16 +4138,16 @@
         <v>44496</v>
       </c>
       <c r="B123">
-        <v>11.61360500683951</v>
+        <v>11.61360400096141</v>
       </c>
       <c r="C123">
-        <v>11.68710869090523</v>
+        <v>11.68710767866083</v>
       </c>
       <c r="D123">
-        <v>11.01087379455566</v>
+        <v>11.01087284088135</v>
       </c>
       <c r="E123">
-        <v>11.01087379455566</v>
+        <v>11.01087284088135</v>
       </c>
       <c r="F123">
         <v>950638</v>
@@ -4216,16 +4216,16 @@
         <v>44501</v>
       </c>
       <c r="B126">
-        <v>10.07002384410639</v>
+        <v>10.07002570659217</v>
       </c>
       <c r="C126">
-        <v>10.52574767851046</v>
+        <v>10.52574962528393</v>
       </c>
       <c r="D126">
-        <v>9.959768678560881</v>
+        <v>9.959770520654583</v>
       </c>
       <c r="E126">
-        <v>10.31258678436279</v>
+        <v>10.31258869171143</v>
       </c>
       <c r="F126">
         <v>429739</v>
@@ -4242,16 +4242,16 @@
         <v>44503</v>
       </c>
       <c r="B127">
-        <v>10.25378259658683</v>
+        <v>10.25378353413132</v>
       </c>
       <c r="C127">
-        <v>10.43019199371338</v>
+        <v>10.4301929473877</v>
       </c>
       <c r="D127">
-        <v>9.864213038580955</v>
+        <v>9.864213940505543</v>
       </c>
       <c r="E127">
-        <v>10.43019199371338</v>
+        <v>10.4301929473877</v>
       </c>
       <c r="F127">
         <v>486458</v>
@@ -4268,16 +4268,16 @@
         <v>44504</v>
       </c>
       <c r="B128">
-        <v>10.43019212620298</v>
+        <v>10.43019403624375</v>
       </c>
       <c r="C128">
-        <v>10.5404480008076</v>
+        <v>10.54044993103911</v>
       </c>
       <c r="D128">
-        <v>10.17292889638498</v>
+        <v>10.17293075931413</v>
       </c>
       <c r="E128">
-        <v>10.41549110412598</v>
+        <v>10.41549301147461</v>
       </c>
       <c r="F128">
         <v>418395</v>
@@ -4294,16 +4294,16 @@
         <v>44505</v>
       </c>
       <c r="B129">
-        <v>10.36403903593089</v>
+        <v>10.36403992058925</v>
       </c>
       <c r="C129">
-        <v>11.26813652920201</v>
+        <v>11.26813749103274</v>
       </c>
       <c r="D129">
-        <v>10.36403903593089</v>
+        <v>10.36403992058925</v>
       </c>
       <c r="E129">
-        <v>11.17258167266846</v>
+        <v>11.17258262634277</v>
       </c>
       <c r="F129">
         <v>1027081</v>
@@ -4372,16 +4372,16 @@
         <v>44510</v>
       </c>
       <c r="B132">
-        <v>11.37839198593745</v>
+        <v>11.3783929232631</v>
       </c>
       <c r="C132">
-        <v>11.61360404196164</v>
+        <v>11.61360499866352</v>
       </c>
       <c r="D132">
-        <v>11.17258125781899</v>
+        <v>11.17258217819043</v>
       </c>
       <c r="E132">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F132">
         <v>425651</v>
@@ -4398,16 +4398,16 @@
         <v>44511</v>
       </c>
       <c r="B133">
-        <v>11.83411595619167</v>
+        <v>11.83411503842982</v>
       </c>
       <c r="C133">
-        <v>12.45154818647853</v>
+        <v>12.45154722083344</v>
       </c>
       <c r="D133">
-        <v>11.466597539057</v>
+        <v>11.46659664979701</v>
       </c>
       <c r="E133">
-        <v>12.29719066619873</v>
+        <v>12.29718971252441</v>
       </c>
       <c r="F133">
         <v>890852</v>
@@ -4424,16 +4424,16 @@
         <v>44512</v>
       </c>
       <c r="B134">
-        <v>12.20898645559278</v>
+        <v>12.20898544277114</v>
       </c>
       <c r="C134">
-        <v>12.30454131956919</v>
+        <v>12.30454029882061</v>
       </c>
       <c r="D134">
-        <v>11.30488960828984</v>
+        <v>11.30488867046943</v>
       </c>
       <c r="E134">
-        <v>11.49599933624268</v>
+        <v>11.49599838256836</v>
       </c>
       <c r="F134">
         <v>660500</v>
@@ -4450,16 +4450,16 @@
         <v>44516</v>
       </c>
       <c r="B135">
-        <v>11.57685280661203</v>
+        <v>11.57685180391712</v>
       </c>
       <c r="C135">
-        <v>11.7900137053194</v>
+        <v>11.79001268416218</v>
       </c>
       <c r="D135">
-        <v>11.01087379455566</v>
+        <v>11.01087284088135</v>
       </c>
       <c r="E135">
-        <v>11.01087379455566</v>
+        <v>11.01087284088135</v>
       </c>
       <c r="F135">
         <v>336126</v>
@@ -4476,16 +4476,16 @@
         <v>44517</v>
       </c>
       <c r="B136">
-        <v>11.22403357440031</v>
+        <v>11.22403457526675</v>
       </c>
       <c r="C136">
-        <v>11.26813592372127</v>
+        <v>11.26813692852039</v>
       </c>
       <c r="D136">
-        <v>10.5110458325079</v>
+        <v>10.51104676979599</v>
       </c>
       <c r="E136">
-        <v>10.69480609893799</v>
+        <v>10.6948070526123</v>
       </c>
       <c r="F136">
         <v>391926</v>
@@ -4502,16 +4502,16 @@
         <v>44518</v>
       </c>
       <c r="B137">
-        <v>10.72420931466216</v>
+        <v>10.72420732693226</v>
       </c>
       <c r="C137">
-        <v>10.77566182236284</v>
+        <v>10.77565982509622</v>
       </c>
       <c r="D137">
-        <v>10.16557901795808</v>
+        <v>10.16557713377018</v>
       </c>
       <c r="E137">
-        <v>10.29053592681885</v>
+        <v>10.29053401947021</v>
       </c>
       <c r="F137">
         <v>564537</v>
@@ -4554,16 +4554,16 @@
         <v>44522</v>
       </c>
       <c r="B139">
-        <v>10.02592268920043</v>
+        <v>10.025920877485</v>
       </c>
       <c r="C139">
-        <v>10.55515098571777</v>
+        <v>10.55514907836914</v>
       </c>
       <c r="D139">
-        <v>9.974470176946571</v>
+        <v>9.974468374528769</v>
       </c>
       <c r="E139">
-        <v>10.55515098571777</v>
+        <v>10.55514907836914</v>
       </c>
       <c r="F139">
         <v>630147</v>
@@ -4580,16 +4580,16 @@
         <v>44523</v>
       </c>
       <c r="B140">
-        <v>10.58455163896712</v>
+        <v>10.5845507289001</v>
       </c>
       <c r="C140">
-        <v>11.0917272567749</v>
+        <v>11.09172630310059</v>
       </c>
       <c r="D140">
-        <v>10.25378328089126</v>
+        <v>10.25378239926394</v>
       </c>
       <c r="E140">
-        <v>11.0917272567749</v>
+        <v>11.09172630310059</v>
       </c>
       <c r="F140">
         <v>503321</v>
@@ -4632,16 +4632,16 @@
         <v>44525</v>
       </c>
       <c r="B142">
-        <v>10.7242096545604</v>
+        <v>10.724208722604</v>
       </c>
       <c r="C142">
-        <v>11.091728090063</v>
+        <v>11.09172712616847</v>
       </c>
       <c r="D142">
-        <v>10.5110473142736</v>
+        <v>10.51104640084145</v>
       </c>
       <c r="E142">
-        <v>10.97412204742432</v>
+        <v>10.97412109375</v>
       </c>
       <c r="F142">
         <v>296474</v>
@@ -4684,16 +4684,16 @@
         <v>44529</v>
       </c>
       <c r="B144">
-        <v>10.67275650055049</v>
+        <v>10.67275555662746</v>
       </c>
       <c r="C144">
-        <v>10.84916592388845</v>
+        <v>10.84916496436337</v>
       </c>
       <c r="D144">
-        <v>10.48164605313795</v>
+        <v>10.48164512611717</v>
       </c>
       <c r="E144">
-        <v>10.78301239013672</v>
+        <v>10.7830114364624</v>
       </c>
       <c r="F144">
         <v>409197</v>
@@ -4710,16 +4710,16 @@
         <v>44530</v>
       </c>
       <c r="B145">
-        <v>10.62865246915406</v>
+        <v>10.62865347061597</v>
       </c>
       <c r="C145">
-        <v>10.62865246915406</v>
+        <v>10.62865347061597</v>
       </c>
       <c r="D145">
-        <v>9.717204880779466</v>
+        <v>9.717205796362189</v>
       </c>
       <c r="E145">
-        <v>10.12147617340088</v>
+        <v>10.1214771270752</v>
       </c>
       <c r="F145">
         <v>1108635</v>
@@ -4736,16 +4736,16 @@
         <v>44531</v>
       </c>
       <c r="B146">
-        <v>10.28318514071147</v>
+        <v>10.28318416684984</v>
       </c>
       <c r="C146">
-        <v>10.6874564566672</v>
+        <v>10.68745544451935</v>
       </c>
       <c r="D146">
-        <v>9.856862649041982</v>
+        <v>9.856861715554913</v>
       </c>
       <c r="E146">
-        <v>10.07002353668213</v>
+        <v>10.07002258300781</v>
       </c>
       <c r="F146">
         <v>583852</v>
@@ -4814,16 +4814,16 @@
         <v>44536</v>
       </c>
       <c r="B149">
-        <v>10.54044961487559</v>
+        <v>10.54044774916086</v>
       </c>
       <c r="C149">
-        <v>10.80506375444727</v>
+        <v>10.80506184189445</v>
       </c>
       <c r="D149">
-        <v>10.27583547530391</v>
+        <v>10.27583365642727</v>
       </c>
       <c r="E149">
-        <v>10.77566242218018</v>
+        <v>10.77566051483154</v>
       </c>
       <c r="F149">
         <v>864792</v>
@@ -4866,16 +4866,16 @@
         <v>44538</v>
       </c>
       <c r="B151">
-        <v>10.65805568957309</v>
+        <v>10.65805475522997</v>
       </c>
       <c r="C151">
-        <v>10.98147247282753</v>
+        <v>10.98147151013194</v>
       </c>
       <c r="D151">
-        <v>10.48899571167184</v>
+        <v>10.48899479214944</v>
       </c>
       <c r="E151">
-        <v>10.87856674194336</v>
+        <v>10.87856578826904</v>
       </c>
       <c r="F151">
         <v>385590</v>
@@ -4892,16 +4892,16 @@
         <v>44539</v>
       </c>
       <c r="B152">
-        <v>10.80506401516472</v>
+        <v>10.80506210911268</v>
       </c>
       <c r="C152">
-        <v>10.97412257526635</v>
+        <v>10.97412063939177</v>
       </c>
       <c r="D152">
-        <v>10.44489499974244</v>
+        <v>10.4448931572255</v>
       </c>
       <c r="E152">
-        <v>10.81241416931152</v>
+        <v>10.81241226196289</v>
       </c>
       <c r="F152">
         <v>385590</v>
@@ -4918,16 +4918,16 @@
         <v>44540</v>
       </c>
       <c r="B153">
-        <v>10.67275502295291</v>
+        <v>10.67275591575438</v>
       </c>
       <c r="C153">
-        <v>11.5253992570593</v>
+        <v>11.52540022118649</v>
       </c>
       <c r="D153">
-        <v>10.67275502295291</v>
+        <v>10.67275591575438</v>
       </c>
       <c r="E153">
-        <v>11.4004430770874</v>
+        <v>11.40044403076172</v>
       </c>
       <c r="F153">
         <v>779969</v>
@@ -4944,16 +4944,16 @@
         <v>44543</v>
       </c>
       <c r="B154">
-        <v>11.25343421308074</v>
+        <v>11.25343513952447</v>
       </c>
       <c r="C154">
-        <v>11.66505563729134</v>
+        <v>11.66505659762198</v>
       </c>
       <c r="D154">
-        <v>11.24608406077348</v>
+        <v>11.24608498661211</v>
       </c>
       <c r="E154">
-        <v>11.58420181274414</v>
+        <v>11.58420276641846</v>
       </c>
       <c r="F154">
         <v>571997</v>
@@ -4996,16 +4996,16 @@
         <v>44545</v>
       </c>
       <c r="B156">
-        <v>11.76061126338608</v>
+        <v>11.76061223096938</v>
       </c>
       <c r="C156">
-        <v>11.76061126338608</v>
+        <v>11.76061223096938</v>
       </c>
       <c r="D156">
-        <v>11.11377775852211</v>
+        <v>11.11377867288834</v>
       </c>
       <c r="E156">
-        <v>11.591552734375</v>
+        <v>11.59155368804932</v>
       </c>
       <c r="F156">
         <v>636279</v>
@@ -5022,16 +5022,16 @@
         <v>44546</v>
       </c>
       <c r="B157">
-        <v>11.62095495361999</v>
+        <v>11.62095401828557</v>
       </c>
       <c r="C157">
-        <v>11.92967070776039</v>
+        <v>11.92966974757841</v>
       </c>
       <c r="D157">
-        <v>11.47394758810346</v>
+        <v>11.4739466646012</v>
       </c>
       <c r="E157">
-        <v>11.84881687164307</v>
+        <v>11.84881591796875</v>
       </c>
       <c r="F157">
         <v>1394480</v>
@@ -5048,16 +5048,16 @@
         <v>44547</v>
       </c>
       <c r="B158">
-        <v>11.41514328894587</v>
+        <v>11.4151442180903</v>
       </c>
       <c r="C158">
-        <v>12.19428312284323</v>
+        <v>12.19428411540635</v>
       </c>
       <c r="D158">
-        <v>11.35634063405019</v>
+        <v>11.35634155840833</v>
       </c>
       <c r="E158">
-        <v>11.71650886535645</v>
+        <v>11.71650981903076</v>
       </c>
       <c r="F158">
         <v>2448133</v>
@@ -5074,16 +5074,16 @@
         <v>44550</v>
       </c>
       <c r="B159">
-        <v>11.4812979934064</v>
+        <v>11.4812970427751</v>
       </c>
       <c r="C159">
-        <v>11.67240771604941</v>
+        <v>11.67240674959456</v>
       </c>
       <c r="D159">
-        <v>11.29753842428373</v>
+        <v>11.2975374888674</v>
       </c>
       <c r="E159">
-        <v>11.51805019378662</v>
+        <v>11.5180492401123</v>
       </c>
       <c r="F159">
         <v>919161</v>
@@ -5100,16 +5100,16 @@
         <v>44551</v>
       </c>
       <c r="B160">
-        <v>11.7606101343502</v>
+        <v>11.76061108505355</v>
       </c>
       <c r="C160">
-        <v>11.99582216510382</v>
+        <v>11.99582313482122</v>
       </c>
       <c r="D160">
-        <v>11.4371934129667</v>
+        <v>11.43719433752571</v>
       </c>
       <c r="E160">
-        <v>11.79736232757568</v>
+        <v>11.79736328125</v>
       </c>
       <c r="F160">
         <v>358405</v>
@@ -5126,16 +5126,16 @@
         <v>44552</v>
       </c>
       <c r="B161">
-        <v>12.02522640753917</v>
+        <v>12.0252254544474</v>
       </c>
       <c r="C161">
-        <v>12.12078126775047</v>
+        <v>12.12078030708525</v>
       </c>
       <c r="D161">
-        <v>11.70915978038698</v>
+        <v>11.70915885234593</v>
       </c>
       <c r="E161">
-        <v>12.03257656097412</v>
+        <v>12.0325756072998</v>
       </c>
       <c r="F161">
         <v>477567</v>
@@ -5204,16 +5204,16 @@
         <v>44558</v>
       </c>
       <c r="B164">
-        <v>12.94402415440947</v>
+        <v>12.94402321827763</v>
       </c>
       <c r="C164">
-        <v>13.18658638000488</v>
+        <v>13.18658542633057</v>
       </c>
       <c r="D164">
-        <v>12.80436694176018</v>
+        <v>12.80436601572857</v>
       </c>
       <c r="E164">
-        <v>13.18658638000488</v>
+        <v>13.18658542633057</v>
       </c>
       <c r="F164">
         <v>510270</v>
@@ -5256,16 +5256,16 @@
         <v>44560</v>
       </c>
       <c r="B166">
-        <v>12.91462138619748</v>
+        <v>12.91462228224336</v>
       </c>
       <c r="C166">
-        <v>13.74521446228027</v>
+        <v>13.74521541595459</v>
       </c>
       <c r="D166">
-        <v>12.77496418135467</v>
+        <v>12.77496506771081</v>
       </c>
       <c r="E166">
-        <v>13.74521446228027</v>
+        <v>13.74521541595459</v>
       </c>
       <c r="F166">
         <v>3439140</v>
@@ -5308,16 +5308,16 @@
         <v>44565</v>
       </c>
       <c r="B168">
-        <v>12.82641943312954</v>
+        <v>12.8264184997803</v>
       </c>
       <c r="C168">
-        <v>13.52470552895559</v>
+        <v>13.52470454479366</v>
       </c>
       <c r="D168">
-        <v>12.72351298260373</v>
+        <v>12.72351205674275</v>
       </c>
       <c r="E168">
-        <v>13.10573387145996</v>
+        <v>13.10573291778564</v>
       </c>
       <c r="F168">
         <v>1266427</v>
@@ -5438,16 +5438,16 @@
         <v>44572</v>
       </c>
       <c r="B173">
-        <v>12.54710562838137</v>
+        <v>12.54710470289978</v>
       </c>
       <c r="C173">
-        <v>12.98077761523158</v>
+        <v>12.9807766577621</v>
       </c>
       <c r="D173">
-        <v>12.30454194644179</v>
+        <v>12.30454103885183</v>
       </c>
       <c r="E173">
-        <v>12.92932510375977</v>
+        <v>12.92932415008545</v>
       </c>
       <c r="F173">
         <v>872764</v>
@@ -5464,16 +5464,16 @@
         <v>44573</v>
       </c>
       <c r="B174">
-        <v>12.93667327719147</v>
+        <v>12.93667418349111</v>
       </c>
       <c r="C174">
-        <v>13.79666696512365</v>
+        <v>13.79666793167154</v>
       </c>
       <c r="D174">
-        <v>12.92932312421778</v>
+        <v>12.92932403000249</v>
       </c>
       <c r="E174">
-        <v>13.61290740966797</v>
+        <v>13.61290836334229</v>
       </c>
       <c r="F174">
         <v>766070</v>
@@ -5490,16 +5490,16 @@
         <v>44574</v>
       </c>
       <c r="B175">
-        <v>13.60555704555043</v>
+        <v>13.60555893756656</v>
       </c>
       <c r="C175">
-        <v>13.84811925380968</v>
+        <v>13.848121179557</v>
       </c>
       <c r="D175">
-        <v>13.30419218163585</v>
+        <v>13.30419403174358</v>
       </c>
       <c r="E175">
-        <v>13.71581363677979</v>
+        <v>13.71581554412842</v>
       </c>
       <c r="F175">
         <v>523454</v>
@@ -5542,16 +5542,16 @@
         <v>44578</v>
       </c>
       <c r="B177">
-        <v>14.03188056454717</v>
+        <v>14.03187961037304</v>
       </c>
       <c r="C177">
-        <v>14.1200867082495</v>
+        <v>14.12008574807731</v>
       </c>
       <c r="D177">
-        <v>13.67171299984984</v>
+        <v>13.67171207016726</v>
       </c>
       <c r="E177">
-        <v>14.0245304107666</v>
+        <v>14.02452945709229</v>
       </c>
       <c r="F177">
         <v>224425</v>
@@ -5568,16 +5568,16 @@
         <v>44579</v>
       </c>
       <c r="B178">
-        <v>14.03923116478471</v>
+        <v>14.03923021657134</v>
       </c>
       <c r="C178">
-        <v>14.33324589202253</v>
+        <v>14.33324492395132</v>
       </c>
       <c r="D178">
-        <v>13.87752206185903</v>
+        <v>13.87752112456752</v>
       </c>
       <c r="E178">
-        <v>14.12008571624756</v>
+        <v>14.12008476257324</v>
       </c>
       <c r="F178">
         <v>451098</v>
@@ -5620,16 +5620,16 @@
         <v>44581</v>
       </c>
       <c r="B180">
-        <v>15.22999482854818</v>
+        <v>15.2299938493543</v>
       </c>
       <c r="C180">
-        <v>15.22999482854818</v>
+        <v>15.2299938493543</v>
       </c>
       <c r="D180">
-        <v>14.77427095102508</v>
+        <v>14.77427000113141</v>
       </c>
       <c r="E180">
-        <v>14.83307361602783</v>
+        <v>14.83307266235352</v>
       </c>
       <c r="F180">
         <v>556770</v>
@@ -5646,16 +5646,16 @@
         <v>44582</v>
       </c>
       <c r="B181">
-        <v>14.77427095102508</v>
+        <v>14.77427000113141</v>
       </c>
       <c r="C181">
-        <v>14.91392817589322</v>
+        <v>14.91392721702046</v>
       </c>
       <c r="D181">
-        <v>14.17153969460581</v>
+        <v>14.17153878346401</v>
       </c>
       <c r="E181">
-        <v>14.83307361602783</v>
+        <v>14.83307266235352</v>
       </c>
       <c r="F181">
         <v>636484</v>
@@ -5672,16 +5672,16 @@
         <v>44585</v>
       </c>
       <c r="B182">
-        <v>14.67136530895215</v>
+        <v>14.67136434023259</v>
       </c>
       <c r="C182">
-        <v>14.88452549786932</v>
+        <v>14.88452451507524</v>
       </c>
       <c r="D182">
-        <v>14.11273643309149</v>
+        <v>14.11273550125703</v>
       </c>
       <c r="E182">
-        <v>14.44350337982178</v>
+        <v>14.44350242614746</v>
       </c>
       <c r="F182">
         <v>764128</v>
@@ -5698,16 +5698,16 @@
         <v>44586</v>
       </c>
       <c r="B183">
-        <v>14.34794884687006</v>
+        <v>14.34794793433463</v>
       </c>
       <c r="C183">
-        <v>15.15649013166189</v>
+        <v>15.1564891677029</v>
       </c>
       <c r="D183">
-        <v>14.34059869298318</v>
+        <v>14.34059778091522</v>
       </c>
       <c r="E183">
-        <v>14.99478244781494</v>
+        <v>14.99478149414062</v>
       </c>
       <c r="F183">
         <v>804291</v>
@@ -5724,16 +5724,16 @@
         <v>44587</v>
       </c>
       <c r="B184">
-        <v>15.17118946724817</v>
+        <v>15.17119042370279</v>
       </c>
       <c r="C184">
-        <v>15.52400829343762</v>
+        <v>15.5240092721354</v>
       </c>
       <c r="D184">
-        <v>14.83307238066891</v>
+        <v>14.83307331580723</v>
       </c>
       <c r="E184">
-        <v>15.12708854675293</v>
+        <v>15.12708950042725</v>
       </c>
       <c r="F184">
         <v>898415</v>
@@ -5750,16 +5750,16 @@
         <v>44588</v>
       </c>
       <c r="B185">
-        <v>15.14913799712377</v>
+        <v>15.14913993359941</v>
       </c>
       <c r="C185">
-        <v>15.39905036049593</v>
+        <v>15.39905232891723</v>
       </c>
       <c r="D185">
-        <v>14.67871388208303</v>
+        <v>14.67871575842556</v>
       </c>
       <c r="E185">
-        <v>14.9212760925293</v>
+        <v>14.92127799987793</v>
       </c>
       <c r="F185">
         <v>1002452</v>
@@ -5802,16 +5802,16 @@
         <v>44592</v>
       </c>
       <c r="B187">
-        <v>14.70811784955543</v>
+        <v>14.7081169141131</v>
       </c>
       <c r="C187">
-        <v>15.11238777556208</v>
+        <v>15.11238681440802</v>
       </c>
       <c r="D187">
-        <v>14.54640873292995</v>
+        <v>14.54640780777238</v>
       </c>
       <c r="E187">
-        <v>14.99478244781494</v>
+        <v>14.99478149414062</v>
       </c>
       <c r="F187">
         <v>710168</v>
@@ -5828,16 +5828,16 @@
         <v>44593</v>
       </c>
       <c r="B188">
-        <v>15.06828441828482</v>
+        <v>15.06828254654486</v>
       </c>
       <c r="C188">
-        <v>15.35494899749756</v>
+        <v>15.35494709014893</v>
       </c>
       <c r="D188">
-        <v>14.48760510646083</v>
+        <v>14.48760330685121</v>
       </c>
       <c r="E188">
-        <v>15.35494899749756</v>
+        <v>15.35494709014893</v>
       </c>
       <c r="F188">
         <v>835564</v>
@@ -5854,16 +5854,16 @@
         <v>44594</v>
       </c>
       <c r="B189">
-        <v>15.082984960904</v>
+        <v>15.08298683088948</v>
       </c>
       <c r="C189">
-        <v>15.45050263111337</v>
+        <v>15.45050454666361</v>
       </c>
       <c r="D189">
-        <v>14.86247321255573</v>
+        <v>14.8624750552022</v>
       </c>
       <c r="E189">
-        <v>15.38434982299805</v>
+        <v>15.38435173034668</v>
       </c>
       <c r="F189">
         <v>538988</v>
@@ -5880,16 +5880,16 @@
         <v>44595</v>
       </c>
       <c r="B190">
-        <v>15.36229967961867</v>
+        <v>15.36230162893844</v>
       </c>
       <c r="C190">
-        <v>15.36229967961867</v>
+        <v>15.36230162893844</v>
       </c>
       <c r="D190">
-        <v>14.71546615971666</v>
+        <v>14.71546802695983</v>
       </c>
       <c r="E190">
-        <v>15.03153133392334</v>
+        <v>15.03153324127197</v>
       </c>
       <c r="F190">
         <v>450587</v>
@@ -5906,16 +5906,16 @@
         <v>44596</v>
       </c>
       <c r="B191">
-        <v>15.25204291139036</v>
+        <v>15.25204198495114</v>
       </c>
       <c r="C191">
-        <v>15.70041656494141</v>
+        <v>15.70041561126709</v>
       </c>
       <c r="D191">
-        <v>14.80367069061765</v>
+        <v>14.80366979141345</v>
       </c>
       <c r="E191">
-        <v>15.70041656494141</v>
+        <v>15.70041561126709</v>
       </c>
       <c r="F191">
         <v>757690</v>
@@ -5932,16 +5932,16 @@
         <v>44599</v>
       </c>
       <c r="B192">
-        <v>15.61221327636053</v>
+        <v>15.61221229018516</v>
       </c>
       <c r="C192">
-        <v>15.6783660910529</v>
+        <v>15.67836510069886</v>
       </c>
       <c r="D192">
-        <v>15.09768676757812</v>
+        <v>15.09768581390381</v>
       </c>
       <c r="E192">
-        <v>15.09768676757812</v>
+        <v>15.09768581390381</v>
       </c>
       <c r="F192">
         <v>742667</v>
@@ -6010,16 +6010,16 @@
         <v>44602</v>
       </c>
       <c r="B195">
-        <v>15.450501514659</v>
+        <v>15.4505024557967</v>
       </c>
       <c r="C195">
-        <v>16.08263610276486</v>
+        <v>16.08263708240783</v>
       </c>
       <c r="D195">
-        <v>15.4358012100908</v>
+        <v>15.43580215033306</v>
       </c>
       <c r="E195">
-        <v>15.65631294250488</v>
+        <v>15.6563138961792</v>
       </c>
       <c r="F195">
         <v>770771</v>
@@ -6036,16 +6036,16 @@
         <v>44603</v>
       </c>
       <c r="B196">
-        <v>15.72246976311965</v>
+        <v>15.72246694945187</v>
       </c>
       <c r="C196">
-        <v>16.43545764130577</v>
+        <v>16.43545470004284</v>
       </c>
       <c r="D196">
-        <v>15.4358051541242</v>
+        <v>15.43580239175746</v>
       </c>
       <c r="E196">
-        <v>15.98708534240723</v>
+        <v>15.98708248138428</v>
       </c>
       <c r="F196">
         <v>1638221</v>
@@ -6062,16 +6062,16 @@
         <v>44606</v>
       </c>
       <c r="B197">
-        <v>16.01648571201658</v>
+        <v>16.01648190605267</v>
       </c>
       <c r="C197">
-        <v>16.32520221151541</v>
+        <v>16.32519833219184</v>
       </c>
       <c r="D197">
-        <v>15.64161639330015</v>
+        <v>15.64161267641564</v>
       </c>
       <c r="E197">
-        <v>16.05323791503906</v>
+        <v>16.0532341003418</v>
       </c>
       <c r="F197">
         <v>1186509</v>
@@ -6166,16 +6166,16 @@
         <v>44610</v>
       </c>
       <c r="B201">
-        <v>15.56076044344939</v>
+        <v>15.56076142925433</v>
       </c>
       <c r="C201">
-        <v>15.83272471563616</v>
+        <v>15.83272571867057</v>
       </c>
       <c r="D201">
-        <v>15.05358409881592</v>
+        <v>15.05358505249023</v>
       </c>
       <c r="E201">
-        <v>15.05358409881592</v>
+        <v>15.05358505249023</v>
       </c>
       <c r="F201">
         <v>699642</v>
@@ -6218,16 +6218,16 @@
         <v>44614</v>
       </c>
       <c r="B203">
-        <v>15.7077673414615</v>
+        <v>15.70776934441182</v>
       </c>
       <c r="C203">
-        <v>16.02383395736032</v>
+        <v>16.02383600061336</v>
       </c>
       <c r="D203">
-        <v>14.92127659469028</v>
+        <v>14.92127849735252</v>
       </c>
       <c r="E203">
-        <v>14.95802879333496</v>
+        <v>14.95803070068359</v>
       </c>
       <c r="F203">
         <v>993765</v>
@@ -6270,16 +6270,16 @@
         <v>44616</v>
       </c>
       <c r="B205">
-        <v>15.43580255790375</v>
+        <v>15.43580453102299</v>
       </c>
       <c r="C205">
-        <v>15.69306650698015</v>
+        <v>15.69306851298478</v>
       </c>
       <c r="D205">
-        <v>14.87717374219558</v>
+        <v>14.87717564390672</v>
       </c>
       <c r="E205">
-        <v>14.9212760925293</v>
+        <v>14.92127799987793</v>
       </c>
       <c r="F205">
         <v>1947060</v>
@@ -6296,16 +6296,16 @@
         <v>44617</v>
       </c>
       <c r="B206">
-        <v>15.08298519121285</v>
+        <v>15.08298424400097</v>
       </c>
       <c r="C206">
-        <v>15.45785445273981</v>
+        <v>15.45785348198613</v>
       </c>
       <c r="D206">
-        <v>14.92862624862292</v>
+        <v>14.92862531110478</v>
       </c>
       <c r="E206">
-        <v>15.18589019775391</v>
+        <v>15.18588924407959</v>
       </c>
       <c r="F206">
         <v>1307919</v>
@@ -6322,16 +6322,16 @@
         <v>44622</v>
       </c>
       <c r="B207">
-        <v>15.58281259659327</v>
+        <v>15.58281080660707</v>
       </c>
       <c r="C207">
-        <v>16.70007185307076</v>
+        <v>16.70006993474581</v>
       </c>
       <c r="D207">
-        <v>15.58281259659327</v>
+        <v>15.58281080660707</v>
       </c>
       <c r="E207">
-        <v>16.60451698303223</v>
+        <v>16.60451507568359</v>
       </c>
       <c r="F207">
         <v>1307306</v>
@@ -6348,16 +6348,16 @@
         <v>44623</v>
       </c>
       <c r="B208">
-        <v>16.83972598879814</v>
+        <v>16.83972793783283</v>
       </c>
       <c r="C208">
-        <v>17.25869759575056</v>
+        <v>17.25869959327714</v>
       </c>
       <c r="D208">
-        <v>16.19289247987739</v>
+        <v>16.19289435404738</v>
       </c>
       <c r="E208">
-        <v>16.47955703735352</v>
+        <v>16.47955894470215</v>
       </c>
       <c r="F208">
         <v>1236483</v>
@@ -6400,16 +6400,16 @@
         <v>44627</v>
       </c>
       <c r="B210">
-        <v>16.8470755626795</v>
+        <v>16.84707657463391</v>
       </c>
       <c r="C210">
-        <v>16.98673276019757</v>
+        <v>16.98673378054077</v>
       </c>
       <c r="D210">
-        <v>15.63426170054841</v>
+        <v>15.63426263965265</v>
       </c>
       <c r="E210">
-        <v>15.8768253326416</v>
+        <v>15.87682628631592</v>
       </c>
       <c r="F210">
         <v>867143</v>
@@ -6426,16 +6426,16 @@
         <v>44628</v>
       </c>
       <c r="B211">
-        <v>16.00913442185266</v>
+        <v>16.00913632309081</v>
       </c>
       <c r="C211">
-        <v>16.52366092931742</v>
+        <v>16.52366289166053</v>
       </c>
       <c r="D211">
-        <v>15.70041794426242</v>
+        <v>15.70041980883753</v>
       </c>
       <c r="E211">
-        <v>16.06058692932129</v>
+        <v>16.06058883666992</v>
       </c>
       <c r="F211">
         <v>2157996</v>
@@ -6452,16 +6452,16 @@
         <v>44629</v>
       </c>
       <c r="B212">
-        <v>16.13409234093207</v>
+        <v>16.1340903763002</v>
       </c>
       <c r="C212">
-        <v>16.13409234093207</v>
+        <v>16.1340903763002</v>
       </c>
       <c r="D212">
-        <v>15.28879740956036</v>
+        <v>15.28879554785918</v>
       </c>
       <c r="E212">
-        <v>15.66366672515869</v>
+        <v>15.66366481781006</v>
       </c>
       <c r="F212">
         <v>1687275</v>
@@ -6478,16 +6478,16 @@
         <v>44630</v>
       </c>
       <c r="B213">
-        <v>15.56811071777933</v>
+        <v>15.56810883881912</v>
       </c>
       <c r="C213">
-        <v>16.03853629910556</v>
+        <v>16.03853436336833</v>
       </c>
       <c r="D213">
-        <v>15.53135851775375</v>
+        <v>15.53135664322927</v>
       </c>
       <c r="E213">
-        <v>15.80332279205322</v>
+        <v>15.80332088470459</v>
       </c>
       <c r="F213">
         <v>454777</v>
@@ -6504,16 +6504,16 @@
         <v>44631</v>
       </c>
       <c r="B214">
-        <v>15.89887715098628</v>
+        <v>15.89888014778667</v>
       </c>
       <c r="C214">
-        <v>15.98708184720538</v>
+        <v>15.98708486063159</v>
       </c>
       <c r="D214">
-        <v>15.1197351901248</v>
+        <v>15.11973804006369</v>
       </c>
       <c r="E214">
-        <v>15.17853927612305</v>
+        <v>15.178542137146</v>
       </c>
       <c r="F214">
         <v>816759</v>
@@ -6530,16 +6530,16 @@
         <v>44634</v>
       </c>
       <c r="B215">
-        <v>15.06828321446591</v>
+        <v>15.06828523412737</v>
       </c>
       <c r="C215">
-        <v>15.20794041621568</v>
+        <v>15.20794245459595</v>
       </c>
       <c r="D215">
-        <v>13.96572590609035</v>
+        <v>13.96572777797171</v>
       </c>
       <c r="E215">
-        <v>14.23034000396729</v>
+        <v>14.23034191131592</v>
       </c>
       <c r="F215">
         <v>947061</v>
@@ -6556,16 +6556,16 @@
         <v>44635</v>
       </c>
       <c r="B216">
-        <v>13.77461611765081</v>
+        <v>13.77461789949098</v>
       </c>
       <c r="C216">
-        <v>14.74486637115479</v>
+        <v>14.74486827850342</v>
       </c>
       <c r="D216">
-        <v>13.77461611765081</v>
+        <v>13.77461789949098</v>
       </c>
       <c r="E216">
-        <v>14.74486637115479</v>
+        <v>14.74486827850342</v>
       </c>
       <c r="F216">
         <v>1073990</v>
@@ -6582,16 +6582,16 @@
         <v>44636</v>
       </c>
       <c r="B217">
-        <v>14.88452264349262</v>
+        <v>14.88452459419004</v>
       </c>
       <c r="C217">
-        <v>15.06828218230117</v>
+        <v>15.06828415708128</v>
       </c>
       <c r="D217">
-        <v>14.36264606907649</v>
+        <v>14.36264795137916</v>
       </c>
       <c r="E217">
-        <v>14.55375576019287</v>
+        <v>14.5537576675415</v>
       </c>
       <c r="F217">
         <v>625140</v>
@@ -6608,16 +6608,16 @@
         <v>44637</v>
       </c>
       <c r="B218">
-        <v>14.64196085331617</v>
+        <v>14.64196267909155</v>
       </c>
       <c r="C218">
-        <v>15.38434918113287</v>
+        <v>15.38435109948017</v>
       </c>
       <c r="D218">
-        <v>14.61991039579049</v>
+        <v>14.61991221881629</v>
       </c>
       <c r="E218">
-        <v>15.29614448547363</v>
+        <v>15.29614639282227</v>
       </c>
       <c r="F218">
         <v>733162</v>
@@ -6634,16 +6634,16 @@
         <v>44638</v>
       </c>
       <c r="B219">
-        <v>15.45050194682928</v>
+        <v>15.45050558333417</v>
       </c>
       <c r="C219">
-        <v>16.20759201049805</v>
+        <v>16.20759582519531</v>
       </c>
       <c r="D219">
-        <v>15.16383740306171</v>
+        <v>15.16384097209584</v>
       </c>
       <c r="E219">
-        <v>16.20759201049805</v>
+        <v>16.20759582519531</v>
       </c>
       <c r="F219">
         <v>766172</v>
@@ -6712,16 +6712,16 @@
         <v>44643</v>
       </c>
       <c r="B222">
-        <v>17.78792453868866</v>
+        <v>17.78792821806991</v>
       </c>
       <c r="C222">
-        <v>18.44210815429688</v>
+        <v>18.44211196899414</v>
       </c>
       <c r="D222">
-        <v>17.49390841633633</v>
+        <v>17.4939120349012</v>
       </c>
       <c r="E222">
-        <v>18.44210815429688</v>
+        <v>18.44211196899414</v>
       </c>
       <c r="F222">
         <v>1454470</v>
@@ -6790,16 +6790,16 @@
         <v>44648</v>
       </c>
       <c r="B225">
-        <v>19.47116307428564</v>
+        <v>19.47116500717281</v>
       </c>
       <c r="C225">
-        <v>19.47116307428564</v>
+        <v>19.47116500717281</v>
       </c>
       <c r="D225">
-        <v>18.83902846205938</v>
+        <v>18.83903033219503</v>
       </c>
       <c r="E225">
-        <v>19.21389770507812</v>
+        <v>19.21389961242676</v>
       </c>
       <c r="F225">
         <v>914767</v>
@@ -6816,16 +6816,16 @@
         <v>44649</v>
       </c>
       <c r="B226">
-        <v>19.05219305952616</v>
+        <v>19.05219115070472</v>
       </c>
       <c r="C226">
-        <v>19.44911425570867</v>
+        <v>19.44911230712006</v>
       </c>
       <c r="D226">
-        <v>18.82433113014372</v>
+        <v>18.82432924415156</v>
       </c>
       <c r="E226">
-        <v>19.0374927520752</v>
+        <v>19.03749084472656</v>
       </c>
       <c r="F226">
         <v>802452</v>
@@ -6842,16 +6842,16 @@
         <v>44650</v>
       </c>
       <c r="B227">
-        <v>19.16244457358688</v>
+        <v>19.16244853728367</v>
       </c>
       <c r="C227">
-        <v>19.47116243336268</v>
+        <v>19.47116646091687</v>
       </c>
       <c r="D227">
-        <v>18.40535595990556</v>
+        <v>18.40535976700074</v>
       </c>
       <c r="E227">
-        <v>18.44210815429688</v>
+        <v>18.44211196899414</v>
       </c>
       <c r="F227">
         <v>889830</v>
@@ -6868,16 +6868,16 @@
         <v>44651</v>
       </c>
       <c r="B228">
-        <v>17.95698224511556</v>
+        <v>17.95698417537756</v>
       </c>
       <c r="C228">
-        <v>18.37595382028466</v>
+        <v>18.37595579558346</v>
       </c>
       <c r="D228">
-        <v>17.53066051766286</v>
+        <v>17.53066240209797</v>
       </c>
       <c r="E228">
-        <v>17.74382209777832</v>
+        <v>17.74382400512695</v>
       </c>
       <c r="F228">
         <v>850178</v>
@@ -6920,16 +6920,16 @@
         <v>44655</v>
       </c>
       <c r="B230">
-        <v>17.84673096331082</v>
+        <v>17.84672901585814</v>
       </c>
       <c r="C230">
-        <v>18.17014776333234</v>
+        <v>18.1701457805881</v>
       </c>
       <c r="D230">
-        <v>17.44980975896592</v>
+        <v>17.44980785482566</v>
       </c>
       <c r="E230">
-        <v>17.47921180725098</v>
+        <v>17.47920989990234</v>
       </c>
       <c r="F230">
         <v>594583</v>
@@ -6946,16 +6946,16 @@
         <v>44656</v>
       </c>
       <c r="B231">
-        <v>17.60416619092429</v>
+        <v>17.60416810306341</v>
       </c>
       <c r="C231">
-        <v>18.1995471954675</v>
+        <v>18.19954917227605</v>
       </c>
       <c r="D231">
-        <v>17.53066179716702</v>
+        <v>17.5306637013222</v>
       </c>
       <c r="E231">
-        <v>17.56006240844727</v>
+        <v>17.5600643157959</v>
       </c>
       <c r="F231">
         <v>514460</v>
@@ -6998,16 +6998,16 @@
         <v>44658</v>
       </c>
       <c r="B233">
-        <v>17.39100358388076</v>
+        <v>17.39100732893212</v>
       </c>
       <c r="C233">
-        <v>17.92758190188056</v>
+        <v>17.92758576248093</v>
       </c>
       <c r="D233">
-        <v>17.01613434963146</v>
+        <v>17.01613801395691</v>
       </c>
       <c r="E233">
-        <v>17.71442031860352</v>
+        <v>17.71442413330078</v>
       </c>
       <c r="F233">
         <v>479304</v>
@@ -7024,16 +7024,16 @@
         <v>44659</v>
       </c>
       <c r="B234">
-        <v>17.84672967309229</v>
+        <v>17.84673164040009</v>
       </c>
       <c r="C234">
-        <v>17.84672967309229</v>
+        <v>17.84673164040009</v>
       </c>
       <c r="D234">
-        <v>17.17049407365224</v>
+        <v>17.1704959664162</v>
       </c>
       <c r="E234">
-        <v>17.30280113220215</v>
+        <v>17.30280303955078</v>
       </c>
       <c r="F234">
         <v>1404700</v>
@@ -7050,16 +7050,16 @@
         <v>44662</v>
       </c>
       <c r="B235">
-        <v>17.11169194857596</v>
+        <v>17.1116938901185</v>
       </c>
       <c r="C235">
-        <v>17.33955387328807</v>
+        <v>17.33955584068449</v>
       </c>
       <c r="D235">
-        <v>16.81032562255859</v>
+        <v>16.81032752990723</v>
       </c>
       <c r="E235">
-        <v>16.81032562255859</v>
+        <v>16.81032752990723</v>
       </c>
       <c r="F235">
         <v>414511</v>
@@ -7076,16 +7076,16 @@
         <v>44663</v>
       </c>
       <c r="B236">
-        <v>17.07494044902944</v>
+        <v>17.07493858579529</v>
       </c>
       <c r="C236">
-        <v>17.71442389519585</v>
+        <v>17.71442196218065</v>
       </c>
       <c r="D236">
-        <v>17.07494044902944</v>
+        <v>17.07493858579529</v>
       </c>
       <c r="E236">
-        <v>17.47921180725098</v>
+        <v>17.47920989990234</v>
       </c>
       <c r="F236">
         <v>519263</v>
@@ -7102,16 +7102,16 @@
         <v>44664</v>
       </c>
       <c r="B237">
-        <v>17.56741193838282</v>
+        <v>17.56741376107901</v>
       </c>
       <c r="C237">
-        <v>18.58911458193929</v>
+        <v>18.58911651064161</v>
       </c>
       <c r="D237">
-        <v>17.56741193838282</v>
+        <v>17.56741376107901</v>
       </c>
       <c r="E237">
-        <v>18.38330459594727</v>
+        <v>18.3833065032959</v>
       </c>
       <c r="F237">
         <v>1154521</v>
@@ -7128,16 +7128,16 @@
         <v>44665</v>
       </c>
       <c r="B238">
-        <v>18.37595481271474</v>
+        <v>18.37595672082659</v>
       </c>
       <c r="C238">
-        <v>18.4347588997158</v>
+        <v>18.43476081393372</v>
       </c>
       <c r="D238">
-        <v>18.03783775996098</v>
+        <v>18.03783963296362</v>
       </c>
       <c r="E238">
-        <v>18.36860466003418</v>
+        <v>18.36860656738281</v>
       </c>
       <c r="F238">
         <v>442820</v>
@@ -7154,16 +7154,16 @@
         <v>44669</v>
       </c>
       <c r="B239">
-        <v>18.36860718220417</v>
+        <v>18.3686090979855</v>
       </c>
       <c r="C239">
-        <v>18.72877617523225</v>
+        <v>18.72877812857794</v>
       </c>
       <c r="D239">
-        <v>17.94228537318941</v>
+        <v>17.94228724450686</v>
       </c>
       <c r="E239">
-        <v>18.28775405883789</v>
+        <v>18.28775596618652</v>
       </c>
       <c r="F239">
         <v>752171</v>
@@ -7180,16 +7180,16 @@
         <v>44670</v>
       </c>
       <c r="B240">
-        <v>18.15544699408603</v>
+        <v>18.1554488876355</v>
       </c>
       <c r="C240">
-        <v>18.5597169092529</v>
+        <v>18.55971884496631</v>
       </c>
       <c r="D240">
-        <v>18.03049008302398</v>
+        <v>18.03049196354088</v>
       </c>
       <c r="E240">
-        <v>18.28775405883789</v>
+        <v>18.28775596618652</v>
       </c>
       <c r="F240">
         <v>455595</v>
@@ -7206,16 +7206,16 @@
         <v>44671</v>
       </c>
       <c r="B241">
-        <v>18.39066022465555</v>
+        <v>18.39065832338608</v>
       </c>
       <c r="C241">
-        <v>18.68467498728138</v>
+        <v>18.68467305561597</v>
       </c>
       <c r="D241">
-        <v>17.89818413611762</v>
+        <v>17.89818228576148</v>
       </c>
       <c r="E241">
-        <v>18.449462890625</v>
+        <v>18.44946098327637</v>
       </c>
       <c r="F241">
         <v>386816</v>
@@ -7232,16 +7232,16 @@
         <v>44673</v>
       </c>
       <c r="B242">
-        <v>18.23629989659619</v>
+        <v>18.23630181944539</v>
       </c>
       <c r="C242">
-        <v>18.51561433009678</v>
+        <v>18.51561628239711</v>
       </c>
       <c r="D242">
-        <v>17.69972292317584</v>
+        <v>17.69972478944796</v>
       </c>
       <c r="E242">
-        <v>18.08929252624512</v>
+        <v>18.08929443359375</v>
       </c>
       <c r="F242">
         <v>443127</v>
@@ -7258,16 +7258,16 @@
         <v>44676</v>
       </c>
       <c r="B243">
-        <v>17.80262821605299</v>
+        <v>17.80262628961494</v>
       </c>
       <c r="C243">
-        <v>17.90553323362153</v>
+        <v>17.90553129604803</v>
       </c>
       <c r="D243">
-        <v>16.63391652310959</v>
+        <v>16.63391472313887</v>
       </c>
       <c r="E243">
-        <v>17.62621879577637</v>
+        <v>17.62621688842773</v>
       </c>
       <c r="F243">
         <v>887276</v>
@@ -7284,16 +7284,16 @@
         <v>44677</v>
       </c>
       <c r="B244">
-        <v>17.67766926801126</v>
+        <v>17.67767113044455</v>
       </c>
       <c r="C244">
-        <v>18.34655467070503</v>
+        <v>18.34655660360883</v>
       </c>
       <c r="D244">
-        <v>17.41305516808109</v>
+        <v>17.41305700263593</v>
       </c>
       <c r="E244">
-        <v>18.1039924621582</v>
+        <v>18.10399436950684</v>
       </c>
       <c r="F244">
         <v>608686</v>
@@ -7310,16 +7310,16 @@
         <v>44678</v>
       </c>
       <c r="B245">
-        <v>18.1113431221177</v>
+        <v>18.11134508359812</v>
       </c>
       <c r="C245">
-        <v>18.57441709357172</v>
+        <v>18.57441910520361</v>
       </c>
       <c r="D245">
-        <v>17.48656005191929</v>
+        <v>17.48656194573494</v>
       </c>
       <c r="E245">
-        <v>17.61151695251465</v>
+        <v>17.61151885986328</v>
       </c>
       <c r="F245">
         <v>418599</v>
@@ -7336,16 +7336,16 @@
         <v>44679</v>
       </c>
       <c r="B246">
-        <v>17.73975595906684</v>
+        <v>17.73975412221888</v>
       </c>
       <c r="C246">
-        <v>18.42063140869141</v>
+        <v>18.42062950134277</v>
       </c>
       <c r="D246">
-        <v>17.56953673600842</v>
+        <v>17.56953491678566</v>
       </c>
       <c r="E246">
-        <v>18.42063140869141</v>
+        <v>18.42062950134277</v>
       </c>
       <c r="F246">
         <v>512212</v>
@@ -7440,16 +7440,16 @@
         <v>44685</v>
       </c>
       <c r="B250">
-        <v>18.87207625696856</v>
+        <v>18.87207815686655</v>
       </c>
       <c r="C250">
-        <v>18.94608497619629</v>
+        <v>18.94608688354492</v>
       </c>
       <c r="D250">
-        <v>18.15419802793851</v>
+        <v>18.15419985556596</v>
       </c>
       <c r="E250">
-        <v>18.94608497619629</v>
+        <v>18.94608688354492</v>
       </c>
       <c r="F250">
         <v>1375778</v>
@@ -7518,16 +7518,16 @@
         <v>44690</v>
       </c>
       <c r="B253">
-        <v>18.65005451910353</v>
+        <v>18.65005650938039</v>
       </c>
       <c r="C253">
-        <v>18.76106616447075</v>
+        <v>18.76106816659444</v>
       </c>
       <c r="D253">
-        <v>17.49552590571776</v>
+        <v>17.49552777278685</v>
       </c>
       <c r="E253">
-        <v>17.87296867370605</v>
+        <v>17.87297058105469</v>
       </c>
       <c r="F253">
         <v>1458456</v>
@@ -7544,16 +7544,16 @@
         <v>44691</v>
       </c>
       <c r="B254">
-        <v>18.13939825842979</v>
+        <v>18.13940014728304</v>
       </c>
       <c r="C254">
-        <v>18.45023144086876</v>
+        <v>18.45023336208904</v>
       </c>
       <c r="D254">
-        <v>17.57693512271149</v>
+        <v>17.57693695299553</v>
       </c>
       <c r="E254">
-        <v>18.3170166015625</v>
+        <v>18.31701850891113</v>
       </c>
       <c r="F254">
         <v>684721</v>
@@ -7570,16 +7570,16 @@
         <v>44692</v>
       </c>
       <c r="B255">
-        <v>18.31701507227306</v>
+        <v>18.31701692934929</v>
       </c>
       <c r="C255">
-        <v>19.07929968200304</v>
+        <v>19.07930161636373</v>
       </c>
       <c r="D255">
-        <v>18.31701507227306</v>
+        <v>18.31701692934929</v>
       </c>
       <c r="E255">
-        <v>18.81287002563477</v>
+        <v>18.8128719329834</v>
       </c>
       <c r="F255">
         <v>864179</v>
@@ -7596,16 +7596,16 @@
         <v>44693</v>
       </c>
       <c r="B256">
-        <v>18.64265117335868</v>
+        <v>18.64265300998369</v>
       </c>
       <c r="C256">
-        <v>19.48634510036516</v>
+        <v>19.48634702010868</v>
       </c>
       <c r="D256">
-        <v>18.56864389588683</v>
+        <v>18.56864572522084</v>
       </c>
       <c r="E256">
-        <v>19.36053085327148</v>
+        <v>19.36053276062012</v>
       </c>
       <c r="F256">
         <v>773837</v>
@@ -7622,16 +7622,16 @@
         <v>44694</v>
       </c>
       <c r="B257">
-        <v>19.39013373054051</v>
+        <v>19.39013558137495</v>
       </c>
       <c r="C257">
-        <v>20.18202215272324</v>
+        <v>20.18202407914531</v>
       </c>
       <c r="D257">
-        <v>19.38273314684684</v>
+        <v>19.38273499697488</v>
       </c>
       <c r="E257">
-        <v>19.98220062255859</v>
+        <v>19.98220252990723</v>
       </c>
       <c r="F257">
         <v>1233417</v>
@@ -7700,16 +7700,16 @@
         <v>44699</v>
       </c>
       <c r="B260">
-        <v>20.15982216839662</v>
+        <v>20.15982015459133</v>
       </c>
       <c r="C260">
-        <v>20.29303702391663</v>
+        <v>20.29303499680424</v>
       </c>
       <c r="D260">
-        <v>19.0496998150057</v>
+        <v>19.04969791209277</v>
       </c>
       <c r="E260">
-        <v>19.0941047668457</v>
+        <v>19.09410285949707</v>
       </c>
       <c r="F260">
         <v>1259069</v>
@@ -7726,16 +7726,16 @@
         <v>44700</v>
       </c>
       <c r="B261">
-        <v>19.02009417027807</v>
+        <v>19.02009773528628</v>
       </c>
       <c r="C261">
-        <v>20.42624832984007</v>
+        <v>20.42625215840907</v>
       </c>
       <c r="D261">
-        <v>18.9164816722507</v>
+        <v>18.91648521783842</v>
       </c>
       <c r="E261">
-        <v>20.35223960876465</v>
+        <v>20.35224342346191</v>
       </c>
       <c r="F261">
         <v>1978435</v>
@@ -7752,16 +7752,16 @@
         <v>44701</v>
       </c>
       <c r="B262">
-        <v>20.55946356360753</v>
+        <v>20.55946169526669</v>
       </c>
       <c r="C262">
-        <v>20.98871040344238</v>
+        <v>20.98870849609375</v>
       </c>
       <c r="D262">
-        <v>20.27083214247421</v>
+        <v>20.27083030036274</v>
       </c>
       <c r="E262">
-        <v>20.98871040344238</v>
+        <v>20.98870849609375</v>
       </c>
       <c r="F262">
         <v>1785691</v>
@@ -7804,16 +7804,16 @@
         <v>44705</v>
       </c>
       <c r="B264">
-        <v>20.4484500351406</v>
+        <v>20.44845191058703</v>
       </c>
       <c r="C264">
-        <v>21.13672445505438</v>
+        <v>21.13672639362646</v>
       </c>
       <c r="D264">
-        <v>20.35964015335648</v>
+        <v>20.35964202065763</v>
       </c>
       <c r="E264">
-        <v>20.79628753662109</v>
+        <v>20.79628944396973</v>
       </c>
       <c r="F264">
         <v>983852</v>
@@ -7830,16 +7830,16 @@
         <v>44706</v>
       </c>
       <c r="B265">
-        <v>20.70007957040528</v>
+        <v>20.70007775087799</v>
       </c>
       <c r="C265">
-        <v>21.86200731428849</v>
+        <v>21.8620053926283</v>
       </c>
       <c r="D265">
-        <v>20.6704757920343</v>
+        <v>20.67047397510918</v>
       </c>
       <c r="E265">
-        <v>21.69919013977051</v>
+        <v>21.69918823242188</v>
       </c>
       <c r="F265">
         <v>1486969</v>
@@ -7856,16 +7856,16 @@
         <v>44707</v>
       </c>
       <c r="B266">
-        <v>21.74359315101453</v>
+        <v>21.7435950793663</v>
       </c>
       <c r="C266">
-        <v>22.55768183637489</v>
+        <v>22.55768383692491</v>
       </c>
       <c r="D266">
-        <v>21.50676727294922</v>
+        <v>21.50676918029785</v>
       </c>
       <c r="E266">
-        <v>21.50676727294922</v>
+        <v>21.50676918029785</v>
       </c>
       <c r="F266">
         <v>1231476</v>
@@ -7882,16 +7882,16 @@
         <v>44708</v>
       </c>
       <c r="B267">
-        <v>21.52896934856101</v>
+        <v>21.52897119805334</v>
       </c>
       <c r="C267">
-        <v>22.29865454587641</v>
+        <v>22.2986564614902</v>
       </c>
       <c r="D267">
-        <v>21.39575451964437</v>
+        <v>21.3957563576926</v>
       </c>
       <c r="E267">
-        <v>22.20244407653809</v>
+        <v>22.20244598388672</v>
       </c>
       <c r="F267">
         <v>1154010</v>
@@ -7908,16 +7908,16 @@
         <v>44711</v>
       </c>
       <c r="B268">
-        <v>22.31345539338092</v>
+        <v>22.31345733289395</v>
       </c>
       <c r="C268">
-        <v>22.86851645128679</v>
+        <v>22.86851843904641</v>
       </c>
       <c r="D268">
-        <v>21.87680799590953</v>
+        <v>21.87680989746863</v>
       </c>
       <c r="E268">
-        <v>21.94341468811035</v>
+        <v>21.94341659545898</v>
       </c>
       <c r="F268">
         <v>717424</v>
@@ -7986,16 +7986,16 @@
         <v>44714</v>
       </c>
       <c r="B271">
-        <v>21.04791450209245</v>
+        <v>21.04791643183255</v>
       </c>
       <c r="C271">
-        <v>21.49936593514239</v>
+        <v>21.49936790627299</v>
       </c>
       <c r="D271">
-        <v>20.80368804931641</v>
+        <v>20.80368995666504</v>
       </c>
       <c r="E271">
-        <v>20.80368804931641</v>
+        <v>20.80368995666504</v>
       </c>
       <c r="F271">
         <v>722125</v>
@@ -8038,16 +8038,16 @@
         <v>44718</v>
       </c>
       <c r="B273">
-        <v>20.04307624801169</v>
+        <v>20.04308011820596</v>
       </c>
       <c r="C273">
-        <v>21.07926610765678</v>
+        <v>21.07927017793292</v>
       </c>
       <c r="D273">
-        <v>19.75566673278809</v>
+        <v>19.75567054748535</v>
       </c>
       <c r="E273">
-        <v>19.75566673278809</v>
+        <v>19.75567054748535</v>
       </c>
       <c r="F273">
         <v>1819900</v>
@@ -8064,16 +8064,16 @@
         <v>44719</v>
       </c>
       <c r="B274">
-        <v>19.65734162383908</v>
+        <v>19.65734354971285</v>
       </c>
       <c r="C274">
-        <v>19.97500553513019</v>
+        <v>19.97500749212621</v>
       </c>
       <c r="D274">
-        <v>19.24135382118567</v>
+        <v>19.24135570630419</v>
       </c>
       <c r="E274">
-        <v>19.4682559967041</v>
+        <v>19.46825790405273</v>
       </c>
       <c r="F274">
         <v>1083600</v>
@@ -8090,16 +8090,16 @@
         <v>44720</v>
       </c>
       <c r="B275">
-        <v>19.33211508631933</v>
+        <v>19.33211324523811</v>
       </c>
       <c r="C275">
-        <v>20.32292486100039</v>
+        <v>20.32292292556005</v>
       </c>
       <c r="D275">
-        <v>19.21866399285608</v>
+        <v>19.2186621625793</v>
       </c>
       <c r="E275">
-        <v>20.02795028686523</v>
+        <v>20.0279483795166</v>
       </c>
       <c r="F275">
         <v>1349000</v>
@@ -8116,16 +8116,16 @@
         <v>44721</v>
       </c>
       <c r="B276">
-        <v>19.80104743993715</v>
+        <v>19.80104930385601</v>
       </c>
       <c r="C276">
-        <v>20.58007931366492</v>
+        <v>20.58008125091587</v>
       </c>
       <c r="D276">
-        <v>19.80104743993715</v>
+        <v>19.80104930385601</v>
       </c>
       <c r="E276">
-        <v>20.26241683959961</v>
+        <v>20.26241874694824</v>
       </c>
       <c r="F276">
         <v>910200</v>
@@ -8142,16 +8142,16 @@
         <v>44722</v>
       </c>
       <c r="B277">
-        <v>19.93718995901973</v>
+        <v>19.93718806317847</v>
       </c>
       <c r="C277">
-        <v>20.29267043602995</v>
+        <v>20.2926685063858</v>
       </c>
       <c r="D277">
-        <v>19.48338414324336</v>
+        <v>19.48338229055481</v>
       </c>
       <c r="E277">
-        <v>20.05820465087891</v>
+        <v>20.05820274353027</v>
       </c>
       <c r="F277">
         <v>974100</v>
@@ -8168,16 +8168,16 @@
         <v>44725</v>
       </c>
       <c r="B278">
-        <v>19.62708971720881</v>
+        <v>19.62709171059176</v>
       </c>
       <c r="C278">
-        <v>19.70272281799706</v>
+        <v>19.70272481906152</v>
       </c>
       <c r="D278">
-        <v>18.51526524727078</v>
+        <v>18.51526712773367</v>
       </c>
       <c r="E278">
-        <v>18.77998542785645</v>
+        <v>18.77998733520508</v>
       </c>
       <c r="F278">
         <v>1022900</v>
@@ -8194,16 +8194,16 @@
         <v>44726</v>
       </c>
       <c r="B279">
-        <v>19.04470524223191</v>
+        <v>19.04470725678891</v>
       </c>
       <c r="C279">
-        <v>19.30186181927212</v>
+        <v>19.30186386103125</v>
       </c>
       <c r="D279">
-        <v>17.78917675085158</v>
+        <v>17.78917863259825</v>
       </c>
       <c r="E279">
-        <v>18.03120613098145</v>
+        <v>18.03120803833008</v>
       </c>
       <c r="F279">
         <v>2273200</v>
@@ -8298,16 +8298,16 @@
         <v>44733</v>
       </c>
       <c r="B283">
-        <v>18.65897001692562</v>
+        <v>18.65897188046189</v>
       </c>
       <c r="C283">
-        <v>19.37749598761571</v>
+        <v>19.37749792291367</v>
       </c>
       <c r="D283">
-        <v>18.33374250266818</v>
+        <v>18.33374433372285</v>
       </c>
       <c r="E283">
-        <v>19.09764862060547</v>
+        <v>19.0976505279541</v>
       </c>
       <c r="F283">
         <v>2019600</v>
@@ -8324,16 +8324,16 @@
         <v>44734</v>
       </c>
       <c r="B284">
-        <v>18.08415022457262</v>
+        <v>18.08415212003008</v>
       </c>
       <c r="C284">
-        <v>18.73460527810978</v>
+        <v>18.7346072417435</v>
       </c>
       <c r="D284">
-        <v>17.72110614741143</v>
+        <v>17.72110800481709</v>
       </c>
       <c r="E284">
-        <v>18.19760131835938</v>
+        <v>18.19760322570801</v>
       </c>
       <c r="F284">
         <v>2442400</v>
@@ -8350,16 +8350,16 @@
         <v>44735</v>
       </c>
       <c r="B285">
-        <v>18.23541786062868</v>
+        <v>18.23541984023167</v>
       </c>
       <c r="C285">
-        <v>18.60602550690621</v>
+        <v>18.60602752674168</v>
       </c>
       <c r="D285">
-        <v>17.33536989532108</v>
+        <v>17.33537177721654</v>
       </c>
       <c r="E285">
-        <v>17.5698356628418</v>
+        <v>17.56983757019043</v>
       </c>
       <c r="F285">
         <v>2267000</v>
@@ -8376,16 +8376,16 @@
         <v>44736</v>
       </c>
       <c r="B286">
-        <v>17.72110667523231</v>
+        <v>17.72110486668594</v>
       </c>
       <c r="C286">
-        <v>18.68922424316406</v>
+        <v>18.68922233581543</v>
       </c>
       <c r="D286">
-        <v>17.13115895031716</v>
+        <v>17.13115720197854</v>
       </c>
       <c r="E286">
-        <v>18.68922424316406</v>
+        <v>18.68922233581543</v>
       </c>
       <c r="F286">
         <v>2418500</v>
@@ -8402,16 +8402,16 @@
         <v>44739</v>
       </c>
       <c r="B287">
-        <v>18.71191565037574</v>
+        <v>18.71191372434289</v>
       </c>
       <c r="C287">
-        <v>19.05983399466358</v>
+        <v>19.05983203281922</v>
       </c>
       <c r="D287">
-        <v>18.06902415530723</v>
+        <v>18.06902229544773</v>
       </c>
       <c r="E287">
-        <v>18.53039360046387</v>
+        <v>18.53039169311523</v>
       </c>
       <c r="F287">
         <v>2135300</v>
@@ -8428,16 +8428,16 @@
         <v>44740</v>
       </c>
       <c r="B288">
-        <v>18.80267547085859</v>
+        <v>18.802677345777</v>
       </c>
       <c r="C288">
-        <v>19.21109968067707</v>
+        <v>19.21110159632171</v>
       </c>
       <c r="D288">
-        <v>18.65140639012056</v>
+        <v>18.6514082499551</v>
       </c>
       <c r="E288">
-        <v>19.12790298461914</v>
+        <v>19.12790489196777</v>
       </c>
       <c r="F288">
         <v>1302800</v>
@@ -8454,16 +8454,16 @@
         <v>44741</v>
       </c>
       <c r="B289">
-        <v>19.21109891458768</v>
+        <v>19.21110079091049</v>
       </c>
       <c r="C289">
-        <v>19.85399031817412</v>
+        <v>19.8539922572873</v>
       </c>
       <c r="D289">
-        <v>19.09008423186656</v>
+        <v>19.09008609637003</v>
       </c>
       <c r="E289">
-        <v>19.52876281738281</v>
+        <v>19.52876472473145</v>
       </c>
       <c r="F289">
         <v>1223500</v>
@@ -8480,16 +8480,16 @@
         <v>44742</v>
       </c>
       <c r="B290">
-        <v>19.24891605888262</v>
+        <v>19.24891984531205</v>
       </c>
       <c r="C290">
-        <v>19.56657994772145</v>
+        <v>19.56658379663813</v>
       </c>
       <c r="D290">
-        <v>18.8404904406861</v>
+        <v>18.84049414677465</v>
       </c>
       <c r="E290">
-        <v>19.39262008666992</v>
+        <v>19.39262390136719</v>
       </c>
       <c r="F290">
         <v>2602200</v>
@@ -8506,16 +8506,16 @@
         <v>44743</v>
       </c>
       <c r="B291">
-        <v>19.38505924934736</v>
+        <v>19.38506114412819</v>
       </c>
       <c r="C291">
-        <v>19.63465223736097</v>
+        <v>19.63465415653811</v>
       </c>
       <c r="D291">
-        <v>18.71947842884739</v>
+        <v>18.71948025857143</v>
       </c>
       <c r="E291">
-        <v>19.51363754272461</v>
+        <v>19.51363945007324</v>
       </c>
       <c r="F291">
         <v>1992300</v>
@@ -8558,16 +8558,16 @@
         <v>44747</v>
       </c>
       <c r="B293">
-        <v>20.08089475345854</v>
+        <v>20.08089675109578</v>
       </c>
       <c r="C293">
-        <v>20.14140210164647</v>
+        <v>20.14140410530295</v>
       </c>
       <c r="D293">
-        <v>18.30349085945985</v>
+        <v>18.30349268028185</v>
       </c>
       <c r="E293">
-        <v>19.17328453063965</v>
+        <v>19.17328643798828</v>
       </c>
       <c r="F293">
         <v>2124200</v>
@@ -8636,16 +8636,16 @@
         <v>44750</v>
       </c>
       <c r="B296">
-        <v>18.61359293328814</v>
+        <v>18.61359109395232</v>
       </c>
       <c r="C296">
-        <v>19.62709219181005</v>
+        <v>19.62709025232347</v>
       </c>
       <c r="D296">
-        <v>18.59846573417967</v>
+        <v>18.59846389633867</v>
       </c>
       <c r="E296">
-        <v>19.30186462402344</v>
+        <v>19.3018627166748</v>
       </c>
       <c r="F296">
         <v>1758400</v>
@@ -8688,16 +8688,16 @@
         <v>44754</v>
       </c>
       <c r="B298">
-        <v>17.69841517974863</v>
+        <v>17.69841321962758</v>
       </c>
       <c r="C298">
-        <v>17.7589225253546</v>
+        <v>17.75892055853229</v>
       </c>
       <c r="D298">
-        <v>16.61684511475913</v>
+        <v>16.61684327442327</v>
       </c>
       <c r="E298">
-        <v>17.22192001342773</v>
+        <v>17.2219181060791</v>
       </c>
       <c r="F298">
         <v>3223100</v>
@@ -8766,16 +8766,16 @@
         <v>44757</v>
       </c>
       <c r="B301">
-        <v>17.39587540406272</v>
+        <v>17.39588110133776</v>
       </c>
       <c r="C301">
-        <v>17.86480833231135</v>
+        <v>17.86481418316532</v>
       </c>
       <c r="D301">
-        <v>16.92694247581409</v>
+        <v>16.9269480195102</v>
       </c>
       <c r="E301">
-        <v>17.47150993347168</v>
+        <v>17.47151565551758</v>
       </c>
       <c r="F301">
         <v>1511900</v>
@@ -8792,16 +8792,16 @@
         <v>44760</v>
       </c>
       <c r="B302">
-        <v>17.33537185112947</v>
+        <v>17.33537551707749</v>
       </c>
       <c r="C302">
-        <v>18.53039306016209</v>
+        <v>18.53039697882379</v>
       </c>
       <c r="D302">
-        <v>17.33537185112947</v>
+        <v>17.33537551707749</v>
       </c>
       <c r="E302">
-        <v>18.03877067565918</v>
+        <v>18.03877449035645</v>
       </c>
       <c r="F302">
         <v>835500</v>
@@ -8896,16 +8896,16 @@
         <v>44764</v>
       </c>
       <c r="B306">
-        <v>18.21272740620807</v>
+        <v>18.21273131671938</v>
       </c>
       <c r="C306">
-        <v>18.21272740620807</v>
+        <v>18.21273131671938</v>
       </c>
       <c r="D306">
-        <v>17.39587756104591</v>
+        <v>17.39588129616886</v>
       </c>
       <c r="E306">
-        <v>17.7664852142334</v>
+        <v>17.76648902893066</v>
       </c>
       <c r="F306">
         <v>1582300</v>
@@ -8922,16 +8922,16 @@
         <v>44767</v>
       </c>
       <c r="B307">
-        <v>17.97069781441726</v>
+        <v>17.97070161153518</v>
       </c>
       <c r="C307">
-        <v>18.19759998537</v>
+        <v>18.19760383043121</v>
       </c>
       <c r="D307">
-        <v>17.69841405518692</v>
+        <v>17.69841779477265</v>
       </c>
       <c r="E307">
-        <v>18.05389595031738</v>
+        <v>18.05389976501465</v>
       </c>
       <c r="F307">
         <v>825000</v>
@@ -8948,16 +8948,16 @@
         <v>44768</v>
       </c>
       <c r="B308">
-        <v>18.06902340878391</v>
+        <v>18.06902146481818</v>
       </c>
       <c r="C308">
-        <v>18.49257628368816</v>
+        <v>18.49257429415427</v>
       </c>
       <c r="D308">
-        <v>17.57740103025789</v>
+        <v>17.57739913918362</v>
       </c>
       <c r="E308">
-        <v>17.72867012023926</v>
+        <v>17.72866821289062</v>
       </c>
       <c r="F308">
         <v>1356400</v>
@@ -8974,16 +8974,16 @@
         <v>44769</v>
       </c>
       <c r="B309">
-        <v>17.79674191770218</v>
+        <v>17.79674001601091</v>
       </c>
       <c r="C309">
-        <v>17.84968566894531</v>
+        <v>17.84968376159668</v>
       </c>
       <c r="D309">
-        <v>17.36562542341732</v>
+        <v>17.3656235677935</v>
       </c>
       <c r="E309">
-        <v>17.84968566894531</v>
+        <v>17.84968376159668</v>
       </c>
       <c r="F309">
         <v>1050000</v>
@@ -9000,16 +9000,16 @@
         <v>44770</v>
       </c>
       <c r="B310">
-        <v>17.84968399514916</v>
+        <v>17.84968212037082</v>
       </c>
       <c r="C310">
-        <v>18.23541885853256</v>
+        <v>18.23541694323993</v>
       </c>
       <c r="D310">
-        <v>17.53958367328172</v>
+        <v>17.53958183107366</v>
       </c>
       <c r="E310">
-        <v>18.1597843170166</v>
+        <v>18.15978240966797</v>
       </c>
       <c r="F310">
         <v>1448400</v>
@@ -9052,16 +9052,16 @@
         <v>44774</v>
       </c>
       <c r="B312">
-        <v>18.54551984203693</v>
+        <v>18.54551787202051</v>
       </c>
       <c r="C312">
-        <v>18.54551984203693</v>
+        <v>18.54551787202051</v>
       </c>
       <c r="D312">
-        <v>17.74379569301757</v>
+        <v>17.7437938081651</v>
       </c>
       <c r="E312">
-        <v>17.9555721282959</v>
+        <v>17.95557022094727</v>
       </c>
       <c r="F312">
         <v>1013500</v>
@@ -9104,16 +9104,16 @@
         <v>44776</v>
       </c>
       <c r="B314">
-        <v>18.40181721315083</v>
+        <v>18.40181531748935</v>
       </c>
       <c r="C314">
-        <v>18.95394701931774</v>
+        <v>18.95394506677866</v>
       </c>
       <c r="D314">
-        <v>18.11440763158464</v>
+        <v>18.11440576553064</v>
       </c>
       <c r="E314">
-        <v>18.51526832580566</v>
+        <v>18.51526641845703</v>
       </c>
       <c r="F314">
         <v>893100</v>
@@ -9182,16 +9182,16 @@
         <v>44781</v>
       </c>
       <c r="B317">
-        <v>18.16734950064012</v>
+        <v>18.16734763065992</v>
       </c>
       <c r="C317">
-        <v>19.02201599930131</v>
+        <v>19.02201404134958</v>
       </c>
       <c r="D317">
-        <v>17.90262930354027</v>
+        <v>17.90262746080793</v>
       </c>
       <c r="E317">
-        <v>18.53039360046387</v>
+        <v>18.53039169311523</v>
       </c>
       <c r="F317">
         <v>1510900</v>
@@ -9234,16 +9234,16 @@
         <v>44783</v>
       </c>
       <c r="B319">
-        <v>19.0447065864616</v>
+        <v>19.04470470673398</v>
       </c>
       <c r="C319">
-        <v>19.66490727747213</v>
+        <v>19.66490533653021</v>
       </c>
       <c r="D319">
-        <v>18.78754999127056</v>
+        <v>18.7875481369245</v>
       </c>
       <c r="E319">
-        <v>19.32455253601074</v>
+        <v>19.32455062866211</v>
       </c>
       <c r="F319">
         <v>1213700</v>
@@ -9260,16 +9260,16 @@
         <v>44784</v>
       </c>
       <c r="B320">
-        <v>19.6044021004952</v>
+        <v>19.6044001409836</v>
       </c>
       <c r="C320">
-        <v>19.81617856782761</v>
+        <v>19.81617658714839</v>
       </c>
       <c r="D320">
-        <v>18.76486127360187</v>
+        <v>18.76485939800459</v>
       </c>
       <c r="E320">
-        <v>19.0825252532959</v>
+        <v>19.08252334594727</v>
       </c>
       <c r="F320">
         <v>1856500</v>
@@ -9364,16 +9364,16 @@
         <v>44790</v>
       </c>
       <c r="B324">
-        <v>18.8329298878368</v>
+        <v>18.83293177247882</v>
       </c>
       <c r="C324">
-        <v>19.49851216377797</v>
+        <v>19.49851411502589</v>
       </c>
       <c r="D324">
-        <v>18.7951133360122</v>
+        <v>18.79511521686985</v>
       </c>
       <c r="E324">
-        <v>19.05983352661133</v>
+        <v>19.05983543395996</v>
       </c>
       <c r="F324">
         <v>1273000</v>
@@ -9390,16 +9390,16 @@
         <v>44791</v>
       </c>
       <c r="B325">
-        <v>19.15059106556932</v>
+        <v>19.15059299733199</v>
       </c>
       <c r="C325">
-        <v>19.62708762843511</v>
+        <v>19.62708960826305</v>
       </c>
       <c r="D325">
-        <v>18.83292717119504</v>
+        <v>18.83292907091425</v>
       </c>
       <c r="E325">
-        <v>18.90856170654297</v>
+        <v>18.9085636138916</v>
       </c>
       <c r="F325">
         <v>1169500</v>
@@ -9442,16 +9442,16 @@
         <v>44795</v>
       </c>
       <c r="B327">
-        <v>18.12953150527785</v>
+        <v>18.12952963919028</v>
       </c>
       <c r="C327">
-        <v>18.71947924944819</v>
+        <v>18.71947732263682</v>
       </c>
       <c r="D327">
-        <v>17.77405100452657</v>
+        <v>17.7740491750289</v>
       </c>
       <c r="E327">
-        <v>18.53039360046387</v>
+        <v>18.53039169311523</v>
       </c>
       <c r="F327">
         <v>2273700</v>
@@ -9520,16 +9520,16 @@
         <v>44798</v>
       </c>
       <c r="B330">
-        <v>19.21110256663301</v>
+        <v>19.21110070114761</v>
       </c>
       <c r="C330">
-        <v>19.91450144529668</v>
+        <v>19.91449951150805</v>
       </c>
       <c r="D330">
-        <v>19.173286012072</v>
+        <v>19.17328415025877</v>
       </c>
       <c r="E330">
-        <v>19.6422176361084</v>
+        <v>19.64221572875977</v>
       </c>
       <c r="F330">
         <v>1586500</v>
@@ -9546,16 +9546,16 @@
         <v>44799</v>
       </c>
       <c r="B331">
-        <v>19.65734261216053</v>
+        <v>19.65734074010647</v>
       </c>
       <c r="C331">
-        <v>20.23216312066443</v>
+        <v>20.23216119386773</v>
       </c>
       <c r="D331">
-        <v>19.5287643215398</v>
+        <v>19.52876246173081</v>
       </c>
       <c r="E331">
-        <v>20.02795028686523</v>
+        <v>20.0279483795166</v>
       </c>
       <c r="F331">
         <v>1440100</v>
@@ -9572,16 +9572,16 @@
         <v>44802</v>
       </c>
       <c r="B332">
-        <v>19.95988143666859</v>
+        <v>19.95987956478571</v>
       </c>
       <c r="C332">
-        <v>21.10952257430898</v>
+        <v>21.10952059461016</v>
       </c>
       <c r="D332">
-        <v>19.9145012830433</v>
+        <v>19.91449941541628</v>
       </c>
       <c r="E332">
-        <v>20.33805274963379</v>
+        <v>20.33805084228516</v>
       </c>
       <c r="F332">
         <v>2165000</v>
@@ -9624,16 +9624,16 @@
         <v>44804</v>
       </c>
       <c r="B334">
-        <v>19.74810342028347</v>
+        <v>19.74810524582866</v>
       </c>
       <c r="C334">
-        <v>20.71622091091922</v>
+        <v>20.71622282595868</v>
       </c>
       <c r="D334">
-        <v>19.53632699790248</v>
+        <v>19.53632880387073</v>
       </c>
       <c r="E334">
-        <v>20.63302421569824</v>
+        <v>20.63302612304688</v>
       </c>
       <c r="F334">
         <v>1589700</v>
@@ -9650,16 +9650,16 @@
         <v>44805</v>
       </c>
       <c r="B335">
-        <v>20.52713532638571</v>
+        <v>20.52713722812862</v>
       </c>
       <c r="C335">
-        <v>20.85992643579626</v>
+        <v>20.85992836837071</v>
       </c>
       <c r="D335">
-        <v>20.28510595321763</v>
+        <v>20.28510783253765</v>
       </c>
       <c r="E335">
-        <v>20.58764266967773</v>
+        <v>20.58764457702637</v>
       </c>
       <c r="F335">
         <v>2003200</v>
@@ -9702,16 +9702,16 @@
         <v>44809</v>
       </c>
       <c r="B337">
-        <v>21.36667864199925</v>
+        <v>21.36667678845266</v>
       </c>
       <c r="C337">
-        <v>22.73565835637027</v>
+        <v>22.7356563840655</v>
       </c>
       <c r="D337">
-        <v>21.26835473786369</v>
+        <v>21.26835289284664</v>
       </c>
       <c r="E337">
-        <v>21.98687934875488</v>
+        <v>21.98687744140625</v>
       </c>
       <c r="F337">
         <v>3621000</v>
@@ -9754,16 +9754,16 @@
         <v>44812</v>
       </c>
       <c r="B339">
-        <v>21.40449282992046</v>
+        <v>21.40449479132904</v>
       </c>
       <c r="C339">
-        <v>21.5103817641445</v>
+        <v>21.51038373525624</v>
       </c>
       <c r="D339">
-        <v>20.33048638925183</v>
+        <v>20.33048825224343</v>
       </c>
       <c r="E339">
-        <v>20.81454658508301</v>
+        <v>20.81454849243164</v>
       </c>
       <c r="F339">
         <v>1939300</v>
@@ -9780,16 +9780,16 @@
         <v>44813</v>
       </c>
       <c r="B340">
-        <v>21.25322769811921</v>
+        <v>21.25322579280464</v>
       </c>
       <c r="C340">
-        <v>21.66165195868075</v>
+        <v>21.66165001675166</v>
       </c>
       <c r="D340">
-        <v>20.98094389600549</v>
+        <v>20.98094201510068</v>
       </c>
       <c r="E340">
-        <v>21.27591705322266</v>
+        <v>21.27591514587402</v>
       </c>
       <c r="F340">
         <v>1889700</v>
@@ -9858,16 +9858,16 @@
         <v>44818</v>
       </c>
       <c r="B343">
-        <v>20.63302388661826</v>
+        <v>20.63302575291932</v>
       </c>
       <c r="C343">
-        <v>21.2532245048173</v>
+        <v>21.25322642721683</v>
       </c>
       <c r="D343">
-        <v>20.40612027141279</v>
+        <v>20.40612211718994</v>
       </c>
       <c r="E343">
-        <v>21.08682823181152</v>
+        <v>21.08683013916016</v>
       </c>
       <c r="F343">
         <v>2283300</v>
@@ -9884,16 +9884,16 @@
         <v>44819</v>
       </c>
       <c r="B344">
-        <v>20.85236574376413</v>
+        <v>20.85236381118041</v>
       </c>
       <c r="C344">
-        <v>21.11708594853925</v>
+        <v>21.11708399142143</v>
       </c>
       <c r="D344">
-        <v>20.50444883199786</v>
+        <v>20.50444693165885</v>
       </c>
       <c r="E344">
-        <v>20.58008193969727</v>
+        <v>20.58008003234863</v>
       </c>
       <c r="F344">
         <v>2074400</v>
@@ -9910,16 +9910,16 @@
         <v>44820</v>
       </c>
       <c r="B345">
-        <v>20.53470014058891</v>
+        <v>20.53470207428993</v>
       </c>
       <c r="C345">
-        <v>20.56495453533087</v>
+        <v>20.56495647188087</v>
       </c>
       <c r="D345">
-        <v>19.84642852890773</v>
+        <v>19.84643039779594</v>
       </c>
       <c r="E345">
-        <v>20.25485420227051</v>
+        <v>20.25485610961914</v>
       </c>
       <c r="F345">
         <v>6216300</v>
@@ -9936,16 +9936,16 @@
         <v>44823</v>
       </c>
       <c r="B346">
-        <v>20.06576952997639</v>
+        <v>20.06576768856586</v>
       </c>
       <c r="C346">
-        <v>20.92043602609989</v>
+        <v>20.92043410625769</v>
       </c>
       <c r="D346">
-        <v>20.06576952997639</v>
+        <v>20.06576768856586</v>
       </c>
       <c r="E346">
-        <v>20.78429412841797</v>
+        <v>20.78429222106934</v>
       </c>
       <c r="F346">
         <v>2752500</v>
@@ -9962,16 +9962,16 @@
         <v>44824</v>
       </c>
       <c r="B347">
-        <v>20.85236129947408</v>
+        <v>20.85236322076014</v>
       </c>
       <c r="C347">
-        <v>21.04901051132038</v>
+        <v>21.04901245072523</v>
       </c>
       <c r="D347">
-        <v>20.44393712303079</v>
+        <v>20.44393900668564</v>
       </c>
       <c r="E347">
-        <v>20.70109367370605</v>
+        <v>20.70109558105469</v>
       </c>
       <c r="F347">
         <v>1480900</v>
@@ -9988,16 +9988,16 @@
         <v>44825</v>
       </c>
       <c r="B348">
-        <v>20.70866067891821</v>
+        <v>20.70865694067891</v>
       </c>
       <c r="C348">
-        <v>21.46500331272632</v>
+        <v>21.46499943795527</v>
       </c>
       <c r="D348">
-        <v>20.70866067891821</v>
+        <v>20.70865694067891</v>
       </c>
       <c r="E348">
-        <v>21.1322135925293</v>
+        <v>21.13220977783203</v>
       </c>
       <c r="F348">
         <v>1701900</v>
@@ -10014,16 +10014,16 @@
         <v>44826</v>
       </c>
       <c r="B349">
-        <v>21.3364220236488</v>
+        <v>21.33642393846384</v>
       </c>
       <c r="C349">
-        <v>21.3969308107968</v>
+        <v>21.39693273104213</v>
       </c>
       <c r="D349">
-        <v>20.75403937343823</v>
+        <v>20.75404123598794</v>
       </c>
       <c r="E349">
-        <v>21.25322532653809</v>
+        <v>21.25322723388672</v>
       </c>
       <c r="F349">
         <v>1550500</v>
@@ -10066,16 +10066,16 @@
         <v>44830</v>
       </c>
       <c r="B351">
-        <v>19.63465296232191</v>
+        <v>19.63465095686352</v>
       </c>
       <c r="C351">
-        <v>19.71785110893465</v>
+        <v>19.7178490949785</v>
       </c>
       <c r="D351">
-        <v>18.50770267528038</v>
+        <v>18.50770078492726</v>
       </c>
       <c r="E351">
-        <v>18.67409896850586</v>
+        <v>18.67409706115723</v>
       </c>
       <c r="F351">
         <v>3398700</v>
@@ -10144,16 +10144,16 @@
         <v>44833</v>
       </c>
       <c r="B354">
-        <v>18.7119140476576</v>
+        <v>18.71191785927346</v>
       </c>
       <c r="C354">
-        <v>18.83292873723367</v>
+        <v>18.83293257350021</v>
       </c>
       <c r="D354">
-        <v>18.22785528935335</v>
+        <v>18.22785900236647</v>
       </c>
       <c r="E354">
-        <v>18.72704124450684</v>
+        <v>18.7270450592041</v>
       </c>
       <c r="F354">
         <v>2490300</v>
@@ -10170,16 +10170,16 @@
         <v>44834</v>
       </c>
       <c r="B355">
-        <v>18.72704295686183</v>
+        <v>18.72704107234653</v>
       </c>
       <c r="C355">
-        <v>19.12790505436694</v>
+        <v>19.12790312951261</v>
       </c>
       <c r="D355">
-        <v>18.55308450501602</v>
+        <v>18.55308263800627</v>
       </c>
       <c r="E355">
-        <v>18.95394515991211</v>
+        <v>18.95394325256348</v>
       </c>
       <c r="F355">
         <v>1754700</v>
@@ -10222,16 +10222,16 @@
         <v>44838</v>
       </c>
       <c r="B357">
-        <v>20.23216324039549</v>
+        <v>20.23216140706542</v>
       </c>
       <c r="C357">
-        <v>21.17002783057552</v>
+        <v>21.17002591226118</v>
       </c>
       <c r="D357">
-        <v>20.23216324039549</v>
+        <v>20.23216140706542</v>
       </c>
       <c r="E357">
-        <v>21.04901313781738</v>
+        <v>21.04901123046875</v>
       </c>
       <c r="F357">
         <v>3051600</v>
@@ -10248,16 +10248,16 @@
         <v>44839</v>
       </c>
       <c r="B358">
-        <v>21.07170428164367</v>
+        <v>21.07170243654869</v>
       </c>
       <c r="C358">
-        <v>22.06251263594042</v>
+        <v>22.0625107040876</v>
       </c>
       <c r="D358">
-        <v>21.04901348539848</v>
+        <v>21.04901164229036</v>
       </c>
       <c r="E358">
-        <v>21.78266525268555</v>
+        <v>21.78266334533691</v>
       </c>
       <c r="F358">
         <v>2485100</v>
@@ -10300,16 +10300,16 @@
         <v>44841</v>
       </c>
       <c r="B360">
-        <v>21.91880468861996</v>
+        <v>21.91880660124845</v>
       </c>
       <c r="C360">
-        <v>22.5011887435014</v>
+        <v>22.50119070694855</v>
       </c>
       <c r="D360">
-        <v>21.60114078983089</v>
+        <v>21.60114267474011</v>
       </c>
       <c r="E360">
-        <v>21.85829734802246</v>
+        <v>21.85829925537109</v>
       </c>
       <c r="F360">
         <v>1698800</v>
@@ -10326,16 +10326,16 @@
         <v>44844</v>
       </c>
       <c r="B361">
-        <v>21.90367994744199</v>
+        <v>21.90367802949699</v>
       </c>
       <c r="C361">
-        <v>22.10032918707345</v>
+        <v>22.10032725190932</v>
       </c>
       <c r="D361">
-        <v>21.33642302479279</v>
+        <v>21.33642115651833</v>
       </c>
       <c r="E361">
-        <v>21.78266525268555</v>
+        <v>21.78266334533691</v>
       </c>
       <c r="F361">
         <v>1505400</v>
@@ -10352,16 +10352,16 @@
         <v>44845</v>
       </c>
       <c r="B362">
-        <v>21.71459405332893</v>
+        <v>21.71459597946249</v>
       </c>
       <c r="C362">
-        <v>21.7524120466299</v>
+        <v>21.75241397611799</v>
       </c>
       <c r="D362">
-        <v>20.8750547985727</v>
+        <v>20.87505665023723</v>
       </c>
       <c r="E362">
-        <v>21.5028190612793</v>
+        <v>21.50282096862793</v>
       </c>
       <c r="F362">
         <v>2166100</v>
@@ -10378,16 +10378,16 @@
         <v>44847</v>
       </c>
       <c r="B363">
-        <v>21.21540676215862</v>
+        <v>21.21540860068531</v>
       </c>
       <c r="C363">
-        <v>22.29697677889614</v>
+        <v>22.29697871115168</v>
       </c>
       <c r="D363">
-        <v>21.13221006729263</v>
+        <v>21.1322118986095</v>
       </c>
       <c r="E363">
-        <v>22.00956726074219</v>
+        <v>22.00956916809082</v>
       </c>
       <c r="F363">
         <v>2076000</v>
@@ -10430,16 +10430,16 @@
         <v>44851</v>
       </c>
       <c r="B365">
-        <v>21.87342652870659</v>
+        <v>21.87343026333901</v>
       </c>
       <c r="C365">
-        <v>22.80372751579071</v>
+        <v>22.80373140926118</v>
       </c>
       <c r="D365">
-        <v>21.81291918261841</v>
+        <v>21.81292290691991</v>
       </c>
       <c r="E365">
-        <v>22.34235954284668</v>
+        <v>22.34236335754395</v>
       </c>
       <c r="F365">
         <v>1415700</v>
@@ -10560,16 +10560,16 @@
         <v>44858</v>
       </c>
       <c r="B370">
-        <v>22.98525187610865</v>
+        <v>22.98524814969768</v>
       </c>
       <c r="C370">
-        <v>23.71134154512795</v>
+        <v>23.71133770100199</v>
       </c>
       <c r="D370">
-        <v>22.8415478162623</v>
+        <v>22.84154411314889</v>
       </c>
       <c r="E370">
-        <v>23.52981948852539</v>
+        <v>23.52981567382812</v>
       </c>
       <c r="F370">
         <v>1612300</v>
@@ -10586,16 +10586,16 @@
         <v>44859</v>
       </c>
       <c r="B371">
-        <v>23.2650956892147</v>
+        <v>23.26509759470488</v>
       </c>
       <c r="C371">
-        <v>24.13488928377216</v>
+        <v>24.13489126050138</v>
       </c>
       <c r="D371">
-        <v>23.0533192679084</v>
+        <v>23.05332115605337</v>
       </c>
       <c r="E371">
-        <v>23.28778648376465</v>
+        <v>23.28778839111328</v>
       </c>
       <c r="F371">
         <v>1634700</v>
@@ -10612,16 +10612,16 @@
         <v>44860</v>
       </c>
       <c r="B372">
-        <v>23.00037873274449</v>
+        <v>23.00037681403882</v>
       </c>
       <c r="C372">
-        <v>23.67352319629396</v>
+        <v>23.67352122143416</v>
       </c>
       <c r="D372">
-        <v>22.63733462493865</v>
+        <v>22.63733273651834</v>
       </c>
       <c r="E372">
-        <v>22.86423683166504</v>
+        <v>22.86423492431641</v>
       </c>
       <c r="F372">
         <v>2114500</v>
@@ -10638,16 +10638,16 @@
         <v>44861</v>
       </c>
       <c r="B373">
-        <v>22.9928125716857</v>
+        <v>22.99281447278071</v>
       </c>
       <c r="C373">
-        <v>23.83991683812547</v>
+        <v>23.83991880926087</v>
       </c>
       <c r="D373">
-        <v>22.76591039024037</v>
+        <v>22.76591227257461</v>
       </c>
       <c r="E373">
-        <v>23.06844711303711</v>
+        <v>23.06844902038574</v>
       </c>
       <c r="F373">
         <v>1847700</v>
@@ -10716,16 +10716,16 @@
         <v>44866</v>
       </c>
       <c r="B376">
-        <v>24.27859479107079</v>
+        <v>24.2785928535427</v>
       </c>
       <c r="C376">
-        <v>24.57357081024917</v>
+        <v>24.57356884918083</v>
       </c>
       <c r="D376">
-        <v>23.41636474250377</v>
+        <v>23.41636287378507</v>
       </c>
       <c r="E376">
-        <v>23.90042495727539</v>
+        <v>23.90042304992676</v>
       </c>
       <c r="F376">
         <v>2515700</v>
@@ -10742,16 +10742,16 @@
         <v>44868</v>
       </c>
       <c r="B377">
-        <v>23.99874701299528</v>
+        <v>23.99874883644132</v>
       </c>
       <c r="C377">
-        <v>25.37529012266898</v>
+        <v>25.37529205070598</v>
       </c>
       <c r="D377">
-        <v>23.52225187603471</v>
+        <v>23.52225366327621</v>
       </c>
       <c r="E377">
-        <v>25.10300636291504</v>
+        <v>25.10300827026367</v>
       </c>
       <c r="F377">
         <v>3826700</v>
@@ -10768,16 +10768,16 @@
         <v>44869</v>
       </c>
       <c r="B378">
-        <v>27.58381293137869</v>
+        <v>27.58381100501465</v>
       </c>
       <c r="C378">
-        <v>27.72751697308254</v>
+        <v>27.72751503668268</v>
       </c>
       <c r="D378">
-        <v>26.12407162088893</v>
+        <v>26.12406979646848</v>
       </c>
       <c r="E378">
-        <v>27.3115291595459</v>
+        <v>27.31152725219727</v>
       </c>
       <c r="F378">
         <v>5450300</v>
@@ -10872,16 +10872,16 @@
         <v>44875</v>
       </c>
       <c r="B382">
-        <v>25.70808503360554</v>
+        <v>25.70808308673512</v>
       </c>
       <c r="C382">
-        <v>25.70808503360554</v>
+        <v>25.70808308673512</v>
       </c>
       <c r="D382">
-        <v>24.62651493568964</v>
+        <v>24.62651307072641</v>
       </c>
       <c r="E382">
-        <v>25.18620681762695</v>
+        <v>25.18620491027832</v>
       </c>
       <c r="F382">
         <v>2761000</v>
@@ -10950,16 +10950,16 @@
         <v>44881</v>
       </c>
       <c r="B385">
-        <v>25.05763262681399</v>
+        <v>25.05762862107936</v>
       </c>
       <c r="C385">
-        <v>25.17864733455746</v>
+        <v>25.17864330947732</v>
       </c>
       <c r="D385">
-        <v>23.34073447711594</v>
+        <v>23.34073074584612</v>
       </c>
       <c r="E385">
-        <v>23.86260986328125</v>
+        <v>23.86260604858398</v>
       </c>
       <c r="F385">
         <v>2371700</v>
@@ -10976,16 +10976,16 @@
         <v>44882</v>
       </c>
       <c r="B386">
-        <v>23.18946160038125</v>
+        <v>23.18946349659748</v>
       </c>
       <c r="C386">
-        <v>23.52225271386646</v>
+        <v>23.52225463729521</v>
       </c>
       <c r="D386">
-        <v>22.47849922603842</v>
+        <v>22.47850106411883</v>
       </c>
       <c r="E386">
-        <v>23.32560348510742</v>
+        <v>23.32560539245605</v>
       </c>
       <c r="F386">
         <v>3497700</v>
@@ -11002,16 +11002,16 @@
         <v>44883</v>
       </c>
       <c r="B387">
-        <v>23.68864852314975</v>
+        <v>23.68864663270172</v>
       </c>
       <c r="C387">
-        <v>24.24077824047393</v>
+        <v>24.24077630596375</v>
       </c>
       <c r="D387">
-        <v>23.34829523995121</v>
+        <v>23.34829337666472</v>
       </c>
       <c r="E387">
-        <v>23.90042495727539</v>
+        <v>23.90042304992676</v>
       </c>
       <c r="F387">
         <v>2871400</v>
@@ -11106,16 +11106,16 @@
         <v>44889</v>
       </c>
       <c r="B391">
-        <v>22.45581112006732</v>
+        <v>22.45581303645255</v>
       </c>
       <c r="C391">
-        <v>22.62220596474124</v>
+        <v>22.62220789532665</v>
       </c>
       <c r="D391">
-        <v>21.98687809582781</v>
+        <v>21.98687997219416</v>
       </c>
       <c r="E391">
-        <v>22.34992218017578</v>
+        <v>22.34992408752441</v>
       </c>
       <c r="F391">
         <v>2116300</v>
@@ -11158,16 +11158,16 @@
         <v>44893</v>
       </c>
       <c r="B393">
-        <v>21.35911232408521</v>
+        <v>21.35911418465597</v>
       </c>
       <c r="C393">
-        <v>22.14570922748244</v>
+        <v>22.14571115657286</v>
       </c>
       <c r="D393">
-        <v>21.23053403959177</v>
+        <v>21.23053588896221</v>
       </c>
       <c r="E393">
-        <v>21.89611625671387</v>
+        <v>21.8961181640625</v>
       </c>
       <c r="F393">
         <v>1216600</v>
@@ -11184,16 +11184,16 @@
         <v>44894</v>
       </c>
       <c r="B394">
-        <v>22.12302047185132</v>
+        <v>22.12301862816503</v>
       </c>
       <c r="C394">
-        <v>23.35585824288517</v>
+        <v>23.35585629645676</v>
       </c>
       <c r="D394">
-        <v>22.09276607618964</v>
+        <v>22.09276423502469</v>
       </c>
       <c r="E394">
-        <v>22.88692665100098</v>
+        <v>22.88692474365234</v>
       </c>
       <c r="F394">
         <v>1596600</v>
@@ -11236,16 +11236,16 @@
         <v>44896</v>
       </c>
       <c r="B396">
-        <v>23.24240611056849</v>
+        <v>23.24240422893693</v>
       </c>
       <c r="C396">
-        <v>24.05169240460529</v>
+        <v>24.05169045745647</v>
       </c>
       <c r="D396">
-        <v>22.90205283016712</v>
+        <v>22.90205097608947</v>
       </c>
       <c r="E396">
-        <v>23.5600700378418</v>
+        <v>23.56006813049316</v>
       </c>
       <c r="F396">
         <v>1545400</v>
@@ -11262,16 +11262,16 @@
         <v>44897</v>
       </c>
       <c r="B397">
-        <v>23.42502617237487</v>
+        <v>23.42502422591753</v>
       </c>
       <c r="C397">
-        <v>23.8262442029475</v>
+        <v>23.82624222315173</v>
       </c>
       <c r="D397">
-        <v>22.90807067148046</v>
+        <v>22.90806876797854</v>
       </c>
       <c r="E397">
-        <v>22.95436477661133</v>
+        <v>22.9543628692627</v>
       </c>
       <c r="F397">
         <v>2423300</v>
@@ -11288,16 +11288,16 @@
         <v>44900</v>
       </c>
       <c r="B398">
-        <v>23.00065511543089</v>
+        <v>23.00065700754613</v>
       </c>
       <c r="C398">
-        <v>23.81080991670672</v>
+        <v>23.81081187546817</v>
       </c>
       <c r="D398">
-        <v>22.76146722781436</v>
+        <v>22.76146910025317</v>
       </c>
       <c r="E398">
-        <v>23.18583297729492</v>
+        <v>23.18583488464355</v>
       </c>
       <c r="F398">
         <v>2561100</v>
@@ -11340,16 +11340,16 @@
         <v>44902</v>
       </c>
       <c r="B400">
-        <v>22.01304104284557</v>
+        <v>22.0130391076871</v>
       </c>
       <c r="C400">
-        <v>22.52999648705178</v>
+        <v>22.52999450644794</v>
       </c>
       <c r="D400">
-        <v>21.43435964134591</v>
+        <v>21.43435775705912</v>
       </c>
       <c r="E400">
-        <v>21.69669532775879</v>
+        <v>21.69669342041016</v>
       </c>
       <c r="F400">
         <v>2613300</v>
@@ -11366,16 +11366,16 @@
         <v>44903</v>
       </c>
       <c r="B401">
-        <v>21.69669656500441</v>
+        <v>21.69669463916439</v>
       </c>
       <c r="C401">
-        <v>22.18278832245163</v>
+        <v>22.18278635346519</v>
       </c>
       <c r="D401">
-        <v>21.31090894200525</v>
+        <v>21.31090705040847</v>
       </c>
       <c r="E401">
-        <v>21.48837089538574</v>
+        <v>21.48836898803711</v>
       </c>
       <c r="F401">
         <v>1656100</v>
@@ -11444,16 +11444,16 @@
         <v>44908</v>
       </c>
       <c r="B404">
-        <v>21.91273654874552</v>
+        <v>21.9127346467546</v>
       </c>
       <c r="C404">
-        <v>22.42197609004176</v>
+        <v>22.42197414384965</v>
       </c>
       <c r="D404">
-        <v>21.71212680949806</v>
+        <v>21.71212492491975</v>
       </c>
       <c r="E404">
-        <v>21.97446250915527</v>
+        <v>21.97446060180664</v>
       </c>
       <c r="F404">
         <v>1227500</v>
@@ -11470,16 +11470,16 @@
         <v>44909</v>
       </c>
       <c r="B405">
-        <v>21.68126369092864</v>
+        <v>21.68126182150077</v>
       </c>
       <c r="C405">
-        <v>22.18278728299419</v>
+        <v>22.18278537032334</v>
       </c>
       <c r="D405">
-        <v>21.34948611522996</v>
+        <v>21.34948427440901</v>
       </c>
       <c r="E405">
-        <v>22.12106132507324</v>
+        <v>22.12105941772461</v>
       </c>
       <c r="F405">
         <v>2069400</v>
@@ -11548,16 +11548,16 @@
         <v>44914</v>
       </c>
       <c r="B408">
-        <v>21.83557481788243</v>
+        <v>21.83557678286118</v>
       </c>
       <c r="C408">
-        <v>22.11334232578825</v>
+        <v>22.11334431576324</v>
       </c>
       <c r="D408">
-        <v>21.06399971517757</v>
+        <v>21.06400161072244</v>
       </c>
       <c r="E408">
-        <v>21.19516754150391</v>
+        <v>21.19516944885254</v>
       </c>
       <c r="F408">
         <v>1304200</v>
@@ -11626,16 +11626,16 @@
         <v>44917</v>
       </c>
       <c r="B411">
-        <v>22.99293867700765</v>
+        <v>22.99294064035779</v>
       </c>
       <c r="C411">
-        <v>23.23212803097931</v>
+        <v>23.23213001475365</v>
       </c>
       <c r="D411">
-        <v>22.12877534081823</v>
+        <v>22.12877723037809</v>
       </c>
       <c r="E411">
-        <v>22.33710098266602</v>
+        <v>22.33710289001465</v>
       </c>
       <c r="F411">
         <v>1441800</v>
@@ -11652,16 +11652,16 @@
         <v>44918</v>
       </c>
       <c r="B412">
-        <v>22.63029938229229</v>
+        <v>22.63030122675438</v>
       </c>
       <c r="C412">
-        <v>23.56390609108925</v>
+        <v>23.56390801164411</v>
       </c>
       <c r="D412">
-        <v>22.52227933083222</v>
+        <v>22.52228116649024</v>
       </c>
       <c r="E412">
-        <v>23.40187454223633</v>
+        <v>23.40187644958496</v>
       </c>
       <c r="F412">
         <v>2123800</v>
@@ -11678,16 +11678,16 @@
         <v>44921</v>
       </c>
       <c r="B413">
-        <v>23.378730735859</v>
+        <v>23.37872697454023</v>
       </c>
       <c r="C413">
-        <v>24.21974792104193</v>
+        <v>24.21974402441497</v>
       </c>
       <c r="D413">
-        <v>23.36330034849817</v>
+        <v>23.36329658966194</v>
       </c>
       <c r="E413">
-        <v>23.71050834655762</v>
+        <v>23.71050453186035</v>
       </c>
       <c r="F413">
         <v>1067000</v>
@@ -11756,16 +11756,16 @@
         <v>44924</v>
       </c>
       <c r="B416">
-        <v>25.60086454704564</v>
+        <v>25.60086645727281</v>
       </c>
       <c r="C416">
-        <v>25.87091468101893</v>
+        <v>25.87091661139609</v>
       </c>
       <c r="D416">
-        <v>24.99903685229045</v>
+        <v>24.99903871761181</v>
       </c>
       <c r="E416">
-        <v>25.56228637695312</v>
+        <v>25.56228828430176</v>
       </c>
       <c r="F416">
         <v>4563700</v>
@@ -11834,16 +11834,16 @@
         <v>44930</v>
       </c>
       <c r="B419">
-        <v>23.86482339722365</v>
+        <v>23.86482150152017</v>
       </c>
       <c r="C419">
-        <v>24.58238863561358</v>
+        <v>24.58238668291027</v>
       </c>
       <c r="D419">
-        <v>23.18583633376656</v>
+        <v>23.18583449199845</v>
       </c>
       <c r="E419">
-        <v>24.01142311096191</v>
+        <v>24.01142120361328</v>
       </c>
       <c r="F419">
         <v>2418100</v>
@@ -11886,16 +11886,16 @@
         <v>44932</v>
       </c>
       <c r="B421">
-        <v>24.01141855896491</v>
+        <v>24.01142043555968</v>
       </c>
       <c r="C421">
-        <v>24.59009990323145</v>
+        <v>24.59010182505264</v>
       </c>
       <c r="D421">
-        <v>23.81852477754272</v>
+        <v>23.81852663906202</v>
       </c>
       <c r="E421">
-        <v>24.40492057800293</v>
+        <v>24.40492248535156</v>
       </c>
       <c r="F421">
         <v>1500900</v>
@@ -11912,16 +11912,16 @@
         <v>44935</v>
       </c>
       <c r="B422">
-        <v>24.59781838884451</v>
+        <v>24.59781649042818</v>
       </c>
       <c r="C422">
-        <v>24.9218800535855</v>
+        <v>24.92187813015866</v>
       </c>
       <c r="D422">
-        <v>24.08857884020339</v>
+        <v>24.08857698108926</v>
       </c>
       <c r="E422">
-        <v>24.71355438232422</v>
+        <v>24.71355247497559</v>
       </c>
       <c r="F422">
         <v>2144100</v>
@@ -11938,16 +11938,16 @@
         <v>44936</v>
       </c>
       <c r="B423">
-        <v>24.91416463554578</v>
+        <v>24.91416654822552</v>
       </c>
       <c r="C423">
-        <v>24.99132098044877</v>
+        <v>24.99132289905187</v>
       </c>
       <c r="D423">
-        <v>24.1888835144867</v>
+        <v>24.18888537148605</v>
       </c>
       <c r="E423">
-        <v>24.84472274780273</v>
+        <v>24.84472465515137</v>
       </c>
       <c r="F423">
         <v>1336800</v>
@@ -11964,16 +11964,16 @@
         <v>44937</v>
       </c>
       <c r="B424">
-        <v>25.03761663672118</v>
+        <v>25.03761854878378</v>
       </c>
       <c r="C424">
-        <v>25.43111870635758</v>
+        <v>25.43112064847099</v>
       </c>
       <c r="D424">
-        <v>24.72898536943019</v>
+        <v>24.72898725792336</v>
       </c>
       <c r="E424">
-        <v>24.97588920593262</v>
+        <v>24.97589111328125</v>
       </c>
       <c r="F424">
         <v>2706500</v>
@@ -11990,16 +11990,16 @@
         <v>44938</v>
       </c>
       <c r="B425">
-        <v>24.86786798201187</v>
+        <v>24.86786982420089</v>
       </c>
       <c r="C425">
-        <v>26.24127087622195</v>
+        <v>26.2412728201514</v>
       </c>
       <c r="D425">
-        <v>24.78299424031111</v>
+        <v>24.78299607621276</v>
       </c>
       <c r="E425">
-        <v>25.74746322631836</v>
+        <v>25.74746513366699</v>
       </c>
       <c r="F425">
         <v>2636000</v>
@@ -12016,16 +12016,16 @@
         <v>44939</v>
       </c>
       <c r="B426">
-        <v>25.47741331516274</v>
+        <v>25.47741140492159</v>
       </c>
       <c r="C426">
-        <v>25.74746345632689</v>
+        <v>25.74746152583797</v>
       </c>
       <c r="D426">
-        <v>25.1147720313202</v>
+        <v>25.11477014826911</v>
       </c>
       <c r="E426">
-        <v>25.43883514404297</v>
+        <v>25.43883323669434</v>
       </c>
       <c r="F426">
         <v>1747100</v>
@@ -12094,16 +12094,16 @@
         <v>44944</v>
       </c>
       <c r="B429">
-        <v>26.11010656304554</v>
+        <v>26.11010465061064</v>
       </c>
       <c r="C429">
-        <v>26.76594434784622</v>
+        <v>26.76594238737447</v>
       </c>
       <c r="D429">
-        <v>25.98665464084802</v>
+        <v>25.98665273745536</v>
       </c>
       <c r="E429">
-        <v>26.04066467285156</v>
+        <v>26.04066276550293</v>
       </c>
       <c r="F429">
         <v>1324100</v>
@@ -12120,16 +12120,16 @@
         <v>44945</v>
       </c>
       <c r="B430">
-        <v>25.75518023319337</v>
+        <v>25.75518211350342</v>
       </c>
       <c r="C430">
-        <v>26.34157607266832</v>
+        <v>26.34157799578941</v>
       </c>
       <c r="D430">
-        <v>25.64716017934212</v>
+        <v>25.64716205176595</v>
       </c>
       <c r="E430">
-        <v>26.12553596496582</v>
+        <v>26.12553787231445</v>
       </c>
       <c r="F430">
         <v>809800</v>
@@ -12198,16 +12198,16 @@
         <v>44950</v>
       </c>
       <c r="B433">
-        <v>25.72431795003437</v>
+        <v>25.72431606362068</v>
       </c>
       <c r="C433">
-        <v>26.38787311010206</v>
+        <v>26.38787117502859</v>
       </c>
       <c r="D433">
-        <v>24.84472267025195</v>
+        <v>24.84472084834067</v>
       </c>
       <c r="E433">
-        <v>26.00979995727539</v>
+        <v>26.00979804992676</v>
       </c>
       <c r="F433">
         <v>2868300</v>
@@ -12250,16 +12250,16 @@
         <v>44952</v>
       </c>
       <c r="B435">
-        <v>26.07924035507677</v>
+        <v>26.07924225176342</v>
       </c>
       <c r="C435">
-        <v>26.63477542355325</v>
+        <v>26.63477736064277</v>
       </c>
       <c r="D435">
-        <v>25.83233653427072</v>
+        <v>25.83233841300058</v>
       </c>
       <c r="E435">
-        <v>26.2258415222168</v>
+        <v>26.22584342956543</v>
       </c>
       <c r="F435">
         <v>1120300</v>
@@ -12328,16 +12328,16 @@
         <v>44957</v>
       </c>
       <c r="B438">
-        <v>24.8447217174435</v>
+        <v>24.84471977264845</v>
       </c>
       <c r="C438">
-        <v>25.11477185673035</v>
+        <v>25.11476989079632</v>
       </c>
       <c r="D438">
-        <v>24.25060846768666</v>
+        <v>24.25060656939761</v>
       </c>
       <c r="E438">
-        <v>24.3663444519043</v>
+        <v>24.36634254455566</v>
       </c>
       <c r="F438">
         <v>1856200</v>
@@ -12380,16 +12380,16 @@
         <v>44959</v>
       </c>
       <c r="B440">
-        <v>23.67192877531214</v>
+        <v>23.6719267581644</v>
       </c>
       <c r="C440">
-        <v>23.79538069690033</v>
+        <v>23.79537866923292</v>
       </c>
       <c r="D440">
-        <v>22.26766206349922</v>
+        <v>22.26766016601276</v>
       </c>
       <c r="E440">
-        <v>22.38339805603027</v>
+        <v>22.38339614868164</v>
       </c>
       <c r="F440">
         <v>4018000</v>
@@ -12484,16 +12484,16 @@
         <v>44965</v>
       </c>
       <c r="B444">
-        <v>23.04695061929615</v>
+        <v>23.04695441366871</v>
       </c>
       <c r="C444">
-        <v>23.20126476791389</v>
+        <v>23.20126858769221</v>
       </c>
       <c r="D444">
-        <v>22.49913149179671</v>
+        <v>22.49913519597816</v>
       </c>
       <c r="E444">
-        <v>23.17040252685547</v>
+        <v>23.17040634155273</v>
       </c>
       <c r="F444">
         <v>2729500</v>
@@ -12614,16 +12614,16 @@
         <v>44972</v>
       </c>
       <c r="B449">
-        <v>22.60715542856522</v>
+        <v>22.6071517555246</v>
       </c>
       <c r="C449">
-        <v>23.70279240021219</v>
+        <v>23.70278854916072</v>
       </c>
       <c r="D449">
-        <v>22.49141942929426</v>
+        <v>22.49141577505756</v>
       </c>
       <c r="E449">
-        <v>23.47903633117676</v>
+        <v>23.47903251647949</v>
       </c>
       <c r="F449">
         <v>2064100</v>
@@ -12744,16 +12744,16 @@
         <v>44981</v>
       </c>
       <c r="B454">
-        <v>23.30157042866492</v>
+        <v>23.30157234553452</v>
       </c>
       <c r="C454">
-        <v>23.72593617814548</v>
+        <v>23.72593812992491</v>
       </c>
       <c r="D454">
-        <v>22.90806692033028</v>
+        <v>22.9080688048289</v>
       </c>
       <c r="E454">
-        <v>23.18583297729492</v>
+        <v>23.18583488464355</v>
       </c>
       <c r="F454">
         <v>1616900</v>
@@ -12900,16 +12900,16 @@
         <v>44991</v>
       </c>
       <c r="B460">
-        <v>22.10562857789372</v>
+        <v>22.10562665578549</v>
       </c>
       <c r="C460">
-        <v>22.29080644420288</v>
+        <v>22.29080450599324</v>
       </c>
       <c r="D460">
-        <v>21.44978938159283</v>
+        <v>21.44978751651053</v>
       </c>
       <c r="E460">
-        <v>21.93588256835938</v>
+        <v>21.93588066101074</v>
       </c>
       <c r="F460">
         <v>2438000</v>
@@ -13030,16 +13030,16 @@
         <v>44998</v>
       </c>
       <c r="B465">
-        <v>21.28776012481586</v>
+        <v>21.28775818154595</v>
       </c>
       <c r="C465">
-        <v>21.58867398526329</v>
+        <v>21.58867201452423</v>
       </c>
       <c r="D465">
-        <v>20.60877311705893</v>
+        <v>20.60877123577088</v>
       </c>
       <c r="E465">
-        <v>20.89425659179688</v>
+        <v>20.89425468444824</v>
       </c>
       <c r="F465">
         <v>3652100</v>
@@ -13056,16 +13056,16 @@
         <v>44999</v>
       </c>
       <c r="B466">
-        <v>20.89425658927648</v>
+        <v>20.89425471174102</v>
       </c>
       <c r="C466">
-        <v>21.52694802483985</v>
+        <v>21.52694609045142</v>
       </c>
       <c r="D466">
-        <v>20.89425658927648</v>
+        <v>20.89425471174102</v>
       </c>
       <c r="E466">
-        <v>21.22603416442871</v>
+        <v>21.22603225708008</v>
       </c>
       <c r="F466">
         <v>2451400</v>
@@ -13082,16 +13082,16 @@
         <v>45000</v>
       </c>
       <c r="B467">
-        <v>20.70136247513685</v>
+        <v>20.70136017103213</v>
       </c>
       <c r="C467">
-        <v>20.70136247513685</v>
+        <v>20.70136017103213</v>
       </c>
       <c r="D467">
-        <v>16.81262424780457</v>
+        <v>16.81262237652452</v>
       </c>
       <c r="E467">
-        <v>17.13668441772461</v>
+        <v>17.13668251037598</v>
       </c>
       <c r="F467">
         <v>22857400</v>
@@ -13108,16 +13108,16 @@
         <v>45001</v>
       </c>
       <c r="B468">
-        <v>17.16754646919673</v>
+        <v>17.16754749279799</v>
       </c>
       <c r="C468">
-        <v>17.25242020357204</v>
+        <v>17.25242123223382</v>
       </c>
       <c r="D468">
-        <v>15.52409210641873</v>
+        <v>15.52409303203033</v>
       </c>
       <c r="E468">
-        <v>15.99475193023682</v>
+        <v>15.99475288391113</v>
       </c>
       <c r="F468">
         <v>12665300</v>
@@ -13134,16 +13134,16 @@
         <v>45002</v>
       </c>
       <c r="B469">
-        <v>15.89444947978723</v>
+        <v>15.89444763512132</v>
       </c>
       <c r="C469">
-        <v>16.93607629840931</v>
+        <v>16.93607433285507</v>
       </c>
       <c r="D469">
-        <v>15.68612382173023</v>
+        <v>15.68612200124202</v>
       </c>
       <c r="E469">
-        <v>16.43455123901367</v>
+        <v>16.43454933166504</v>
       </c>
       <c r="F469">
         <v>7116600</v>
@@ -13186,16 +13186,16 @@
         <v>45006</v>
       </c>
       <c r="B471">
-        <v>15.90216312168304</v>
+        <v>15.90216407351009</v>
       </c>
       <c r="C471">
-        <v>16.20307693671861</v>
+        <v>16.20307790655691</v>
       </c>
       <c r="D471">
-        <v>15.46236555458099</v>
+        <v>15.46236648008387</v>
       </c>
       <c r="E471">
-        <v>15.93302536010742</v>
+        <v>15.93302631378174</v>
       </c>
       <c r="F471">
         <v>4963300</v>
@@ -13238,16 +13238,16 @@
         <v>45008</v>
       </c>
       <c r="B473">
-        <v>16.71231881185906</v>
+        <v>16.71231984987845</v>
       </c>
       <c r="C473">
-        <v>16.82033886955772</v>
+        <v>16.82033991428635</v>
       </c>
       <c r="D473">
-        <v>15.15373654555857</v>
+        <v>15.15373748677281</v>
       </c>
       <c r="E473">
-        <v>15.35434627532959</v>
+        <v>15.35434722900391</v>
       </c>
       <c r="F473">
         <v>3600600</v>
@@ -13264,16 +13264,16 @@
         <v>45009</v>
       </c>
       <c r="B474">
-        <v>15.26947261691272</v>
+        <v>15.26947353935731</v>
       </c>
       <c r="C474">
-        <v>15.93302623179812</v>
+        <v>15.93302719432868</v>
       </c>
       <c r="D474">
-        <v>14.96084138580756</v>
+        <v>14.96084228960743</v>
       </c>
       <c r="E474">
-        <v>15.78642654418945</v>
+        <v>15.78642749786377</v>
       </c>
       <c r="F474">
         <v>3781600</v>
@@ -13290,16 +13290,16 @@
         <v>45012</v>
       </c>
       <c r="B475">
-        <v>16.0873440911628</v>
+        <v>16.08734220551939</v>
       </c>
       <c r="C475">
-        <v>16.4345520670894</v>
+        <v>16.43455014074876</v>
       </c>
       <c r="D475">
-        <v>15.94846031212697</v>
+        <v>15.94845844276252</v>
       </c>
       <c r="E475">
-        <v>16.27252197265625</v>
+        <v>16.27252006530762</v>
       </c>
       <c r="F475">
         <v>1956600</v>
@@ -13316,16 +13316,16 @@
         <v>45013</v>
       </c>
       <c r="B476">
-        <v>16.32653305996064</v>
+        <v>16.32653113807984</v>
       </c>
       <c r="C476">
-        <v>16.49627909439126</v>
+        <v>16.49627715252878</v>
       </c>
       <c r="D476">
-        <v>16.01018730799357</v>
+        <v>16.01018542335147</v>
       </c>
       <c r="E476">
-        <v>16.20308113098145</v>
+        <v>16.20307922363281</v>
       </c>
       <c r="F476">
         <v>1818500</v>
@@ -13342,16 +13342,16 @@
         <v>45014</v>
       </c>
       <c r="B477">
-        <v>16.20307751823874</v>
+        <v>16.20307940314798</v>
       </c>
       <c r="C477">
-        <v>16.43454946554848</v>
+        <v>16.43455137738492</v>
       </c>
       <c r="D477">
-        <v>16.01018373825971</v>
+        <v>16.01018560072955</v>
       </c>
       <c r="E477">
-        <v>16.39597129821777</v>
+        <v>16.39597320556641</v>
       </c>
       <c r="F477">
         <v>1930800</v>
@@ -13368,16 +13368,16 @@
         <v>45015</v>
       </c>
       <c r="B478">
-        <v>16.64287689707067</v>
+        <v>16.64287496554434</v>
       </c>
       <c r="C478">
-        <v>16.95922261264038</v>
+        <v>16.95922064439984</v>
       </c>
       <c r="D478">
-        <v>16.32653118150096</v>
+        <v>16.32652928668884</v>
       </c>
       <c r="E478">
-        <v>16.43455123901367</v>
+        <v>16.43454933166504</v>
       </c>
       <c r="F478">
         <v>2912500</v>
@@ -13394,16 +13394,16 @@
         <v>45016</v>
       </c>
       <c r="B479">
-        <v>16.5811509674109</v>
+        <v>16.58115197550047</v>
       </c>
       <c r="C479">
-        <v>16.5811509674109</v>
+        <v>16.58115197550047</v>
       </c>
       <c r="D479">
-        <v>15.63982974775898</v>
+        <v>15.63983069861874</v>
       </c>
       <c r="E479">
-        <v>15.68612384796143</v>
+        <v>15.68612480163574</v>
       </c>
       <c r="F479">
         <v>2662200</v>
@@ -13420,16 +13420,16 @@
         <v>45019</v>
       </c>
       <c r="B480">
-        <v>16.16450013038322</v>
+        <v>16.16450109979016</v>
       </c>
       <c r="C480">
-        <v>16.59658180630628</v>
+        <v>16.59658280162574</v>
       </c>
       <c r="D480">
-        <v>15.75556476730963</v>
+        <v>15.75556571219217</v>
       </c>
       <c r="E480">
-        <v>15.90216445922852</v>
+        <v>15.90216541290283</v>
       </c>
       <c r="F480">
         <v>5449500</v>
@@ -13446,16 +13446,16 @@
         <v>45020</v>
       </c>
       <c r="B481">
-        <v>16.0950575202554</v>
+        <v>16.09505847991036</v>
       </c>
       <c r="C481">
-        <v>16.39597134698564</v>
+        <v>16.39597232458235</v>
       </c>
       <c r="D481">
-        <v>15.76327998223859</v>
+        <v>15.76328092211158</v>
       </c>
       <c r="E481">
-        <v>15.99475193023682</v>
+        <v>15.99475288391113</v>
       </c>
       <c r="F481">
         <v>2583300</v>
@@ -13498,16 +13498,16 @@
         <v>45022</v>
       </c>
       <c r="B483">
-        <v>15.89444764443533</v>
+        <v>15.89444954901042</v>
       </c>
       <c r="C483">
-        <v>16.17221368477442</v>
+        <v>16.17221562263323</v>
       </c>
       <c r="D483">
-        <v>15.70155386591466</v>
+        <v>15.70155574737598</v>
       </c>
       <c r="E483">
-        <v>15.91759395599365</v>
+        <v>15.91759586334229</v>
       </c>
       <c r="F483">
         <v>2144500</v>
@@ -13524,16 +13524,16 @@
         <v>45026</v>
       </c>
       <c r="B484">
-        <v>16.06419475493411</v>
+        <v>16.06419664503394</v>
       </c>
       <c r="C484">
-        <v>16.36510859938414</v>
+        <v>16.36511052488924</v>
       </c>
       <c r="D484">
-        <v>15.78642722364926</v>
+        <v>15.7864290810672</v>
       </c>
       <c r="E484">
-        <v>16.21079444885254</v>
+        <v>16.21079635620117</v>
       </c>
       <c r="F484">
         <v>2112500</v>
@@ -13550,16 +13550,16 @@
         <v>45027</v>
       </c>
       <c r="B485">
-        <v>16.29566876033803</v>
+        <v>16.29566688495602</v>
       </c>
       <c r="C485">
-        <v>16.6660245006118</v>
+        <v>16.66602258260752</v>
       </c>
       <c r="D485">
-        <v>16.21079501798503</v>
+        <v>16.21079315237069</v>
       </c>
       <c r="E485">
-        <v>16.57343482971191</v>
+        <v>16.57343292236328</v>
       </c>
       <c r="F485">
         <v>2245500</v>
@@ -13576,16 +13576,16 @@
         <v>45028</v>
       </c>
       <c r="B486">
-        <v>16.70460421792174</v>
+        <v>16.70460234006373</v>
       </c>
       <c r="C486">
-        <v>17.27556973827683</v>
+        <v>17.27556779623339</v>
       </c>
       <c r="D486">
-        <v>16.59658415159222</v>
+        <v>16.59658228587735</v>
       </c>
       <c r="E486">
-        <v>16.96693992614746</v>
+        <v>16.96693801879883</v>
       </c>
       <c r="F486">
         <v>3594500</v>
@@ -13628,16 +13628,16 @@
         <v>45030</v>
       </c>
       <c r="B488">
-        <v>17.19069853292141</v>
+        <v>17.19069660567741</v>
       </c>
       <c r="C488">
-        <v>17.33729678304539</v>
+        <v>17.3372948393663</v>
       </c>
       <c r="D488">
-        <v>16.92836280831845</v>
+        <v>16.92836091048482</v>
       </c>
       <c r="E488">
-        <v>17.01323509216309</v>
+        <v>17.01323318481445</v>
       </c>
       <c r="F488">
         <v>1352500</v>
@@ -13706,16 +13706,16 @@
         <v>45035</v>
       </c>
       <c r="B491">
-        <v>15.7401342203701</v>
+        <v>15.74013325963155</v>
       </c>
       <c r="C491">
-        <v>15.93302802569734</v>
+        <v>15.93302705318503</v>
       </c>
       <c r="D491">
-        <v>15.47008259857938</v>
+        <v>15.4700816543241</v>
       </c>
       <c r="E491">
-        <v>15.62439823150635</v>
+        <v>15.62439727783203</v>
       </c>
       <c r="F491">
         <v>3410400</v>
@@ -13758,16 +13758,16 @@
         <v>45040</v>
       </c>
       <c r="B493">
-        <v>15.47779787173746</v>
+        <v>15.47779882209549</v>
       </c>
       <c r="C493">
-        <v>15.60124978418431</v>
+        <v>15.60125074212246</v>
       </c>
       <c r="D493">
-        <v>15.32348371701033</v>
+        <v>15.32348465789326</v>
       </c>
       <c r="E493">
-        <v>15.5318078994751</v>
+        <v>15.53180885314941</v>
       </c>
       <c r="F493">
         <v>1450800</v>
@@ -13784,16 +13784,16 @@
         <v>45041</v>
       </c>
       <c r="B494">
-        <v>15.4315033565378</v>
+        <v>15.43150528705259</v>
       </c>
       <c r="C494">
-        <v>15.55495526565707</v>
+        <v>15.55495721161597</v>
       </c>
       <c r="D494">
-        <v>14.95312610495348</v>
+        <v>14.95312797562223</v>
       </c>
       <c r="E494">
-        <v>15.24632549285889</v>
+        <v>15.24632740020752</v>
       </c>
       <c r="F494">
         <v>1633400</v>
@@ -13810,16 +13810,16 @@
         <v>45042</v>
       </c>
       <c r="B495">
-        <v>15.25404210304072</v>
+        <v>15.25404013599413</v>
       </c>
       <c r="C495">
-        <v>15.27718841724603</v>
+        <v>15.27718644721466</v>
       </c>
       <c r="D495">
-        <v>14.71393887275244</v>
+        <v>14.7139369753535</v>
       </c>
       <c r="E495">
-        <v>14.79109668731689</v>
+        <v>14.79109477996826</v>
       </c>
       <c r="F495">
         <v>2130100</v>
@@ -13836,16 +13836,16 @@
         <v>45043</v>
       </c>
       <c r="B496">
-        <v>14.88914975244764</v>
+        <v>14.88915069610969</v>
       </c>
       <c r="C496">
-        <v>15.18930170448793</v>
+        <v>15.18930266717336</v>
       </c>
       <c r="D496">
-        <v>14.61269309527752</v>
+        <v>14.61269402141797</v>
       </c>
       <c r="E496">
-        <v>15.04712390899658</v>
+        <v>15.0471248626709</v>
       </c>
       <c r="F496">
         <v>1833100</v>
@@ -13862,16 +13862,16 @@
         <v>45044</v>
       </c>
       <c r="B497">
-        <v>15.02342973462843</v>
+        <v>15.02342881293709</v>
       </c>
       <c r="C497">
-        <v>15.5447473526001</v>
+        <v>15.54474639892578</v>
       </c>
       <c r="D497">
-        <v>14.81806195988692</v>
+        <v>14.81806105079494</v>
       </c>
       <c r="E497">
-        <v>15.5447473526001</v>
+        <v>15.54474639892578</v>
       </c>
       <c r="F497">
         <v>2584300</v>
@@ -13888,16 +13888,16 @@
         <v>45048</v>
       </c>
       <c r="B498">
-        <v>15.5684434653353</v>
+        <v>15.56844040726816</v>
       </c>
       <c r="C498">
-        <v>15.58424133496685</v>
+        <v>15.58423827379658</v>
       </c>
       <c r="D498">
-        <v>14.54950497918436</v>
+        <v>14.54950212126455</v>
       </c>
       <c r="E498">
-        <v>14.56530284881592</v>
+        <v>14.56529998779297</v>
       </c>
       <c r="F498">
         <v>3422200</v>
@@ -13966,16 +13966,16 @@
         <v>45051</v>
       </c>
       <c r="B501">
-        <v>14.85755520539896</v>
+        <v>14.85755428215588</v>
       </c>
       <c r="C501">
-        <v>15.52894956748615</v>
+        <v>15.52894860252286</v>
       </c>
       <c r="D501">
-        <v>14.77856736752382</v>
+        <v>14.77856644918901</v>
       </c>
       <c r="E501">
-        <v>15.3472785949707</v>
+        <v>15.34727764129639</v>
       </c>
       <c r="F501">
         <v>2127200</v>
@@ -13992,16 +13992,16 @@
         <v>45054</v>
       </c>
       <c r="B502">
-        <v>15.57634328090339</v>
+        <v>15.57634137548727</v>
       </c>
       <c r="C502">
-        <v>15.84490105355413</v>
+        <v>15.84489911528599</v>
       </c>
       <c r="D502">
-        <v>15.41836909535863</v>
+        <v>15.41836720926711</v>
       </c>
       <c r="E502">
-        <v>15.59214115142822</v>
+        <v>15.59213924407959</v>
       </c>
       <c r="F502">
         <v>2501300</v>
@@ -14044,16 +14044,16 @@
         <v>45056</v>
       </c>
       <c r="B504">
-        <v>15.41046784839771</v>
+        <v>15.41046689570005</v>
       </c>
       <c r="C504">
-        <v>15.5210499123476</v>
+        <v>15.52104895281359</v>
       </c>
       <c r="D504">
-        <v>15.12611224787785</v>
+        <v>15.12611131275946</v>
       </c>
       <c r="E504">
-        <v>15.42626571655273</v>
+        <v>15.42626476287842</v>
       </c>
       <c r="F504">
         <v>1005600</v>
@@ -14070,16 +14070,16 @@
         <v>45057</v>
       </c>
       <c r="B505">
-        <v>15.31568318018169</v>
+        <v>15.315681261951</v>
       </c>
       <c r="C505">
-        <v>15.72641874054017</v>
+        <v>15.72641677086643</v>
       </c>
       <c r="D505">
-        <v>15.01553119780755</v>
+        <v>15.01552931716976</v>
       </c>
       <c r="E505">
-        <v>15.22879791259766</v>
+        <v>15.22879600524902</v>
       </c>
       <c r="F505">
         <v>2910100</v>
@@ -14096,16 +14096,16 @@
         <v>45058</v>
       </c>
       <c r="B506">
-        <v>15.1182130131886</v>
+        <v>15.11821205198133</v>
       </c>
       <c r="C506">
-        <v>15.37097287237253</v>
+        <v>15.37097189509493</v>
       </c>
       <c r="D506">
-        <v>14.84965528616379</v>
+        <v>14.84965434203126</v>
       </c>
       <c r="E506">
-        <v>14.99973201751709</v>
+        <v>14.99973106384277</v>
       </c>
       <c r="F506">
         <v>3508300</v>
@@ -14174,16 +14174,16 @@
         <v>45063</v>
       </c>
       <c r="B509">
-        <v>13.7833260178306</v>
+        <v>13.78332416773413</v>
       </c>
       <c r="C509">
-        <v>14.20985794067383</v>
+        <v>14.2098560333252</v>
       </c>
       <c r="D509">
-        <v>13.76752814861514</v>
+        <v>13.76752630063918</v>
       </c>
       <c r="E509">
-        <v>14.20985794067383</v>
+        <v>14.2098560333252</v>
       </c>
       <c r="F509">
         <v>2299900</v>
@@ -14200,16 +14200,16 @@
         <v>45064</v>
       </c>
       <c r="B510">
-        <v>14.0992755600698</v>
+        <v>14.09927459776983</v>
       </c>
       <c r="C510">
-        <v>14.17036446341247</v>
+        <v>14.17036349626056</v>
       </c>
       <c r="D510">
-        <v>13.68064107444824</v>
+        <v>13.6806401407208</v>
       </c>
       <c r="E510">
-        <v>13.97289562225342</v>
+        <v>13.9728946685791</v>
       </c>
       <c r="F510">
         <v>4009800</v>
@@ -14226,16 +14226,16 @@
         <v>45065</v>
       </c>
       <c r="B511">
-        <v>14.09927486486758</v>
+        <v>14.09927583484408</v>
       </c>
       <c r="C511">
-        <v>14.17826269875003</v>
+        <v>14.1782636741606</v>
       </c>
       <c r="D511">
-        <v>13.74383036568034</v>
+        <v>13.74383131120362</v>
       </c>
       <c r="E511">
-        <v>13.86231136322021</v>
+        <v>13.86231231689453</v>
       </c>
       <c r="F511">
         <v>3669900</v>
@@ -14252,16 +14252,16 @@
         <v>45068</v>
       </c>
       <c r="B512">
-        <v>13.90970551205688</v>
+        <v>13.90970455892382</v>
       </c>
       <c r="C512">
-        <v>14.02028757988105</v>
+        <v>14.02028661917059</v>
       </c>
       <c r="D512">
-        <v>13.8386166094363</v>
+        <v>13.83861566117445</v>
       </c>
       <c r="E512">
-        <v>13.91760444641113</v>
+        <v>13.91760349273682</v>
       </c>
       <c r="F512">
         <v>1384600</v>
@@ -14356,16 +14356,16 @@
         <v>45072</v>
       </c>
       <c r="B516">
-        <v>14.16246564353552</v>
+        <v>14.16246370042411</v>
       </c>
       <c r="C516">
-        <v>14.16246564353552</v>
+        <v>14.16246370042411</v>
       </c>
       <c r="D516">
-        <v>13.76752795802284</v>
+        <v>13.76752606909747</v>
       </c>
       <c r="E516">
-        <v>13.90180683135986</v>
+        <v>13.90180492401123</v>
       </c>
       <c r="F516">
         <v>2684400</v>
@@ -14382,16 +14382,16 @@
         <v>45075</v>
       </c>
       <c r="B517">
-        <v>13.95709609477895</v>
+        <v>13.95709798926174</v>
       </c>
       <c r="C517">
-        <v>14.09137495107266</v>
+        <v>14.09137686378194</v>
       </c>
       <c r="D517">
-        <v>13.76752621058212</v>
+        <v>13.76752807933341</v>
       </c>
       <c r="E517">
-        <v>14.05188179016113</v>
+        <v>14.05188369750977</v>
       </c>
       <c r="F517">
         <v>796200</v>
@@ -14460,16 +14460,16 @@
         <v>45078</v>
       </c>
       <c r="B520">
-        <v>13.64904588423768</v>
+        <v>13.64904777734428</v>
       </c>
       <c r="C520">
-        <v>13.8544136454012</v>
+        <v>13.85441556699207</v>
       </c>
       <c r="D520">
-        <v>13.1277283007332</v>
+        <v>13.12773012153367</v>
       </c>
       <c r="E520">
-        <v>13.75172901153564</v>
+        <v>13.75173091888428</v>
       </c>
       <c r="F520">
         <v>3565200</v>
@@ -14538,16 +14538,16 @@
         <v>45083</v>
       </c>
       <c r="B523">
-        <v>14.13876729926344</v>
+        <v>14.13876825991451</v>
       </c>
       <c r="C523">
-        <v>14.18615939452143</v>
+        <v>14.18616035839253</v>
       </c>
       <c r="D523">
-        <v>13.91760318368111</v>
+        <v>13.91760412930529</v>
       </c>
       <c r="E523">
-        <v>14.03608417510986</v>
+        <v>14.03608512878418</v>
       </c>
       <c r="F523">
         <v>1361800</v>
@@ -14564,16 +14564,16 @@
         <v>45084</v>
       </c>
       <c r="B524">
-        <v>14.13876801365164</v>
+        <v>14.13876894954913</v>
       </c>
       <c r="C524">
-        <v>14.4152246786656</v>
+        <v>14.41522563286278</v>
       </c>
       <c r="D524">
-        <v>14.05978017985228</v>
+        <v>14.05978111052127</v>
       </c>
       <c r="E524">
-        <v>14.40732574462891</v>
+        <v>14.40732669830322</v>
       </c>
       <c r="F524">
         <v>2079200</v>
@@ -14616,16 +14616,16 @@
         <v>45089</v>
       </c>
       <c r="B526">
-        <v>14.52580583660401</v>
+        <v>14.52580680502309</v>
       </c>
       <c r="C526">
-        <v>14.55740157078135</v>
+        <v>14.55740254130687</v>
       </c>
       <c r="D526">
-        <v>14.17036286651421</v>
+        <v>14.17036381123631</v>
       </c>
       <c r="E526">
-        <v>14.30464172363281</v>
+        <v>14.30464267730713</v>
       </c>
       <c r="F526">
         <v>1974200</v>
@@ -14668,16 +14668,16 @@
         <v>45091</v>
       </c>
       <c r="B528">
-        <v>14.68378290923626</v>
+        <v>14.68378105959561</v>
       </c>
       <c r="C528">
-        <v>15.33937939091169</v>
+        <v>15.33937745868892</v>
       </c>
       <c r="D528">
-        <v>14.59689613844401</v>
+        <v>14.59689429974804</v>
       </c>
       <c r="E528">
-        <v>15.14191055297852</v>
+        <v>15.14190864562988</v>
       </c>
       <c r="F528">
         <v>3674900</v>
@@ -14746,16 +14746,16 @@
         <v>45096</v>
       </c>
       <c r="B531">
-        <v>15.07872109978828</v>
+        <v>15.07871922388483</v>
       </c>
       <c r="C531">
-        <v>15.40256988452728</v>
+        <v>15.40256796833467</v>
       </c>
       <c r="D531">
-        <v>15.03132899890562</v>
+        <v>15.0313271288981</v>
       </c>
       <c r="E531">
-        <v>15.33148097991943</v>
+        <v>15.3314790725708</v>
       </c>
       <c r="F531">
         <v>1160600</v>
@@ -14772,16 +14772,16 @@
         <v>45097</v>
       </c>
       <c r="B532">
-        <v>15.26828991639348</v>
+        <v>15.26828896321228</v>
       </c>
       <c r="C532">
-        <v>15.33147988190069</v>
+        <v>15.33147892477462</v>
       </c>
       <c r="D532">
-        <v>14.93654222083871</v>
+        <v>14.93654128836813</v>
       </c>
       <c r="E532">
-        <v>15.27618885040283</v>
+        <v>15.27618789672852</v>
       </c>
       <c r="F532">
         <v>1340300</v>
@@ -14850,16 +14850,16 @@
         <v>45100</v>
       </c>
       <c r="B535">
-        <v>15.67902585221171</v>
+        <v>15.67902389961386</v>
       </c>
       <c r="C535">
-        <v>15.67902585221171</v>
+        <v>15.67902389961386</v>
       </c>
       <c r="D535">
-        <v>15.10241721367935</v>
+        <v>15.10241533288984</v>
       </c>
       <c r="E535">
-        <v>15.31568241119385</v>
+        <v>15.31568050384521</v>
       </c>
       <c r="F535">
         <v>2179100</v>
@@ -14876,16 +14876,16 @@
         <v>45103</v>
       </c>
       <c r="B536">
-        <v>15.35517546451643</v>
+        <v>15.35517735148127</v>
       </c>
       <c r="C536">
-        <v>15.93968297568211</v>
+        <v>15.93968493447583</v>
       </c>
       <c r="D536">
-        <v>15.31568079760608</v>
+        <v>15.31568267971751</v>
       </c>
       <c r="E536">
-        <v>15.5210485458374</v>
+        <v>15.52105045318604</v>
       </c>
       <c r="F536">
         <v>2106500</v>
@@ -14902,16 +14902,16 @@
         <v>45104</v>
       </c>
       <c r="B537">
-        <v>15.54474686888763</v>
+        <v>15.5447448963905</v>
       </c>
       <c r="C537">
-        <v>15.72641783477087</v>
+        <v>15.72641583922123</v>
       </c>
       <c r="D537">
-        <v>14.96813823461423</v>
+        <v>14.96813633528387</v>
       </c>
       <c r="E537">
-        <v>15.03132820129395</v>
+        <v>15.03132629394531</v>
       </c>
       <c r="F537">
         <v>1638600</v>
@@ -14928,16 +14928,16 @@
         <v>45105</v>
       </c>
       <c r="B538">
-        <v>15.03132827887888</v>
+        <v>15.03132924524854</v>
       </c>
       <c r="C538">
-        <v>15.14191034449725</v>
+        <v>15.14191131797627</v>
       </c>
       <c r="D538">
-        <v>14.83385944366455</v>
+        <v>14.83386039733887</v>
       </c>
       <c r="E538">
-        <v>14.83385944366455</v>
+        <v>14.83386039733887</v>
       </c>
       <c r="F538">
         <v>1252800</v>
@@ -14954,16 +14954,16 @@
         <v>45106</v>
       </c>
       <c r="B539">
-        <v>14.95233957104283</v>
+        <v>14.95234242452895</v>
       </c>
       <c r="C539">
-        <v>15.07871949768059</v>
+        <v>15.0787223752849</v>
       </c>
       <c r="D539">
-        <v>14.87335174025234</v>
+        <v>14.87335457866452</v>
       </c>
       <c r="E539">
-        <v>14.9918327331543</v>
+        <v>14.99183559417725</v>
       </c>
       <c r="F539">
         <v>877000</v>
@@ -14980,16 +14980,16 @@
         <v>45107</v>
       </c>
       <c r="B540">
-        <v>15.15770842158941</v>
+        <v>15.1577065122508</v>
       </c>
       <c r="C540">
-        <v>15.56054503176121</v>
+        <v>15.56054307167934</v>
       </c>
       <c r="D540">
-        <v>15.13401161867307</v>
+        <v>15.13400971231942</v>
       </c>
       <c r="E540">
-        <v>15.14191055297852</v>
+        <v>15.14190864562988</v>
       </c>
       <c r="F540">
         <v>1921700</v>
@@ -15006,16 +15006,16 @@
         <v>45110</v>
       </c>
       <c r="B541">
-        <v>15.23669581839537</v>
+        <v>15.23669487644054</v>
       </c>
       <c r="C541">
-        <v>15.71851874458248</v>
+        <v>15.71851777284065</v>
       </c>
       <c r="D541">
-        <v>15.20510008208533</v>
+        <v>15.2050991420838</v>
       </c>
       <c r="E541">
-        <v>15.42626571655273</v>
+        <v>15.42626476287842</v>
       </c>
       <c r="F541">
         <v>1444200</v>
@@ -15032,16 +15032,16 @@
         <v>45111</v>
       </c>
       <c r="B542">
-        <v>15.44996164634721</v>
+        <v>15.44996069848802</v>
       </c>
       <c r="C542">
-        <v>15.75801406174333</v>
+        <v>15.75801309498505</v>
       </c>
       <c r="D542">
-        <v>15.33148064345687</v>
+        <v>15.33147970286652</v>
       </c>
       <c r="E542">
-        <v>15.5447473526001</v>
+        <v>15.54474639892578</v>
       </c>
       <c r="F542">
         <v>905000</v>
@@ -15058,16 +15058,16 @@
         <v>45112</v>
       </c>
       <c r="B543">
-        <v>15.55264487622766</v>
+        <v>15.55264677681952</v>
       </c>
       <c r="C543">
-        <v>15.82910152893965</v>
+        <v>15.82910346331555</v>
       </c>
       <c r="D543">
-        <v>15.41046708302906</v>
+        <v>15.41046896624626</v>
       </c>
       <c r="E543">
-        <v>15.60793590545654</v>
+        <v>15.60793781280518</v>
       </c>
       <c r="F543">
         <v>2063900</v>
@@ -15084,16 +15084,16 @@
         <v>45113</v>
       </c>
       <c r="B544">
-        <v>15.53684811518801</v>
+        <v>15.53685006313958</v>
       </c>
       <c r="C544">
-        <v>15.592139148354</v>
+        <v>15.59214110323775</v>
       </c>
       <c r="D544">
-        <v>14.94444160572212</v>
+        <v>14.9444434794</v>
       </c>
       <c r="E544">
-        <v>15.21299934387207</v>
+        <v>15.2130012512207</v>
       </c>
       <c r="F544">
         <v>1944000</v>
@@ -15162,16 +15162,16 @@
         <v>45118</v>
       </c>
       <c r="B547">
-        <v>16.35831804590013</v>
+        <v>16.35831996623018</v>
       </c>
       <c r="C547">
-        <v>16.43730588352005</v>
+        <v>16.43730781312262</v>
       </c>
       <c r="D547">
-        <v>15.7501151613324</v>
+        <v>15.7501170102645</v>
       </c>
       <c r="E547">
-        <v>16.24773597717285</v>
+        <v>16.24773788452148</v>
       </c>
       <c r="F547">
         <v>3947000</v>
@@ -15188,16 +15188,16 @@
         <v>45119</v>
       </c>
       <c r="B548">
-        <v>16.46100047378853</v>
+        <v>16.46099946029683</v>
       </c>
       <c r="C548">
-        <v>16.66636822136398</v>
+        <v>16.66636719522794</v>
       </c>
       <c r="D548">
-        <v>15.38676964233771</v>
+        <v>15.38676869498561</v>
       </c>
       <c r="E548">
-        <v>15.48945426940918</v>
+        <v>15.48945331573486</v>
       </c>
       <c r="F548">
         <v>3035000</v>
@@ -15214,16 +15214,16 @@
         <v>45120</v>
       </c>
       <c r="B549">
-        <v>15.68692611334489</v>
+        <v>15.68692429656098</v>
       </c>
       <c r="C549">
-        <v>16.46890258789062</v>
+        <v>16.46890068054199</v>
       </c>
       <c r="D549">
-        <v>15.31568370671027</v>
+        <v>15.31568193292187</v>
       </c>
       <c r="E549">
-        <v>16.46890258789062</v>
+        <v>16.46890068054199</v>
       </c>
       <c r="F549">
         <v>7442100</v>
@@ -15292,16 +15292,16 @@
         <v>45125</v>
       </c>
       <c r="B552">
-        <v>16.29512505700261</v>
+        <v>16.29512696527608</v>
       </c>
       <c r="C552">
-        <v>16.44520177000869</v>
+        <v>16.4452036958572</v>
       </c>
       <c r="D552">
-        <v>16.14504985056394</v>
+        <v>16.14505174126255</v>
       </c>
       <c r="E552">
-        <v>16.28722763061523</v>
+        <v>16.28722953796387</v>
       </c>
       <c r="F552">
         <v>851700</v>
@@ -15318,16 +15318,16 @@
         <v>45126</v>
       </c>
       <c r="B553">
-        <v>16.3978108927356</v>
+        <v>16.39781281489857</v>
       </c>
       <c r="C553">
-        <v>16.62687393911166</v>
+        <v>16.62687588812556</v>
       </c>
       <c r="D553">
-        <v>16.2003420739501</v>
+        <v>16.20034397296564</v>
       </c>
       <c r="E553">
-        <v>16.27143096923828</v>
+        <v>16.27143287658691</v>
       </c>
       <c r="F553">
         <v>2333900</v>
@@ -15370,16 +15370,16 @@
         <v>45128</v>
       </c>
       <c r="B555">
-        <v>16.39781334791088</v>
+        <v>16.39781157148395</v>
       </c>
       <c r="C555">
-        <v>17.64581640923073</v>
+        <v>17.64581449760368</v>
       </c>
       <c r="D555">
-        <v>16.39781334791088</v>
+        <v>16.39781157148395</v>
       </c>
       <c r="E555">
-        <v>17.6063232421875</v>
+        <v>17.60632133483887</v>
       </c>
       <c r="F555">
         <v>5227200</v>
@@ -15422,16 +15422,16 @@
         <v>45132</v>
       </c>
       <c r="B557">
-        <v>18.56207222443829</v>
+        <v>18.56207028406201</v>
       </c>
       <c r="C557">
-        <v>18.90171889342566</v>
+        <v>18.9017169175446</v>
       </c>
       <c r="D557">
-        <v>18.19083132231393</v>
+        <v>18.19082942074511</v>
       </c>
       <c r="E557">
-        <v>18.24612236022949</v>
+        <v>18.24612045288086</v>
       </c>
       <c r="F557">
         <v>2831300</v>
@@ -15448,16 +15448,16 @@
         <v>45133</v>
       </c>
       <c r="B558">
-        <v>18.23031987617336</v>
+        <v>18.2303217860045</v>
       </c>
       <c r="C558">
-        <v>18.33300299108858</v>
+        <v>18.33300491167693</v>
       </c>
       <c r="D558">
-        <v>17.85118013508535</v>
+        <v>17.85118200519734</v>
       </c>
       <c r="E558">
-        <v>18.20662307739258</v>
+        <v>18.20662498474121</v>
       </c>
       <c r="F558">
         <v>2119700</v>
@@ -15474,16 +15474,16 @@
         <v>45134</v>
       </c>
       <c r="B559">
-        <v>18.64105627449358</v>
+        <v>18.64105823074859</v>
       </c>
       <c r="C559">
-        <v>18.92541034114399</v>
+        <v>18.92541232724008</v>
       </c>
       <c r="D559">
-        <v>18.08814299469599</v>
+        <v>18.08814489292643</v>
       </c>
       <c r="E559">
-        <v>18.17502975463867</v>
+        <v>18.1750316619873</v>
       </c>
       <c r="F559">
         <v>4233700</v>
@@ -15500,16 +15500,16 @@
         <v>45135</v>
       </c>
       <c r="B560">
-        <v>18.27771638203925</v>
+        <v>18.27771447633776</v>
       </c>
       <c r="C560">
-        <v>18.70424982371538</v>
+        <v>18.70424787354196</v>
       </c>
       <c r="D560">
-        <v>18.07234859603605</v>
+        <v>18.07234671174696</v>
       </c>
       <c r="E560">
-        <v>18.29351425170898</v>
+        <v>18.29351234436035</v>
       </c>
       <c r="F560">
         <v>3354000</v>
@@ -15526,16 +15526,16 @@
         <v>45138</v>
       </c>
       <c r="B561">
-        <v>18.52257846273125</v>
+        <v>18.52257651721897</v>
       </c>
       <c r="C561">
-        <v>18.64105946969129</v>
+        <v>18.6410575117344</v>
       </c>
       <c r="D561">
-        <v>18.15923500061035</v>
+        <v>18.15923309326172</v>
       </c>
       <c r="E561">
-        <v>18.15923500061035</v>
+        <v>18.15923309326172</v>
       </c>
       <c r="F561">
         <v>2902900</v>
@@ -15682,16 +15682,16 @@
         <v>45146</v>
       </c>
       <c r="B567">
-        <v>17.77219559864431</v>
+        <v>17.77219376543865</v>
       </c>
       <c r="C567">
-        <v>18.49888099005158</v>
+        <v>18.49887908188817</v>
       </c>
       <c r="D567">
-        <v>17.38515685306195</v>
+        <v>17.38515505977942</v>
       </c>
       <c r="E567">
-        <v>18.49098205566406</v>
+        <v>18.49098014831543</v>
       </c>
       <c r="F567">
         <v>1645200</v>
@@ -15708,16 +15708,16 @@
         <v>45147</v>
       </c>
       <c r="B568">
-        <v>18.54627143956527</v>
+        <v>18.54627329938857</v>
       </c>
       <c r="C568">
-        <v>19.05179264941155</v>
+        <v>19.05179455992861</v>
       </c>
       <c r="D568">
-        <v>18.26981478687188</v>
+        <v>18.26981661897206</v>
       </c>
       <c r="E568">
-        <v>19.02019691467285</v>
+        <v>19.02019882202148</v>
       </c>
       <c r="F568">
         <v>2701000</v>
@@ -15734,16 +15734,16 @@
         <v>45148</v>
       </c>
       <c r="B569">
-        <v>18.99650266918154</v>
+        <v>18.99650074017684</v>
       </c>
       <c r="C569">
-        <v>19.13078154675017</v>
+        <v>19.13077960411009</v>
       </c>
       <c r="D569">
-        <v>18.57786967354879</v>
+        <v>18.57786778705428</v>
       </c>
       <c r="E569">
-        <v>18.78323745727539</v>
+        <v>18.78323554992676</v>
       </c>
       <c r="F569">
         <v>2779700</v>
@@ -15812,16 +15812,16 @@
         <v>45153</v>
       </c>
       <c r="B572">
-        <v>18.33300484853239</v>
+        <v>18.33300682132913</v>
       </c>
       <c r="C572">
-        <v>18.44358841414593</v>
+        <v>18.44359039884247</v>
       </c>
       <c r="D572">
-        <v>17.63791525278003</v>
+        <v>17.63791715077887</v>
       </c>
       <c r="E572">
-        <v>17.72480201721191</v>
+        <v>17.72480392456055</v>
       </c>
       <c r="F572">
         <v>2774800</v>
@@ -15838,16 +15838,16 @@
         <v>45154</v>
       </c>
       <c r="B573">
-        <v>17.93017070507513</v>
+        <v>17.93017264837917</v>
       </c>
       <c r="C573">
-        <v>18.23032266945102</v>
+        <v>18.23032464528607</v>
       </c>
       <c r="D573">
-        <v>17.59842300415039</v>
+        <v>17.59842491149902</v>
       </c>
       <c r="E573">
-        <v>17.59842300415039</v>
+        <v>17.59842491149902</v>
       </c>
       <c r="F573">
         <v>3363700</v>
@@ -15890,16 +15890,16 @@
         <v>45156</v>
       </c>
       <c r="B575">
-        <v>17.7721958715012</v>
+        <v>17.77219399089889</v>
       </c>
       <c r="C575">
-        <v>18.4040955665275</v>
+        <v>18.40409361905938</v>
       </c>
       <c r="D575">
-        <v>17.69320803298099</v>
+        <v>17.69320616073694</v>
       </c>
       <c r="E575">
-        <v>18.02495574951172</v>
+        <v>18.02495384216309</v>
       </c>
       <c r="F575">
         <v>2527200</v>
@@ -15942,16 +15942,16 @@
         <v>45160</v>
       </c>
       <c r="B577">
-        <v>18.08814739281803</v>
+        <v>18.08814549376225</v>
       </c>
       <c r="C577">
-        <v>18.35670516469738</v>
+        <v>18.35670323744599</v>
       </c>
       <c r="D577">
-        <v>17.82748855617841</v>
+        <v>17.82748668448893</v>
       </c>
       <c r="E577">
-        <v>18.16713523864746</v>
+        <v>18.16713333129883</v>
       </c>
       <c r="F577">
         <v>1940600</v>
@@ -15968,16 +15968,16 @@
         <v>45161</v>
       </c>
       <c r="B578">
-        <v>18.1197405590522</v>
+        <v>18.11973871364603</v>
       </c>
       <c r="C578">
-        <v>18.78323595923146</v>
+        <v>18.78323404625155</v>
       </c>
       <c r="D578">
-        <v>17.84328389121624</v>
+        <v>17.84328207396582</v>
       </c>
       <c r="E578">
-        <v>18.72794342041016</v>
+        <v>18.72794151306152</v>
       </c>
       <c r="F578">
         <v>2009300</v>
@@ -16020,16 +16020,16 @@
         <v>45163</v>
       </c>
       <c r="B580">
-        <v>18.59366702029429</v>
+        <v>18.59366508998526</v>
       </c>
       <c r="C580">
-        <v>18.7121480250373</v>
+        <v>18.71214608242812</v>
       </c>
       <c r="D580">
-        <v>18.15923466081297</v>
+        <v>18.1592327756047</v>
       </c>
       <c r="E580">
-        <v>18.37250137329102</v>
+        <v>18.37249946594238</v>
       </c>
       <c r="F580">
         <v>2200700</v>
@@ -16072,16 +16072,16 @@
         <v>45167</v>
       </c>
       <c r="B582">
-        <v>17.96176581738538</v>
+        <v>17.96176395267742</v>
       </c>
       <c r="C582">
-        <v>18.3961981768667</v>
+        <v>18.39619626705798</v>
       </c>
       <c r="D582">
-        <v>17.96176581738538</v>
+        <v>17.96176395267742</v>
       </c>
       <c r="E582">
-        <v>18.37250137329102</v>
+        <v>18.37249946594238</v>
       </c>
       <c r="F582">
         <v>1829200</v>
@@ -16124,16 +16124,16 @@
         <v>45169</v>
       </c>
       <c r="B584">
-        <v>18.48308416804245</v>
+        <v>18.48308224092857</v>
       </c>
       <c r="C584">
-        <v>18.54627414015361</v>
+        <v>18.54627220645131</v>
       </c>
       <c r="D584">
-        <v>18.11184327021038</v>
+        <v>18.11184138180343</v>
       </c>
       <c r="E584">
-        <v>18.29351425170898</v>
+        <v>18.29351234436035</v>
       </c>
       <c r="F584">
         <v>3370000</v>
@@ -16176,16 +16176,16 @@
         <v>45173</v>
       </c>
       <c r="B586">
-        <v>18.62526066943236</v>
+        <v>18.62525878604533</v>
       </c>
       <c r="C586">
-        <v>18.86222267150879</v>
+        <v>18.86222076416016</v>
       </c>
       <c r="D586">
-        <v>18.39619760163416</v>
+        <v>18.39619574141</v>
       </c>
       <c r="E586">
-        <v>18.86222267150879</v>
+        <v>18.86222076416016</v>
       </c>
       <c r="F586">
         <v>2300600</v>
@@ -16202,16 +16202,16 @@
         <v>45174</v>
       </c>
       <c r="B587">
-        <v>18.72004600884922</v>
+        <v>18.7200440060063</v>
       </c>
       <c r="C587">
-        <v>18.89381803987596</v>
+        <v>18.89381601844131</v>
       </c>
       <c r="D587">
-        <v>17.78009394003119</v>
+        <v>17.780092037753</v>
       </c>
       <c r="E587">
-        <v>17.82748603820801</v>
+        <v>17.82748413085938</v>
       </c>
       <c r="F587">
         <v>7881700</v>
@@ -16228,16 +16228,16 @@
         <v>45175</v>
       </c>
       <c r="B588">
-        <v>17.81958521258998</v>
+        <v>17.81958719097086</v>
       </c>
       <c r="C588">
-        <v>17.81958521258998</v>
+        <v>17.81958719097086</v>
       </c>
       <c r="D588">
-        <v>17.14029352226824</v>
+        <v>17.14029542523224</v>
       </c>
       <c r="E588">
-        <v>17.17978668212891</v>
+        <v>17.17978858947754</v>
       </c>
       <c r="F588">
         <v>4076900</v>
@@ -16332,16 +16332,16 @@
         <v>45182</v>
       </c>
       <c r="B592">
-        <v>17.35355828913278</v>
+        <v>17.35356023095152</v>
       </c>
       <c r="C592">
-        <v>17.51153393801826</v>
+        <v>17.51153589751407</v>
       </c>
       <c r="D592">
-        <v>17.04550743103027</v>
+        <v>17.04550933837891</v>
       </c>
       <c r="E592">
-        <v>17.04550743103027</v>
+        <v>17.04550933837891</v>
       </c>
       <c r="F592">
         <v>3052200</v>
@@ -16384,16 +16384,16 @@
         <v>45184</v>
       </c>
       <c r="B594">
-        <v>17.56682575840478</v>
+        <v>17.56682764791176</v>
       </c>
       <c r="C594">
-        <v>17.93806659155399</v>
+        <v>17.93806852099204</v>
       </c>
       <c r="D594">
-        <v>17.52733259767928</v>
+        <v>17.52733448293833</v>
       </c>
       <c r="E594">
-        <v>17.73270034790039</v>
+        <v>17.73270225524902</v>
       </c>
       <c r="F594">
         <v>4350100</v>
@@ -16488,16 +16488,16 @@
         <v>45190</v>
       </c>
       <c r="B598">
-        <v>17.10870153297957</v>
+        <v>17.10869956474843</v>
       </c>
       <c r="C598">
-        <v>17.14029727303609</v>
+        <v>17.1402953011701</v>
       </c>
       <c r="D598">
-        <v>16.44520605747057</v>
+        <v>16.44520416556974</v>
       </c>
       <c r="E598">
-        <v>16.5794849395752</v>
+        <v>16.57948303222656</v>
       </c>
       <c r="F598">
         <v>3392600</v>
@@ -16514,16 +16514,16 @@
         <v>45191</v>
       </c>
       <c r="B599">
-        <v>16.74535873180263</v>
+        <v>16.74535675450233</v>
       </c>
       <c r="C599">
-        <v>16.76115509448018</v>
+        <v>16.76115311531465</v>
       </c>
       <c r="D599">
-        <v>16.05816648530986</v>
+        <v>16.05816458915357</v>
       </c>
       <c r="E599">
-        <v>16.15295219421387</v>
+        <v>16.15295028686523</v>
       </c>
       <c r="F599">
         <v>3974100</v>
@@ -16566,16 +16566,16 @@
         <v>45195</v>
       </c>
       <c r="B601">
-        <v>15.70271934862757</v>
+        <v>15.70272033147068</v>
       </c>
       <c r="C601">
-        <v>15.75801188179044</v>
+        <v>15.75801286809435</v>
       </c>
       <c r="D601">
-        <v>15.18140180277463</v>
+        <v>15.18140275298815</v>
       </c>
       <c r="E601">
-        <v>15.2366943359375</v>
+        <v>15.23669528961182</v>
       </c>
       <c r="F601">
         <v>4421500</v>
@@ -16592,16 +16592,16 @@
         <v>45196</v>
       </c>
       <c r="B602">
-        <v>15.39466861020619</v>
+        <v>15.3946713734042</v>
       </c>
       <c r="C602">
-        <v>16.03446714786988</v>
+        <v>16.03447002590569</v>
       </c>
       <c r="D602">
-        <v>15.29988442284657</v>
+        <v>15.29988716903171</v>
       </c>
       <c r="E602">
-        <v>15.93968296051025</v>
+        <v>15.9396858215332</v>
       </c>
       <c r="F602">
         <v>4241700</v>
@@ -16618,16 +16618,16 @@
         <v>45197</v>
       </c>
       <c r="B603">
-        <v>15.93178776249356</v>
+        <v>15.93178586829252</v>
       </c>
       <c r="C603">
-        <v>16.31882654918649</v>
+        <v>16.31882460896869</v>
       </c>
       <c r="D603">
-        <v>15.9159898920405</v>
+        <v>15.91598799971774</v>
       </c>
       <c r="E603">
-        <v>16.0423698425293</v>
+        <v>16.04236793518066</v>
       </c>
       <c r="F603">
         <v>3898300</v>
@@ -16644,16 +16644,16 @@
         <v>45198</v>
       </c>
       <c r="B604">
-        <v>16.31092302664363</v>
+        <v>16.31092490757713</v>
       </c>
       <c r="C604">
-        <v>16.91122837591828</v>
+        <v>16.91123032607744</v>
       </c>
       <c r="D604">
-        <v>16.20823991071322</v>
+        <v>16.20824177980558</v>
       </c>
       <c r="E604">
-        <v>16.53998756408691</v>
+        <v>16.53998947143555</v>
       </c>
       <c r="F604">
         <v>4037800</v>
@@ -16670,16 +16670,16 @@
         <v>45201</v>
       </c>
       <c r="B605">
-        <v>16.58738107694938</v>
+        <v>16.58738300820886</v>
       </c>
       <c r="C605">
-        <v>16.78484989929402</v>
+        <v>16.78485185354468</v>
       </c>
       <c r="D605">
-        <v>16.37411438724096</v>
+        <v>16.37411629366992</v>
       </c>
       <c r="E605">
-        <v>16.38201332092285</v>
+        <v>16.38201522827148</v>
       </c>
       <c r="F605">
         <v>2361300</v>
@@ -16696,16 +16696,16 @@
         <v>45202</v>
       </c>
       <c r="B606">
-        <v>16.28723168090842</v>
+        <v>16.28723069173508</v>
       </c>
       <c r="C606">
-        <v>16.38991482172094</v>
+        <v>16.38991382631134</v>
       </c>
       <c r="D606">
-        <v>15.63163514830229</v>
+        <v>15.63163419894533</v>
       </c>
       <c r="E606">
-        <v>15.70272254943848</v>
+        <v>15.70272159576416</v>
       </c>
       <c r="F606">
         <v>2226200</v>
@@ -16722,16 +16722,16 @@
         <v>45203</v>
       </c>
       <c r="B607">
-        <v>15.66322623969703</v>
+        <v>15.66322819638215</v>
       </c>
       <c r="C607">
-        <v>15.75011299981152</v>
+        <v>15.75011496735072</v>
       </c>
       <c r="D607">
-        <v>15.19719971892069</v>
+        <v>15.19720161738874</v>
       </c>
       <c r="E607">
-        <v>15.26828861236572</v>
+        <v>15.26829051971436</v>
       </c>
       <c r="F607">
         <v>2559300</v>
@@ -16748,16 +16748,16 @@
         <v>45204</v>
       </c>
       <c r="B608">
-        <v>15.25249152016562</v>
+        <v>15.25249443093237</v>
       </c>
       <c r="C608">
-        <v>15.46575821132968</v>
+        <v>15.46576116279599</v>
       </c>
       <c r="D608">
-        <v>14.92074383609961</v>
+        <v>14.92074668355604</v>
       </c>
       <c r="E608">
-        <v>14.9918327331543</v>
+        <v>14.99183559417725</v>
       </c>
       <c r="F608">
         <v>1937500</v>
@@ -16774,16 +16774,16 @@
         <v>45205</v>
       </c>
       <c r="B609">
-        <v>14.92074484800704</v>
+        <v>14.92074391459212</v>
       </c>
       <c r="C609">
-        <v>15.2840882916578</v>
+        <v>15.28408733551277</v>
       </c>
       <c r="D609">
-        <v>14.79436491279834</v>
+        <v>14.79436398728952</v>
       </c>
       <c r="E609">
-        <v>15.24459362030029</v>
+        <v>15.24459266662598</v>
       </c>
       <c r="F609">
         <v>2139600</v>
@@ -16800,16 +16800,16 @@
         <v>45208</v>
       </c>
       <c r="B610">
-        <v>15.68692514146537</v>
+        <v>15.68692333593888</v>
       </c>
       <c r="C610">
-        <v>16.58738257032416</v>
+        <v>16.58738066115723</v>
       </c>
       <c r="D610">
-        <v>15.66322833828625</v>
+        <v>15.6632265354872</v>
       </c>
       <c r="E610">
-        <v>16.57158470153809</v>
+        <v>16.57158279418945</v>
       </c>
       <c r="F610">
         <v>3863100</v>
@@ -16826,16 +16826,16 @@
         <v>45209</v>
       </c>
       <c r="B611">
-        <v>16.58738181915974</v>
+        <v>16.58738368301836</v>
       </c>
       <c r="C611">
-        <v>17.08500261084478</v>
+        <v>17.08500453061908</v>
       </c>
       <c r="D611">
-        <v>16.3978119220146</v>
+        <v>16.397813764572</v>
       </c>
       <c r="E611">
-        <v>16.97442054748535</v>
+        <v>16.97442245483398</v>
       </c>
       <c r="F611">
         <v>2364100</v>
@@ -16878,16 +16878,16 @@
         <v>45212</v>
       </c>
       <c r="B613">
-        <v>17.40885367473729</v>
+        <v>17.40885173839609</v>
       </c>
       <c r="C613">
-        <v>17.59842358053629</v>
+        <v>17.59842162310973</v>
       </c>
       <c r="D613">
-        <v>16.86383925396034</v>
+        <v>16.86383737823966</v>
       </c>
       <c r="E613">
-        <v>17.148193359375</v>
+        <v>17.14819145202637</v>
       </c>
       <c r="F613">
         <v>5502700</v>
@@ -16904,16 +16904,16 @@
         <v>45215</v>
       </c>
       <c r="B614">
-        <v>17.30616669245155</v>
+        <v>17.30616857573263</v>
       </c>
       <c r="C614">
-        <v>17.75639534612448</v>
+        <v>17.75639727840007</v>
       </c>
       <c r="D614">
-        <v>17.10869787897623</v>
+        <v>17.10869974076849</v>
       </c>
       <c r="E614">
-        <v>17.5273323059082</v>
+        <v>17.52733421325684</v>
       </c>
       <c r="F614">
         <v>3048500</v>
@@ -17112,16 +17112,16 @@
         <v>45225</v>
       </c>
       <c r="B622">
-        <v>16.85593755664343</v>
+        <v>16.85593945332665</v>
       </c>
       <c r="C622">
-        <v>17.01391320553206</v>
+        <v>17.0139151199912</v>
       </c>
       <c r="D622">
-        <v>16.69796190775481</v>
+        <v>16.69796378666211</v>
       </c>
       <c r="E622">
-        <v>16.95072174072266</v>
+        <v>16.95072364807129</v>
       </c>
       <c r="F622">
         <v>2517300</v>
@@ -17138,16 +17138,16 @@
         <v>45226</v>
       </c>
       <c r="B623">
-        <v>17.0376109915119</v>
+        <v>17.03760901735119</v>
       </c>
       <c r="C623">
-        <v>17.23507982823608</v>
+        <v>17.23507783119452</v>
       </c>
       <c r="D623">
-        <v>16.42940661282517</v>
+        <v>16.42940470913756</v>
       </c>
       <c r="E623">
-        <v>16.46100234985352</v>
+        <v>16.46100044250488</v>
       </c>
       <c r="F623">
         <v>1986900</v>
@@ -17164,16 +17164,16 @@
         <v>45229</v>
       </c>
       <c r="B624">
-        <v>16.74535635058678</v>
+        <v>16.74535735345862</v>
       </c>
       <c r="C624">
-        <v>16.74535635058678</v>
+        <v>16.74535735345862</v>
       </c>
       <c r="D624">
-        <v>15.90018854496077</v>
+        <v>15.9001894972159</v>
       </c>
       <c r="E624">
-        <v>15.92388534545898</v>
+        <v>15.9238862991333</v>
       </c>
       <c r="F624">
         <v>2491100</v>
@@ -17190,16 +17190,16 @@
         <v>45230</v>
       </c>
       <c r="B625">
-        <v>15.96337887518791</v>
+        <v>15.96338073379516</v>
       </c>
       <c r="C625">
-        <v>16.5241911140618</v>
+        <v>16.52419303796411</v>
       </c>
       <c r="D625">
-        <v>15.96337887518791</v>
+        <v>15.96338073379516</v>
       </c>
       <c r="E625">
-        <v>16.38201332092285</v>
+        <v>16.38201522827148</v>
       </c>
       <c r="F625">
         <v>2013500</v>
@@ -17216,16 +17216,16 @@
         <v>45231</v>
       </c>
       <c r="B626">
-        <v>16.50049518547939</v>
+        <v>16.50049707295029</v>
       </c>
       <c r="C626">
-        <v>16.82434395072269</v>
+        <v>16.82434587523824</v>
       </c>
       <c r="D626">
-        <v>16.28722999106214</v>
+        <v>16.2872318541379</v>
       </c>
       <c r="E626">
-        <v>16.67426872253418</v>
+        <v>16.67427062988281</v>
       </c>
       <c r="F626">
         <v>3255500</v>
@@ -17294,16 +17294,16 @@
         <v>45237</v>
       </c>
       <c r="B629">
-        <v>16.03446726557026</v>
+        <v>16.03447092004641</v>
       </c>
       <c r="C629">
-        <v>16.77695043598578</v>
+        <v>16.77695425968409</v>
       </c>
       <c r="D629">
-        <v>15.91598627721728</v>
+        <v>15.91598990468998</v>
       </c>
       <c r="E629">
-        <v>16.73745727539062</v>
+        <v>16.73746109008789</v>
       </c>
       <c r="F629">
         <v>2853400</v>
@@ -17320,16 +17320,16 @@
         <v>45238</v>
       </c>
       <c r="B630">
-        <v>16.70586366692516</v>
+        <v>16.7058616777525</v>
       </c>
       <c r="C630">
-        <v>16.84014253922572</v>
+        <v>16.84014053406443</v>
       </c>
       <c r="D630">
-        <v>15.92388723643402</v>
+        <v>15.92388534037155</v>
       </c>
       <c r="E630">
-        <v>16.01867294311523</v>
+        <v>16.0186710357666</v>
       </c>
       <c r="F630">
         <v>3478700</v>
@@ -17346,16 +17346,16 @@
         <v>45239</v>
       </c>
       <c r="B631">
-        <v>16.1924447105203</v>
+        <v>16.19244267084128</v>
       </c>
       <c r="C631">
-        <v>16.21614151343664</v>
+        <v>16.21613947077266</v>
       </c>
       <c r="D631">
-        <v>15.10241738801895</v>
+        <v>15.10241548564507</v>
       </c>
       <c r="E631">
-        <v>15.14191055297852</v>
+        <v>15.14190864562988</v>
       </c>
       <c r="F631">
         <v>3678000</v>
@@ -17476,16 +17476,16 @@
         <v>45247</v>
       </c>
       <c r="B636">
-        <v>15.13401297983584</v>
+        <v>15.13401205041571</v>
       </c>
       <c r="C636">
-        <v>15.78171058546017</v>
+        <v>15.78170961626319</v>
       </c>
       <c r="D636">
-        <v>15.04712620122894</v>
+        <v>15.04712527714475</v>
       </c>
       <c r="E636">
-        <v>15.52895069122314</v>
+        <v>15.52894973754883</v>
       </c>
       <c r="F636">
         <v>3789800</v>
@@ -17502,16 +17502,16 @@
         <v>45250</v>
       </c>
       <c r="B637">
-        <v>15.78170761596938</v>
+        <v>15.78170857299664</v>
       </c>
       <c r="C637">
-        <v>15.87649331175727</v>
+        <v>15.87649427453247</v>
       </c>
       <c r="D637">
-        <v>15.57633986390191</v>
+        <v>15.57634080847534</v>
       </c>
       <c r="E637">
-        <v>15.72641658782959</v>
+        <v>15.72641754150391</v>
       </c>
       <c r="F637">
         <v>2451700</v>
@@ -17554,16 +17554,16 @@
         <v>45252</v>
       </c>
       <c r="B639">
-        <v>15.5052538861755</v>
+        <v>15.50525293395646</v>
       </c>
       <c r="C639">
-        <v>15.87649629908295</v>
+        <v>15.87649532406493</v>
       </c>
       <c r="D639">
-        <v>15.44996284763212</v>
+        <v>15.44996189880866</v>
       </c>
       <c r="E639">
-        <v>15.52895069122314</v>
+        <v>15.52894973754883</v>
       </c>
       <c r="F639">
         <v>2887100</v>
@@ -17606,16 +17606,16 @@
         <v>45254</v>
       </c>
       <c r="B641">
-        <v>15.41046881910235</v>
+        <v>15.41046690192705</v>
       </c>
       <c r="C641">
-        <v>15.54474769374299</v>
+        <v>15.54474575986241</v>
       </c>
       <c r="D641">
-        <v>15.28408887903677</v>
+        <v>15.28408697758407</v>
       </c>
       <c r="E641">
-        <v>15.33148097991943</v>
+        <v>15.3314790725708</v>
       </c>
       <c r="F641">
         <v>1431500</v>
@@ -17632,16 +17632,16 @@
         <v>45257</v>
       </c>
       <c r="B642">
-        <v>15.37097215338381</v>
+        <v>15.37097117507585</v>
       </c>
       <c r="C642">
-        <v>15.46575784942791</v>
+        <v>15.46575686508717</v>
       </c>
       <c r="D642">
-        <v>14.92074348695128</v>
+        <v>14.92074253729878</v>
       </c>
       <c r="E642">
-        <v>14.9839334487915</v>
+        <v>14.98393249511719</v>
       </c>
       <c r="F642">
         <v>2099900</v>
@@ -17658,16 +17658,16 @@
         <v>45258</v>
       </c>
       <c r="B643">
-        <v>15.00763177841378</v>
+        <v>15.00763083467361</v>
       </c>
       <c r="C643">
-        <v>15.29198738894854</v>
+        <v>15.29198642732695</v>
       </c>
       <c r="D643">
-        <v>14.9444418101358</v>
+        <v>14.94444087036927</v>
       </c>
       <c r="E643">
-        <v>15.16560745239258</v>
+        <v>15.16560649871826</v>
       </c>
       <c r="F643">
         <v>3112800</v>
@@ -17684,16 +17684,16 @@
         <v>45259</v>
       </c>
       <c r="B644">
-        <v>15.29988760203377</v>
+        <v>15.29988666242683</v>
       </c>
       <c r="C644">
-        <v>15.65533063834165</v>
+        <v>15.65532967690601</v>
       </c>
       <c r="D644">
-        <v>15.23669762847451</v>
+        <v>15.23669669274824</v>
       </c>
       <c r="E644">
-        <v>15.52895069122314</v>
+        <v>15.52894973754883</v>
       </c>
       <c r="F644">
         <v>3127300</v>
@@ -17710,16 +17710,16 @@
         <v>45260</v>
       </c>
       <c r="B645">
-        <v>15.62373382103317</v>
+        <v>15.62373477374425</v>
       </c>
       <c r="C645">
-        <v>15.82120264406993</v>
+        <v>15.82120360882236</v>
       </c>
       <c r="D645">
-        <v>15.43416393170598</v>
+        <v>15.43416487285738</v>
       </c>
       <c r="E645">
-        <v>15.63953018188477</v>
+        <v>15.63953113555908</v>
       </c>
       <c r="F645">
         <v>2036000</v>
@@ -17762,16 +17762,16 @@
         <v>45264</v>
       </c>
       <c r="B647">
-        <v>16.51629316463682</v>
+        <v>16.51629515379698</v>
       </c>
       <c r="C647">
-        <v>16.51629316463682</v>
+        <v>16.51629515379698</v>
       </c>
       <c r="D647">
-        <v>15.83699989318848</v>
+        <v>15.83700180053711</v>
       </c>
       <c r="E647">
-        <v>15.83699989318848</v>
+        <v>15.83700180053711</v>
       </c>
       <c r="F647">
         <v>3915200</v>
@@ -17788,16 +17788,16 @@
         <v>45265</v>
       </c>
       <c r="B648">
-        <v>15.84490051737565</v>
+        <v>15.84489866631554</v>
       </c>
       <c r="C648">
-        <v>16.42940814790451</v>
+        <v>16.42940622856004</v>
       </c>
       <c r="D648">
-        <v>15.79750841397272</v>
+        <v>15.79750656844913</v>
       </c>
       <c r="E648">
-        <v>16.32672500610352</v>
+        <v>16.32672309875488</v>
       </c>
       <c r="F648">
         <v>4149600</v>
@@ -17814,16 +17814,16 @@
         <v>45266</v>
       </c>
       <c r="B649">
-        <v>16.62363527015204</v>
+        <v>16.62363830286595</v>
       </c>
       <c r="C649">
-        <v>16.62363527015204</v>
+        <v>16.62363830286595</v>
       </c>
       <c r="D649">
-        <v>15.5770528762836</v>
+        <v>15.57705571806544</v>
       </c>
       <c r="E649">
-        <v>15.68252182006836</v>
+        <v>15.68252468109131</v>
       </c>
       <c r="F649">
         <v>3026600</v>
@@ -17840,16 +17840,16 @@
         <v>45267</v>
       </c>
       <c r="B650">
-        <v>15.81233243643312</v>
+        <v>15.81233427856512</v>
       </c>
       <c r="C650">
-        <v>16.37213325500488</v>
+        <v>16.37213516235352</v>
       </c>
       <c r="D650">
-        <v>15.68252377523406</v>
+        <v>15.68252560224339</v>
       </c>
       <c r="E650">
-        <v>16.37213325500488</v>
+        <v>16.37213516235352</v>
       </c>
       <c r="F650">
         <v>3764500</v>
@@ -17918,16 +17918,16 @@
         <v>45272</v>
       </c>
       <c r="B653">
-        <v>16.51005453787631</v>
+        <v>16.51005648444323</v>
       </c>
       <c r="C653">
-        <v>16.70476752244445</v>
+        <v>16.7047694919684</v>
       </c>
       <c r="D653">
-        <v>16.08006239647089</v>
+        <v>16.08006429234092</v>
       </c>
       <c r="E653">
-        <v>16.17741966247559</v>
+        <v>16.17742156982422</v>
       </c>
       <c r="F653">
         <v>2240300</v>
@@ -17944,16 +17944,16 @@
         <v>45273</v>
       </c>
       <c r="B654">
-        <v>16.55873104672634</v>
+        <v>16.55873290935725</v>
       </c>
       <c r="C654">
-        <v>17.11853179885649</v>
+        <v>17.11853372445733</v>
       </c>
       <c r="D654">
-        <v>16.28288728755734</v>
+        <v>16.2828891191596</v>
       </c>
       <c r="E654">
-        <v>16.95627021789551</v>
+        <v>16.95627212524414</v>
       </c>
       <c r="F654">
         <v>4347600</v>
@@ -17970,16 +17970,16 @@
         <v>45274</v>
       </c>
       <c r="B655">
-        <v>17.07796791406815</v>
+        <v>17.07796602910624</v>
       </c>
       <c r="C655">
-        <v>17.39437788451768</v>
+        <v>17.39437596463237</v>
       </c>
       <c r="D655">
-        <v>16.67231545485094</v>
+        <v>16.67231361466247</v>
       </c>
       <c r="E655">
-        <v>17.28079414367676</v>
+        <v>17.28079223632812</v>
       </c>
       <c r="F655">
         <v>5496900</v>
@@ -18074,16 +18074,16 @@
         <v>45280</v>
       </c>
       <c r="B659">
-        <v>17.62965421483301</v>
+        <v>17.62965618099454</v>
       </c>
       <c r="C659">
-        <v>17.68644530737289</v>
+        <v>17.6864472798681</v>
       </c>
       <c r="D659">
-        <v>16.95627124375497</v>
+        <v>16.95627313481692</v>
       </c>
       <c r="E659">
-        <v>17.1023063659668</v>
+        <v>17.10230827331543</v>
       </c>
       <c r="F659">
         <v>1327300</v>
@@ -18126,16 +18126,16 @@
         <v>45282</v>
       </c>
       <c r="B661">
-        <v>17.38626480102539</v>
+        <v>17.38626670837402</v>
       </c>
       <c r="C661">
-        <v>17.57286456250414</v>
+        <v>17.57286649032358</v>
       </c>
       <c r="D661">
-        <v>17.26456937168887</v>
+        <v>17.26457126568699</v>
       </c>
       <c r="E661">
-        <v>17.38626480102539</v>
+        <v>17.38626670837402</v>
       </c>
       <c r="F661">
         <v>1966700</v>
@@ -18152,16 +18152,16 @@
         <v>45286</v>
       </c>
       <c r="B662">
-        <v>17.46739589423752</v>
+        <v>17.46739403524172</v>
       </c>
       <c r="C662">
-        <v>17.97040408986442</v>
+        <v>17.97040217733517</v>
       </c>
       <c r="D662">
-        <v>17.39437832593016</v>
+        <v>17.39437647470538</v>
       </c>
       <c r="E662">
-        <v>17.92172622680664</v>
+        <v>17.92172431945801</v>
       </c>
       <c r="F662">
         <v>1704900</v>
@@ -18178,16 +18178,16 @@
         <v>45287</v>
       </c>
       <c r="B663">
-        <v>17.95417765325139</v>
+        <v>17.9541757223446</v>
       </c>
       <c r="C663">
-        <v>18.07587463228532</v>
+        <v>18.07587268829046</v>
       </c>
       <c r="D663">
-        <v>17.65399569181917</v>
+        <v>17.65399379319586</v>
       </c>
       <c r="E663">
-        <v>17.73512649536133</v>
+        <v>17.7351245880127</v>
       </c>
       <c r="F663">
         <v>1465600</v>
@@ -18386,16 +18386,16 @@
         <v>45301</v>
       </c>
       <c r="B671">
-        <v>16.86703191647798</v>
+        <v>16.86702995826663</v>
       </c>
       <c r="C671">
-        <v>16.87514360483706</v>
+        <v>16.87514164568396</v>
       </c>
       <c r="D671">
-        <v>16.42892646789551</v>
+        <v>16.42892456054688</v>
       </c>
       <c r="E671">
-        <v>16.42892646789551</v>
+        <v>16.42892456054688</v>
       </c>
       <c r="F671">
         <v>2798800</v>
@@ -18464,16 +18464,16 @@
         <v>45306</v>
       </c>
       <c r="B674">
-        <v>16.87514209317805</v>
+        <v>16.8751402253414</v>
       </c>
       <c r="C674">
-        <v>17.43494293373984</v>
+        <v>17.43494100394124</v>
       </c>
       <c r="D674">
-        <v>16.73722019180606</v>
+        <v>16.73721833923538</v>
       </c>
       <c r="E674">
-        <v>17.23211669921875</v>
+        <v>17.23211479187012</v>
       </c>
       <c r="F674">
         <v>1103700</v>
@@ -18542,16 +18542,16 @@
         <v>45309</v>
       </c>
       <c r="B677">
-        <v>18.53831966499686</v>
+        <v>18.53831777008742</v>
       </c>
       <c r="C677">
-        <v>19.65791989049467</v>
+        <v>19.65791788114439</v>
       </c>
       <c r="D677">
-        <v>18.23813613241414</v>
+        <v>18.23813426818822</v>
       </c>
       <c r="E677">
-        <v>18.66001510620117</v>
+        <v>18.66001319885254</v>
       </c>
       <c r="F677">
         <v>11773400</v>
@@ -18568,16 +18568,16 @@
         <v>45310</v>
       </c>
       <c r="B678">
-        <v>18.44907304268638</v>
+        <v>18.44907488992268</v>
       </c>
       <c r="C678">
-        <v>19.21170007380092</v>
+        <v>19.2117019973962</v>
       </c>
       <c r="D678">
-        <v>18.27869975828319</v>
+        <v>18.27870158846065</v>
       </c>
       <c r="E678">
-        <v>19.0494384765625</v>
+        <v>19.04944038391113</v>
       </c>
       <c r="F678">
         <v>5316800</v>
@@ -18594,16 +18594,16 @@
         <v>45313</v>
       </c>
       <c r="B679">
-        <v>19.049439728452</v>
+        <v>19.04943782272668</v>
       </c>
       <c r="C679">
-        <v>19.48754514132235</v>
+        <v>19.48754319176852</v>
       </c>
       <c r="D679">
-        <v>18.55454476448977</v>
+        <v>18.55454290827425</v>
       </c>
       <c r="E679">
-        <v>19.06566619873047</v>
+        <v>19.06566429138184</v>
       </c>
       <c r="F679">
         <v>3576800</v>
@@ -18620,16 +18620,16 @@
         <v>45314</v>
       </c>
       <c r="B680">
-        <v>19.09000572566773</v>
+        <v>19.09000380772263</v>
       </c>
       <c r="C680">
-        <v>19.22792762686245</v>
+        <v>19.22792569506054</v>
       </c>
       <c r="D680">
-        <v>18.63567384676665</v>
+        <v>18.63567197446761</v>
       </c>
       <c r="E680">
-        <v>18.98453521728516</v>
+        <v>18.98453330993652</v>
       </c>
       <c r="F680">
         <v>2854400</v>
@@ -18672,16 +18672,16 @@
         <v>45316</v>
       </c>
       <c r="B682">
-        <v>19.22792947535583</v>
+        <v>19.22792756478253</v>
       </c>
       <c r="C682">
-        <v>19.45509388920365</v>
+        <v>19.45509195605827</v>
       </c>
       <c r="D682">
-        <v>18.84661512792583</v>
+        <v>18.84661325524163</v>
       </c>
       <c r="E682">
-        <v>19.19547653198242</v>
+        <v>19.19547462463379</v>
       </c>
       <c r="F682">
         <v>2347400</v>
@@ -18698,16 +18698,16 @@
         <v>45317</v>
       </c>
       <c r="B683">
-        <v>19.18735987997558</v>
+        <v>19.18736177291703</v>
       </c>
       <c r="C683">
-        <v>19.46320365977163</v>
+        <v>19.46320557992662</v>
       </c>
       <c r="D683">
-        <v>18.9520822721738</v>
+        <v>18.95208414190378</v>
       </c>
       <c r="E683">
-        <v>19.33339500427246</v>
+        <v>19.33339691162109</v>
       </c>
       <c r="F683">
         <v>2475700</v>
@@ -18724,16 +18724,16 @@
         <v>45320</v>
       </c>
       <c r="B684">
-        <v>19.39018527249631</v>
+        <v>19.39018722980115</v>
       </c>
       <c r="C684">
-        <v>19.44697636343036</v>
+        <v>19.44697832646787</v>
       </c>
       <c r="D684">
-        <v>18.74925525667334</v>
+        <v>18.74925714928074</v>
       </c>
       <c r="E684">
-        <v>18.89529037475586</v>
+        <v>18.89529228210449</v>
       </c>
       <c r="F684">
         <v>1534800</v>
@@ -18750,16 +18750,16 @@
         <v>45321</v>
       </c>
       <c r="B685">
-        <v>18.87906417098602</v>
+        <v>18.87906611169446</v>
       </c>
       <c r="C685">
-        <v>18.92774202854804</v>
+        <v>18.92774397426041</v>
       </c>
       <c r="D685">
-        <v>18.43284557643707</v>
+        <v>18.43284747127564</v>
       </c>
       <c r="E685">
-        <v>18.55454254150391</v>
+        <v>18.55454444885254</v>
       </c>
       <c r="F685">
         <v>1394900</v>
@@ -18776,16 +18776,16 @@
         <v>45322</v>
       </c>
       <c r="B686">
-        <v>18.59510782916768</v>
+        <v>18.5951097257591</v>
       </c>
       <c r="C686">
-        <v>19.00076026737165</v>
+        <v>19.00076220533723</v>
       </c>
       <c r="D686">
-        <v>18.51397703203864</v>
+        <v>18.51397892035519</v>
       </c>
       <c r="E686">
-        <v>18.70057678222656</v>
+        <v>18.7005786895752</v>
       </c>
       <c r="F686">
         <v>2281700</v>
@@ -18802,16 +18802,16 @@
         <v>45323</v>
       </c>
       <c r="B687">
-        <v>19.16302445714174</v>
+        <v>19.16302250347404</v>
       </c>
       <c r="C687">
-        <v>19.16302445714174</v>
+        <v>19.16302250347404</v>
       </c>
       <c r="D687">
-        <v>18.43284873152386</v>
+        <v>18.43284685229746</v>
       </c>
       <c r="E687">
-        <v>18.70869255065918</v>
+        <v>18.70869064331055</v>
       </c>
       <c r="F687">
         <v>2020400</v>
@@ -18828,16 +18828,16 @@
         <v>45324</v>
       </c>
       <c r="B688">
-        <v>19.13057228863343</v>
+        <v>19.13057024057867</v>
       </c>
       <c r="C688">
-        <v>19.13057228863343</v>
+        <v>19.13057024057867</v>
       </c>
       <c r="D688">
-        <v>17.81625747680664</v>
+        <v>17.81625556945801</v>
       </c>
       <c r="E688">
-        <v>17.81625747680664</v>
+        <v>17.81625556945801</v>
       </c>
       <c r="F688">
         <v>3344500</v>
@@ -18932,16 +18932,16 @@
         <v>45330</v>
       </c>
       <c r="B692">
-        <v>18.4409594794328</v>
+        <v>18.44096139605667</v>
       </c>
       <c r="C692">
-        <v>18.53020351106758</v>
+        <v>18.53020543696685</v>
       </c>
       <c r="D692">
-        <v>17.70267216529387</v>
+        <v>17.70267400518534</v>
       </c>
       <c r="E692">
-        <v>18.35171699523926</v>
+        <v>18.35171890258789</v>
       </c>
       <c r="F692">
         <v>2297500</v>
@@ -18984,16 +18984,16 @@
         <v>45336</v>
       </c>
       <c r="B694">
-        <v>17.83248273482852</v>
+        <v>17.83248080375879</v>
       </c>
       <c r="C694">
-        <v>17.89738707004175</v>
+        <v>17.89738513194356</v>
       </c>
       <c r="D694">
-        <v>17.52418752942606</v>
+        <v>17.52418563174145</v>
       </c>
       <c r="E694">
-        <v>17.61343002319336</v>
+        <v>17.61342811584473</v>
       </c>
       <c r="F694">
         <v>1255000</v>
@@ -19088,16 +19088,16 @@
         <v>45342</v>
       </c>
       <c r="B698">
-        <v>18.54643046050802</v>
+        <v>18.54642861374861</v>
       </c>
       <c r="C698">
-        <v>19.33339565436385</v>
+        <v>19.33339372924243</v>
       </c>
       <c r="D698">
-        <v>18.39228209662901</v>
+        <v>18.3922802652189</v>
       </c>
       <c r="E698">
-        <v>19.15490913391113</v>
+        <v>19.1549072265625</v>
       </c>
       <c r="F698">
         <v>2257600</v>
@@ -19114,16 +19114,16 @@
         <v>45343</v>
       </c>
       <c r="B699">
-        <v>19.66602987741924</v>
+        <v>19.66603181758418</v>
       </c>
       <c r="C699">
-        <v>19.80395176731727</v>
+        <v>19.80395372108898</v>
       </c>
       <c r="D699">
-        <v>19.24415097332632</v>
+        <v>19.24415287187052</v>
       </c>
       <c r="E699">
-        <v>19.33339500427246</v>
+        <v>19.33339691162109</v>
       </c>
       <c r="F699">
         <v>2177900</v>
@@ -19166,16 +19166,16 @@
         <v>45345</v>
       </c>
       <c r="B701">
-        <v>19.59301456587573</v>
+        <v>19.59301259823502</v>
       </c>
       <c r="C701">
-        <v>19.73904970694733</v>
+        <v>19.73904772464095</v>
       </c>
       <c r="D701">
-        <v>18.93585797849494</v>
+        <v>18.93585607684959</v>
       </c>
       <c r="E701">
-        <v>18.99264907836914</v>
+        <v>18.99264717102051</v>
       </c>
       <c r="F701">
         <v>2558000</v>
@@ -19192,16 +19192,16 @@
         <v>45348</v>
       </c>
       <c r="B702">
-        <v>18.88718011395155</v>
+        <v>18.8871782171947</v>
       </c>
       <c r="C702">
-        <v>19.09811959022815</v>
+        <v>19.09811767228757</v>
       </c>
       <c r="D702">
-        <v>18.61944953780075</v>
+        <v>18.61944766793092</v>
       </c>
       <c r="E702">
-        <v>18.99264907836914</v>
+        <v>18.99264717102051</v>
       </c>
       <c r="F702">
         <v>2917900</v>
@@ -19218,16 +19218,16 @@
         <v>45349</v>
       </c>
       <c r="B703">
-        <v>19.10622933158785</v>
+        <v>19.10623124788725</v>
       </c>
       <c r="C703">
-        <v>19.31716878637408</v>
+        <v>19.3171707238301</v>
       </c>
       <c r="D703">
-        <v>18.89529142424288</v>
+        <v>18.89529331938581</v>
       </c>
       <c r="E703">
-        <v>19.01698684692383</v>
+        <v>19.01698875427246</v>
       </c>
       <c r="F703">
         <v>1994200</v>
@@ -19270,16 +19270,16 @@
         <v>45351</v>
       </c>
       <c r="B705">
-        <v>18.77359731166634</v>
+        <v>18.77359539270781</v>
       </c>
       <c r="C705">
-        <v>18.81416349036211</v>
+        <v>18.81416156725707</v>
       </c>
       <c r="D705">
-        <v>18.49775348630109</v>
+        <v>18.49775159553816</v>
       </c>
       <c r="E705">
-        <v>18.66001510620117</v>
+        <v>18.66001319885254</v>
       </c>
       <c r="F705">
         <v>997900</v>
@@ -19374,16 +19374,16 @@
         <v>45357</v>
       </c>
       <c r="B709">
-        <v>18.18134325662809</v>
+        <v>18.18134525120027</v>
       </c>
       <c r="C709">
-        <v>18.28681376351005</v>
+        <v>18.28681576965281</v>
       </c>
       <c r="D709">
-        <v>17.3700383311295</v>
+        <v>17.37004023669802</v>
       </c>
       <c r="E709">
-        <v>17.38626480102539</v>
+        <v>17.38626670837402</v>
       </c>
       <c r="F709">
         <v>7559500</v>
@@ -19556,16 +19556,16 @@
         <v>45366</v>
       </c>
       <c r="B716">
-        <v>17.73512690982247</v>
+        <v>17.73512508511168</v>
       </c>
       <c r="C716">
-        <v>18.5383186340332</v>
+        <v>18.53831672668457</v>
       </c>
       <c r="D716">
-        <v>17.73512690982247</v>
+        <v>17.73512508511168</v>
       </c>
       <c r="E716">
-        <v>18.5383186340332</v>
+        <v>18.53831672668457</v>
       </c>
       <c r="F716">
         <v>5271400</v>
@@ -19608,16 +19608,16 @@
         <v>45370</v>
       </c>
       <c r="B718">
-        <v>18.87906625634395</v>
+        <v>18.87906435959163</v>
       </c>
       <c r="C718">
-        <v>19.17924821648218</v>
+        <v>19.17924628957101</v>
       </c>
       <c r="D718">
-        <v>18.79793545315152</v>
+        <v>18.79793356455029</v>
       </c>
       <c r="E718">
-        <v>18.98453521728516</v>
+        <v>18.98453330993652</v>
       </c>
       <c r="F718">
         <v>1795400</v>
@@ -19634,16 +19634,16 @@
         <v>45371</v>
       </c>
       <c r="B719">
-        <v>18.87906760777787</v>
+        <v>18.87906568888443</v>
       </c>
       <c r="C719">
-        <v>18.98453657626894</v>
+        <v>18.9845346466555</v>
       </c>
       <c r="D719">
-        <v>18.21379775937188</v>
+        <v>18.21379590809736</v>
       </c>
       <c r="E719">
-        <v>18.76548385620117</v>
+        <v>18.76548194885254</v>
       </c>
       <c r="F719">
         <v>1660300</v>
@@ -19738,16 +19738,16 @@
         <v>45377</v>
       </c>
       <c r="B723">
-        <v>18.69246449406703</v>
+        <v>18.69246644027227</v>
       </c>
       <c r="C723">
-        <v>18.75736882019471</v>
+        <v>18.7573707731576</v>
       </c>
       <c r="D723">
-        <v>18.22190619533983</v>
+        <v>18.22190809255191</v>
       </c>
       <c r="E723">
-        <v>18.31926345825195</v>
+        <v>18.31926536560059</v>
       </c>
       <c r="F723">
         <v>1674400</v>
@@ -19842,16 +19842,16 @@
         <v>45384</v>
       </c>
       <c r="B727">
-        <v>17.80814360820739</v>
+        <v>17.80814559521757</v>
       </c>
       <c r="C727">
-        <v>17.80814360820739</v>
+        <v>17.80814559521757</v>
       </c>
       <c r="D727">
-        <v>17.03740331543727</v>
+        <v>17.03740521644922</v>
       </c>
       <c r="E727">
-        <v>17.09419441223145</v>
+        <v>17.09419631958008</v>
       </c>
       <c r="F727">
         <v>10879400</v>
@@ -19868,16 +19868,16 @@
         <v>45385</v>
       </c>
       <c r="B728">
-        <v>17.2402272834268</v>
+        <v>17.24022912240851</v>
       </c>
       <c r="C728">
-        <v>18.10832318610759</v>
+        <v>18.10832511768741</v>
       </c>
       <c r="D728">
-        <v>17.2402272834268</v>
+        <v>17.24022912240851</v>
       </c>
       <c r="E728">
-        <v>17.88115882873535</v>
+        <v>17.88116073608398</v>
       </c>
       <c r="F728">
         <v>5909000</v>
@@ -19920,16 +19920,16 @@
         <v>45387</v>
       </c>
       <c r="B730">
-        <v>17.85682016060837</v>
+        <v>17.85682215494306</v>
       </c>
       <c r="C730">
-        <v>18.02719343849684</v>
+        <v>18.02719545185963</v>
       </c>
       <c r="D730">
-        <v>17.05362853461725</v>
+        <v>17.05363043924768</v>
       </c>
       <c r="E730">
-        <v>17.07796669006348</v>
+        <v>17.07796859741211</v>
       </c>
       <c r="F730">
         <v>3862500</v>
@@ -19998,16 +19998,16 @@
         <v>45392</v>
       </c>
       <c r="B733">
-        <v>17.68644599569476</v>
+        <v>17.68644787121116</v>
       </c>
       <c r="C733">
-        <v>18.09209844098539</v>
+        <v>18.09210035951822</v>
       </c>
       <c r="D733">
-        <v>17.32135972339796</v>
+        <v>17.32136156019967</v>
       </c>
       <c r="E733">
-        <v>17.98662948608398</v>
+        <v>17.98663139343262</v>
       </c>
       <c r="F733">
         <v>4931300</v>
@@ -20102,16 +20102,16 @@
         <v>45398</v>
       </c>
       <c r="B737">
-        <v>17.00495218227766</v>
+        <v>17.00495025190454</v>
       </c>
       <c r="C737">
-        <v>17.14287409518956</v>
+        <v>17.14287214915977</v>
       </c>
       <c r="D737">
-        <v>16.71288343239008</v>
+        <v>16.7128815351721</v>
       </c>
       <c r="E737">
-        <v>16.80212593078613</v>
+        <v>16.8021240234375</v>
       </c>
       <c r="F737">
         <v>3262900</v>
@@ -20232,16 +20232,16 @@
         <v>45405</v>
       </c>
       <c r="B742">
-        <v>16.51005663550979</v>
+        <v>16.51005479508565</v>
       </c>
       <c r="C742">
-        <v>17.11042213439941</v>
+        <v>17.11042022705078</v>
       </c>
       <c r="D742">
-        <v>16.42892582810493</v>
+        <v>16.42892399672468</v>
       </c>
       <c r="E742">
-        <v>17.11042213439941</v>
+        <v>17.11042022705078</v>
       </c>
       <c r="F742">
         <v>2897800</v>
@@ -20258,16 +20258,16 @@
         <v>45406</v>
       </c>
       <c r="B743">
-        <v>17.19966532625768</v>
+        <v>17.19966349575554</v>
       </c>
       <c r="C743">
-        <v>17.94606593205621</v>
+        <v>17.94606402211719</v>
       </c>
       <c r="D743">
-        <v>17.11042128778395</v>
+        <v>17.11041946677975</v>
       </c>
       <c r="E743">
-        <v>17.92172622680664</v>
+        <v>17.92172431945801</v>
       </c>
       <c r="F743">
         <v>6536400</v>
@@ -20310,16 +20310,16 @@
         <v>45408</v>
       </c>
       <c r="B745">
-        <v>17.93741111068266</v>
+        <v>17.93741297161343</v>
       </c>
       <c r="C745">
-        <v>18.46617959121234</v>
+        <v>18.4661815070006</v>
       </c>
       <c r="D745">
-        <v>17.84792847913277</v>
+        <v>17.84793033078008</v>
       </c>
       <c r="E745">
-        <v>18.38483047485352</v>
+        <v>18.38483238220215</v>
       </c>
       <c r="F745">
         <v>2994700</v>
@@ -20388,16 +20388,16 @@
         <v>45414</v>
       </c>
       <c r="B748">
-        <v>17.90487260818777</v>
+        <v>17.9048706824655</v>
       </c>
       <c r="C748">
-        <v>18.01876044148229</v>
+        <v>18.01875850351106</v>
       </c>
       <c r="D748">
-        <v>17.50626364005158</v>
+        <v>17.5062617572009</v>
       </c>
       <c r="E748">
-        <v>17.73403930664062</v>
+        <v>17.73403739929199</v>
       </c>
       <c r="F748">
         <v>3051900</v>
@@ -20414,16 +20414,16 @@
         <v>45415</v>
       </c>
       <c r="B749">
-        <v>17.83165760384489</v>
+        <v>17.83165954394157</v>
       </c>
       <c r="C749">
-        <v>17.96181556396304</v>
+        <v>17.961817518221</v>
       </c>
       <c r="D749">
-        <v>17.43304865703238</v>
+        <v>17.43305055376014</v>
       </c>
       <c r="E749">
-        <v>17.53066635131836</v>
+        <v>17.53066825866699</v>
       </c>
       <c r="F749">
         <v>2709900</v>
@@ -20440,16 +20440,16 @@
         <v>45418</v>
       </c>
       <c r="B750">
-        <v>17.57134271679585</v>
+        <v>17.57134080235671</v>
       </c>
       <c r="C750">
-        <v>17.88860256928793</v>
+        <v>17.88860062028258</v>
       </c>
       <c r="D750">
-        <v>17.43304968208808</v>
+        <v>17.43304778271629</v>
       </c>
       <c r="E750">
-        <v>17.50626373291016</v>
+        <v>17.50626182556152</v>
       </c>
       <c r="F750">
         <v>2596500</v>
@@ -20466,16 +20466,16 @@
         <v>45419</v>
       </c>
       <c r="B751">
-        <v>17.52253476936689</v>
+        <v>17.52253285669034</v>
       </c>
       <c r="C751">
-        <v>17.79098578567392</v>
+        <v>17.79098384369454</v>
       </c>
       <c r="D751">
-        <v>17.38424172753566</v>
+        <v>17.38423982995453</v>
       </c>
       <c r="E751">
-        <v>17.47372436523438</v>
+        <v>17.47372245788574</v>
       </c>
       <c r="F751">
         <v>1290400</v>
@@ -20492,16 +20492,16 @@
         <v>45420</v>
       </c>
       <c r="B752">
-        <v>17.34356639075857</v>
+        <v>17.34356449761736</v>
       </c>
       <c r="C752">
-        <v>17.72590679843602</v>
+        <v>17.72590486356035</v>
       </c>
       <c r="D752">
-        <v>17.14832942904486</v>
+        <v>17.14832755721479</v>
       </c>
       <c r="E752">
-        <v>17.47372436523438</v>
+        <v>17.47372245788574</v>
       </c>
       <c r="F752">
         <v>2277000</v>
@@ -20570,16 +20570,16 @@
         <v>45425</v>
       </c>
       <c r="B755">
-        <v>17.36797184412265</v>
+        <v>17.36796994123037</v>
       </c>
       <c r="C755">
-        <v>17.75844577319986</v>
+        <v>17.75844382752597</v>
       </c>
       <c r="D755">
-        <v>17.36797184412265</v>
+        <v>17.36796994123037</v>
       </c>
       <c r="E755">
-        <v>17.40864562988281</v>
+        <v>17.40864372253418</v>
       </c>
       <c r="F755">
         <v>1196100</v>
@@ -20622,16 +20622,16 @@
         <v>45427</v>
       </c>
       <c r="B757">
-        <v>17.22154182522729</v>
+        <v>17.22154370592464</v>
       </c>
       <c r="C757">
-        <v>17.72590509145564</v>
+        <v>17.72590702723253</v>
       </c>
       <c r="D757">
-        <v>17.17273297740045</v>
+        <v>17.17273485276757</v>
       </c>
       <c r="E757">
-        <v>17.4655876159668</v>
+        <v>17.46558952331543</v>
       </c>
       <c r="F757">
         <v>2289000</v>
@@ -20674,16 +20674,16 @@
         <v>45429</v>
       </c>
       <c r="B759">
-        <v>16.99376778733176</v>
+        <v>16.99376588362841</v>
       </c>
       <c r="C759">
-        <v>17.12392577356307</v>
+        <v>17.12392385527895</v>
       </c>
       <c r="D759">
-        <v>16.76599208722977</v>
+        <v>16.76599020904267</v>
       </c>
       <c r="E759">
-        <v>17.02630805969238</v>
+        <v>17.02630615234375</v>
       </c>
       <c r="F759">
         <v>1164400</v>
@@ -20778,16 +20778,16 @@
         <v>45435</v>
       </c>
       <c r="B763">
-        <v>16.3999178992403</v>
+        <v>16.39991983442633</v>
       </c>
       <c r="C763">
-        <v>16.45686181078683</v>
+        <v>16.45686375269223</v>
       </c>
       <c r="D763">
-        <v>16.00130896680938</v>
+        <v>16.00131085495966</v>
       </c>
       <c r="E763">
-        <v>16.16400718688965</v>
+        <v>16.16400909423828</v>
       </c>
       <c r="F763">
         <v>1496500</v>
@@ -20804,16 +20804,16 @@
         <v>45436</v>
       </c>
       <c r="B764">
-        <v>16.23721914576303</v>
+        <v>16.23722108123211</v>
       </c>
       <c r="C764">
-        <v>16.26162434345492</v>
+        <v>16.26162628183309</v>
       </c>
       <c r="D764">
-        <v>15.879285555913</v>
+        <v>15.87928744871656</v>
       </c>
       <c r="E764">
-        <v>16.00130844116211</v>
+        <v>16.00131034851074</v>
       </c>
       <c r="F764">
         <v>1262100</v>
@@ -20830,16 +20830,16 @@
         <v>45439</v>
       </c>
       <c r="B765">
-        <v>16.06638857370223</v>
+        <v>16.06639045909444</v>
       </c>
       <c r="C765">
-        <v>16.32670449474081</v>
+        <v>16.32670641068112</v>
       </c>
       <c r="D765">
-        <v>15.93623061318293</v>
+        <v>15.93623248330109</v>
       </c>
       <c r="E765">
-        <v>16.25349044799805</v>
+        <v>16.25349235534668</v>
       </c>
       <c r="F765">
         <v>829400</v>
@@ -20856,16 +20856,16 @@
         <v>45440</v>
       </c>
       <c r="B766">
-        <v>16.44059569085368</v>
+        <v>16.44059377020023</v>
       </c>
       <c r="C766">
-        <v>16.74972207412873</v>
+        <v>16.74972011736195</v>
       </c>
       <c r="D766">
-        <v>16.21281998907796</v>
+        <v>16.21281809503414</v>
       </c>
       <c r="E766">
-        <v>16.32670783996582</v>
+        <v>16.32670593261719</v>
       </c>
       <c r="F766">
         <v>1073600</v>
@@ -20934,16 +20934,16 @@
         <v>45446</v>
       </c>
       <c r="B769">
-        <v>17.16460085514558</v>
+        <v>17.16459893962647</v>
       </c>
       <c r="C769">
-        <v>17.30289390738137</v>
+        <v>17.30289197642916</v>
       </c>
       <c r="D769">
-        <v>17.00190259900738</v>
+        <v>17.00190070164492</v>
       </c>
       <c r="E769">
-        <v>17.09138679504395</v>
+        <v>17.09138488769531</v>
       </c>
       <c r="F769">
         <v>4208000</v>
@@ -27140,6 +27140,58 @@
         <v>0.9001400000000001</v>
       </c>
       <c r="H1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8">
+      <c r="A1008" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1008">
+        <v>14.22000026702881</v>
+      </c>
+      <c r="C1008">
+        <v>14.26000022888184</v>
+      </c>
+      <c r="D1008">
+        <v>14.01000022888184</v>
+      </c>
+      <c r="E1008">
+        <v>14.11999988555908</v>
+      </c>
+      <c r="F1008">
+        <v>2867400</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8">
+      <c r="A1009" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1009">
+        <v>14.07999992370605</v>
+      </c>
+      <c r="C1009">
+        <v>14.19999980926514</v>
+      </c>
+      <c r="D1009">
+        <v>13.93000030517578</v>
+      </c>
+      <c r="E1009">
+        <v>14</v>
+      </c>
+      <c r="F1009">
+        <v>1378400</v>
+      </c>
+      <c r="G1009">
+        <v>0</v>
+      </c>
+      <c r="H1009">
         <v>0</v>
       </c>
     </row>
@@ -27193,34 +27245,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C2">
-        <v>16.77776554251306</v>
+        <v>16.77255177214924</v>
       </c>
       <c r="D2">
-        <v>16.40898661347972</v>
+        <v>16.40436327029854</v>
       </c>
       <c r="E2">
         <v>11.60625402353355</v>
       </c>
       <c r="F2">
-        <v>3.333861179907508</v>
+        <v>3.3326044282714</v>
       </c>
       <c r="G2">
-        <v>10.02592268920043</v>
+        <v>10.025920877485</v>
       </c>
       <c r="H2">
-        <v>14.77561574218148</v>
+        <v>14.76540820360783</v>
       </c>
       <c r="I2">
-        <v>18.50289766062511</v>
+        <v>18.48968722023459</v>
       </c>
       <c r="J2">
-        <v>3.727281918443623</v>
+        <v>3.724279016626761</v>
       </c>
       <c r="K2">
-        <v>27.58381293137869</v>
+        <v>27.58381100501465</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -27228,34 +27280,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C3">
-        <v>17.10283119738522</v>
+        <v>17.09713118654492</v>
       </c>
       <c r="D3">
-        <v>16.65311557642436</v>
+        <v>16.63354127018124</v>
       </c>
       <c r="E3">
         <v>10.26848482825601</v>
       </c>
       <c r="F3">
-        <v>3.39544374636792</v>
+        <v>3.394480977108534</v>
       </c>
       <c r="G3">
         <v>10.26848482825601</v>
       </c>
       <c r="H3">
-        <v>15.04548974836982</v>
+        <v>15.03554184331852</v>
       </c>
       <c r="I3">
-        <v>18.81416301686143</v>
+        <v>18.81416157453265</v>
       </c>
       <c r="J3">
-        <v>3.768673268491607</v>
+        <v>3.77861973121413</v>
       </c>
       <c r="K3">
-        <v>27.72751697308254</v>
+        <v>27.72751503668268</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -27263,31 +27315,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C4">
-        <v>16.42856856279354</v>
+        <v>16.42369050010888</v>
       </c>
       <c r="D4">
-        <v>16.04467549276941</v>
+        <v>16.02997079778294</v>
       </c>
       <c r="E4">
-        <v>11.01087379455566</v>
+        <v>11.01087284088135</v>
       </c>
       <c r="F4">
-        <v>3.262411828010999</v>
+        <v>3.261008512768044</v>
       </c>
       <c r="G4">
         <v>9.60695022748207</v>
       </c>
       <c r="H4">
-        <v>14.54658131579408</v>
+        <v>14.54653775205726</v>
       </c>
       <c r="I4">
-        <v>18.11376654124108</v>
+        <v>18.11248247773523</v>
       </c>
       <c r="J4">
-        <v>3.567185225447</v>
+        <v>3.565944725677969</v>
       </c>
       <c r="K4">
         <v>26.28290298555504</v>
@@ -27298,34 +27350,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C5">
-        <v>16.75680315044244</v>
+        <v>16.75145240057082</v>
       </c>
       <c r="D5">
-        <v>16.33331298828125</v>
+        <v>16.32671451568604</v>
       </c>
       <c r="E5">
-        <v>11.5768518447876</v>
+        <v>11.57685279846191</v>
       </c>
       <c r="F5">
-        <v>3.327408183807046</v>
+        <v>3.326270970333529</v>
       </c>
       <c r="G5">
         <v>9.967119216918945</v>
       </c>
       <c r="H5">
-        <v>14.78348612785339</v>
+        <v>14.77243208885193</v>
       </c>
       <c r="I5">
-        <v>18.46134042739868</v>
+        <v>18.45342063903809</v>
       </c>
       <c r="J5">
-        <v>3.677854299545288</v>
+        <v>3.680988550186157</v>
       </c>
       <c r="K5">
-        <v>27.3115291595459</v>
+        <v>27.31152725219727</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -27333,10 +27385,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C6">
-        <v>2189759.034791253</v>
+        <v>2189626.37797619</v>
       </c>
       <c r="D6">
         <v>1833550</v>
@@ -27345,19 +27397,19 @@
         <v>385590</v>
       </c>
       <c r="F6">
-        <v>1772720.0508651</v>
+        <v>1771272.060040622</v>
       </c>
       <c r="G6">
         <v>180071</v>
       </c>
       <c r="H6">
-        <v>1123050</v>
+        <v>1126350</v>
       </c>
       <c r="I6">
-        <v>2763675</v>
+        <v>2765075</v>
       </c>
       <c r="J6">
-        <v>1640625</v>
+        <v>1638725</v>
       </c>
       <c r="K6">
         <v>22857400</v>
@@ -27368,10 +27420,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C7">
-        <v>0.005383868787276341</v>
+        <v>0.005373186507936507</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -27380,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07270489495495215</v>
+        <v>0.0726330550877852</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -27403,7 +27455,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C8">
         <v>0</v>
